--- a/data/hotels_by_city/Houston/Houston_shard_660.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_660.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d108054-Reviews-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-TownePlace-Suites-By-Marriott-Houston-NASAClear-Lake.h283621.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1418 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r595291995-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108054</t>
+  </si>
+  <si>
+    <t>595291995</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Handy &amp; Clean</t>
+  </si>
+  <si>
+    <t>The hotel is located in a great location around many things to do &amp; was extremely clean. Staff was helpful in directing us to NASA &amp; Kemah. Our room was nice as expected. The breakfast was good with many choices.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Bethany H, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>The hotel is located in a great location around many things to do &amp; was extremely clean. Staff was helpful in directing us to NASA &amp; Kemah. Our room was nice as expected. The breakfast was good with many choices.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r582674197-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582674197</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>Back for More!</t>
+  </si>
+  <si>
+    <t>I travel to this area for work once a year, and stay for almost two weeks.  This is the second year in a row I have chosen this hotel for lodging.  I will continue to stay here as long as I am traveling to this location.  There are several reasons why... To name a few:  1.  The staff is incredibly friendly (everyone from the breakfast host to the cleaning crew) 2.  The inside and outside is maintained very well, and kept very neat.  3.  Last, but certainly not least, the breakfast is great!  Thank you TownPlace Suites for making my stay an enjoyable one!  Keep up the excellent work!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r578329266-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578329266</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Hidden gem near NASA</t>
+  </si>
+  <si>
+    <t>Very comfy and feels like home. It's close to everything and affordable. The staff were very nice and my room was clean. Loved having a kitchen because I get tired of always eating out. Plus, it was right around the corner from a grocery store, so bonus! Just a nice, relaxing place to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Bethany H, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Very comfy and feels like home. It's close to everything and affordable. The staff were very nice and my room was clean. Loved having a kitchen because I get tired of always eating out. Plus, it was right around the corner from a grocery store, so bonus! Just a nice, relaxing place to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r569974081-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569974081</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Very Comfortable and Very Friendly!</t>
+  </si>
+  <si>
+    <t>My husband and I were in town for the funeral of a family member.  We arrived late at night on March 23, 2018 by a most accommodating staff.  Our room was clean, the bed very comfortable.  There was plenty of space to unpack and relax while not at the funeral home.  The kitchen in the room was very clean.  Everyone from the front counter staff to the help in the breakfast area were very friendly.  In fact, I don't know when I have ever met such nice people.  Thanks to everyone there who helped to make a sad trip bearable.  As I got further down on this page, it would not bring anything up when I pressed on the ratings.  So I will give it here.  SERVICE 5 out of 5 ... OVERALL 4 out of 5.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My husband and I were in town for the funeral of a family member.  We arrived late at night on March 23, 2018 by a most accommodating staff.  Our room was clean, the bed very comfortable.  There was plenty of space to unpack and relax while not at the funeral home.  The kitchen in the room was very clean.  Everyone from the front counter staff to the help in the breakfast area were very friendly.  In fact, I don't know when I have ever met such nice people.  Thanks to everyone there who helped to make a sad trip bearable.  As I got further down on this page, it would not bring anything up when I pressed on the ratings.  So I will give it here.  SERVICE 5 out of 5 ... OVERALL 4 out of 5.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r569046308-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569046308</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Wonderful facility</t>
+  </si>
+  <si>
+    <t>Several members of our family stayed here while attending a family members funeral. We were all sad and emotional and glad to have a room that provided us with the privacy and comfort we needed.Having the kitchenette with a full size refridge to keep cold waters in and some fruit was great. Although the beds are just queen size we both slept so well as the mattress was very comfortable. The only criticism I would voice is the lack of a ceiling fan as the A/C didn’t circulate the cool air to my satisfaction but I am always so warm.     The staff could not have been nicer and went out of their way to provide assistance to our needs. I had the opportunity to have a conversation with Teal on the early morning of check out . She made sure we had something to eat and had just brewed a pot of fresh coffee. She even helped me get my luggage to the curb when our ride to the airport arrived. She was proud to tell me that she just had her second anniversary with Marriott and enjoyed her job, she is an asset to the company. We would certainly stay there again when visiting our family. MoreShow less</t>
+  </si>
+  <si>
+    <t>Bethany H, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Several members of our family stayed here while attending a family members funeral. We were all sad and emotional and glad to have a room that provided us with the privacy and comfort we needed.Having the kitchenette with a full size refridge to keep cold waters in and some fruit was great. Although the beds are just queen size we both slept so well as the mattress was very comfortable. The only criticism I would voice is the lack of a ceiling fan as the A/C didn’t circulate the cool air to my satisfaction but I am always so warm.     The staff could not have been nicer and went out of their way to provide assistance to our needs. I had the opportunity to have a conversation with Teal on the early morning of check out . She made sure we had something to eat and had just brewed a pot of fresh coffee. She even helped me get my luggage to the curb when our ride to the airport arrived. She was proud to tell me that she just had her second anniversary with Marriott and enjoyed her job, she is an asset to the company. We would certainly stay there again when visiting our family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r560731526-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560731526</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>Noisy Poor Choice With Many Better Options Nearby</t>
+  </si>
+  <si>
+    <t>I booked this property because in it is affiliated with Marriott.  Don't be fooled like I was. This place is really low quality for a Marriott branded hotel.  The staff was very accommodating and friendly which saved this from a one star rating.  The hotel looks fine from the outside but is run down and in need of repairs on the inside.  The door handle to my room sagged and was hard to open.  The room was arranged poorly with the TV facing away from the bed on a table that blocked access to the bed.  The furniture was uncomfortable to sit on, particularly the couch.  There was no good place to put my suitcase.  Everything felt cramped.  Tiny low toilet with a smaller than normal seat where I had to twist awkwardly to reach the toilet paper.  It had water faucets that continued to run after they were turned off.  Things just felt cheap and poor quality.  The second to worst experience was the breakfast.  Poor quality food and little choice.  Example:  The fruit bowl had only one old bruised green apple in it. Hard boiled eggs smelled off and that were hours away from being spoiled, scrambled eggs were burnt and crumbly.  When I poured a cup of coffee from the pump dispenser it came with an ample supply of coffee grounds. What was the worst part of my stay at this property by far was the barking...I booked this property because in it is affiliated with Marriott.  Don't be fooled like I was. This place is really low quality for a Marriott branded hotel.  The staff was very accommodating and friendly which saved this from a one star rating.  The hotel looks fine from the outside but is run down and in need of repairs on the inside.  The door handle to my room sagged and was hard to open.  The room was arranged poorly with the TV facing away from the bed on a table that blocked access to the bed.  The furniture was uncomfortable to sit on, particularly the couch.  There was no good place to put my suitcase.  Everything felt cramped.  Tiny low toilet with a smaller than normal seat where I had to twist awkwardly to reach the toilet paper.  It had water faucets that continued to run after they were turned off.  Things just felt cheap and poor quality.  The second to worst experience was the breakfast.  Poor quality food and little choice.  Example:  The fruit bowl had only one old bruised green apple in it. Hard boiled eggs smelled off and that were hours away from being spoiled, scrambled eggs were burnt and crumbly.  When I poured a cup of coffee from the pump dispenser it came with an ample supply of coffee grounds. What was the worst part of my stay at this property by far was the barking dogs.  In the morning the barking would start.  Several dogs in separate rooms spread out down the hall barking, barking barking.  It felt like having a room at a dog kennel.   I'm not a complainer, but this property was just not a good choice.  My advise, keep looking and stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>I booked this property because in it is affiliated with Marriott.  Don't be fooled like I was. This place is really low quality for a Marriott branded hotel.  The staff was very accommodating and friendly which saved this from a one star rating.  The hotel looks fine from the outside but is run down and in need of repairs on the inside.  The door handle to my room sagged and was hard to open.  The room was arranged poorly with the TV facing away from the bed on a table that blocked access to the bed.  The furniture was uncomfortable to sit on, particularly the couch.  There was no good place to put my suitcase.  Everything felt cramped.  Tiny low toilet with a smaller than normal seat where I had to twist awkwardly to reach the toilet paper.  It had water faucets that continued to run after they were turned off.  Things just felt cheap and poor quality.  The second to worst experience was the breakfast.  Poor quality food and little choice.  Example:  The fruit bowl had only one old bruised green apple in it. Hard boiled eggs smelled off and that were hours away from being spoiled, scrambled eggs were burnt and crumbly.  When I poured a cup of coffee from the pump dispenser it came with an ample supply of coffee grounds. What was the worst part of my stay at this property by far was the barking...I booked this property because in it is affiliated with Marriott.  Don't be fooled like I was. This place is really low quality for a Marriott branded hotel.  The staff was very accommodating and friendly which saved this from a one star rating.  The hotel looks fine from the outside but is run down and in need of repairs on the inside.  The door handle to my room sagged and was hard to open.  The room was arranged poorly with the TV facing away from the bed on a table that blocked access to the bed.  The furniture was uncomfortable to sit on, particularly the couch.  There was no good place to put my suitcase.  Everything felt cramped.  Tiny low toilet with a smaller than normal seat where I had to twist awkwardly to reach the toilet paper.  It had water faucets that continued to run after they were turned off.  Things just felt cheap and poor quality.  The second to worst experience was the breakfast.  Poor quality food and little choice.  Example:  The fruit bowl had only one old bruised green apple in it. Hard boiled eggs smelled off and that were hours away from being spoiled, scrambled eggs were burnt and crumbly.  When I poured a cup of coffee from the pump dispenser it came with an ample supply of coffee grounds. What was the worst part of my stay at this property by far was the barking dogs.  In the morning the barking would start.  Several dogs in separate rooms spread out down the hall barking, barking barking.  It felt like having a room at a dog kennel.   I'm not a complainer, but this property was just not a good choice.  My advise, keep looking and stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r553030958-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553030958</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>TownPlace Suites Houston/Webster</t>
+  </si>
+  <si>
+    <t>Checked in fairly late (10ish), clerk seemed annoyed. I asked if they had water, he pointed to a cooler that sold bottled water. Never told me about the water cooler  15' away. Room was OK, no issues. Breakfast the next morning wasn't too appetizing. Had oatmeal and cereal. Following morning they were out of coffee and oatmeal. Went out to breakfast again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Bethany H, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Checked in fairly late (10ish), clerk seemed annoyed. I asked if they had water, he pointed to a cooler that sold bottled water. Never told me about the water cooler  15' away. Room was OK, no issues. Breakfast the next morning wasn't too appetizing. Had oatmeal and cereal. Following morning they were out of coffee and oatmeal. Went out to breakfast again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r546460666-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546460666</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Sweet Suites</t>
+  </si>
+  <si>
+    <t>The suite we had at TownePlace Suites was perfect!! We were in Bldg2, just a driveway away from the office. Our room had a small kitchen situated in between our Queen sized bed and our bathroom. The couch faced the TV and the bed. The TV swiveled if you wanted to watch from the bed. The best part of the Suites was the bed &amp; pillows!! A-M-A-Z-I-N-G nights sleep!! Pool is outdoors, and for any other time I think it would have been fun, but we brought the cold down from CT with us - it snowed for the first time since 2008, or so I was told by our friends from the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Bethany H, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>The suite we had at TownePlace Suites was perfect!! We were in Bldg2, just a driveway away from the office. Our room had a small kitchen situated in between our Queen sized bed and our bathroom. The couch faced the TV and the bed. The TV swiveled if you wanted to watch from the bed. The best part of the Suites was the bed &amp; pillows!! A-M-A-Z-I-N-G nights sleep!! Pool is outdoors, and for any other time I think it would have been fun, but we brought the cold down from CT with us - it snowed for the first time since 2008, or so I was told by our friends from the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r546287004-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546287004</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Incredible hospitality</t>
+  </si>
+  <si>
+    <t>I woke up to an unprecedented Houston snow and hoped I might be able to borrow a broom to clear my car. I didn’t have to as the incredible staff went to work and brushed off every car in the lot!  I can’t recommend this property enough</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r519479637-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519479637</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Over average stay close to space center, had some problem but got fixed</t>
+  </si>
+  <si>
+    <t>Had a one-night stay before the hurricane came to Houston. The hotel has a good layout and close to a large grocery store. It has a full kitchen including cookers and full fridge. Sofa and desk is opposite the bed but you are able to watch TV from either the bed or the working area. Good for family trip and longer stay. Breakfast is about average. Close to the space center but still requires more than half an hour if you wish to walk there. They only criticism is that the bath is out of hot water but the staff was really nice and solved them immediately. So it is indeed a unpleasant trip but I still wish to give a four-star and also special compliment to the front desk and the manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Had a one-night stay before the hurricane came to Houston. The hotel has a good layout and close to a large grocery store. It has a full kitchen including cookers and full fridge. Sofa and desk is opposite the bed but you are able to watch TV from either the bed or the working area. Good for family trip and longer stay. Breakfast is about average. Close to the space center but still requires more than half an hour if you wish to walk there. They only criticism is that the bath is out of hot water but the staff was really nice and solved them immediately. So it is indeed a unpleasant trip but I still wish to give a four-star and also special compliment to the front desk and the manager.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r505542111-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505542111</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Great Location - close to NASA Space Center</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it offered two bedroom suites at a reasonable price and it was close to the Space Center.  The rooms were relatively quiet and the beds were comfortable.  There was some morning noise from a delivery truck due to the hotel being located behind an HEB grocery.  The breakfast is adequate and typical of hotel breakfasts.  The only complaint is the size of the breakfast area.  It is very small with not a lot of seating.  The location of the hotel was great - easy access to NASA and Kemah.  Only 40 minutes to Galveston as well.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r497288153-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497288153</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Great place to Stay</t>
+  </si>
+  <si>
+    <t>Excellent hotel to stay! Very clean, contemporary environment and friendly staff. Close torestaurant s, shopping, NASA space center, etc. I would recommend this hotel. Breakfast was available each morning though the breakfast are is a bit small for all guests to eat at.o</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r482171977-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482171977</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Good location near the space center</t>
+  </si>
+  <si>
+    <t>No complaints at all about this TownePlace Suites property. I have stayed in various marriotts over the years and sometimes they need upgrading, this property looks like it was recently upgraded and the kitchen and bathroom looked brand new. the free breakfast was as good as one can expect, staff was very friendly.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r481381360-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481381360</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Great Room and Close to NASA!</t>
+  </si>
+  <si>
+    <t>Every time we come we choose this hotel.  The one bed suite includes a sofa sleeper that gives you that extra space.  Also, the kitchen is nice to have as well.  The staff is very friendly and helpful.  We have a great time.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r479627307-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479627307</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>This place left us hot and cold -- literally!</t>
+  </si>
+  <si>
+    <t>I generally like Towneplace Suites and this one was pretty good except that in our 2 bedroom suite one of the bedrooms was enormous while the other was so tiny we could barely move around in it. It was only wide enough for the bed and nightstands while the other room had a huge amount of room on each side of the bed and plenty of storage space. I had never seen that configuration in any other TPS. That would not have been so bad except that, unlike most other TPS 2 bedroom units, this one had only one thermostat, so, while the other couple needed to cool off their huge room, we froze trying to sleep in our tiny room with a vent the same size as the main room and other bedroom.  I ended up taping a paper bag over the vent that could not be closed so that I could get some sleep with a heavy sweater on and an extra blanket.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bethany H, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded April 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2017</t>
+  </si>
+  <si>
+    <t>I generally like Towneplace Suites and this one was pretty good except that in our 2 bedroom suite one of the bedrooms was enormous while the other was so tiny we could barely move around in it. It was only wide enough for the bed and nightstands while the other room had a huge amount of room on each side of the bed and plenty of storage space. I had never seen that configuration in any other TPS. That would not have been so bad except that, unlike most other TPS 2 bedroom units, this one had only one thermostat, so, while the other couple needed to cool off their huge room, we froze trying to sleep in our tiny room with a vent the same size as the main room and other bedroom.  I ended up taping a paper bag over the vent that could not be closed so that I could get some sleep with a heavy sweater on and an extra blanket.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r467420451-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467420451</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Spring Break Trip</t>
+  </si>
+  <si>
+    <t>We had a very nice stay. The hotel is in a nice, safe area and very convenient to restaurants and a good base for tourist spots like NASA, Kemah Boardwalk and San Jacinto Monument &amp; Battleship. All the staff we encountered was very nice, professional and helpful. The sweet clerk that checked us in even offered us discount tickets to NASA. Score!! 
+Even though the hotel was at full capacity and on a very busy street, it was very quiet &amp; comfortable. We were never able to enjoy the free continental breakfast because it was so crazy busy so having the kitchen in the room was a definite plus. The only negatives..... we booked a room with a queen bed and pull out sofa. Do NOT consider the sofa as an adequate sleeping area unless you're planning on a very young child sleeping there. It was not adequate for our 9 yr old twins. It was very hard &amp; uncomfortable (springs in your back all night). Also, the wifi is awful. It's like dial up. Our tablets wouldn't work on the wifi. Even using the computer in their business center was a joke. I was never able to print tickets from the business center computer that we needed for our trip to NASA. After trying for nearly 30 minutes, luckily the nice desk clerk allowed me to use her computer and I had them printed in literally 30 seconds! Overall,...We had a very nice stay. The hotel is in a nice, safe area and very convenient to restaurants and a good base for tourist spots like NASA, Kemah Boardwalk and San Jacinto Monument &amp; Battleship. All the staff we encountered was very nice, professional and helpful. The sweet clerk that checked us in even offered us discount tickets to NASA. Score!! Even though the hotel was at full capacity and on a very busy street, it was very quiet &amp; comfortable. We were never able to enjoy the free continental breakfast because it was so crazy busy so having the kitchen in the room was a definite plus. The only negatives..... we booked a room with a queen bed and pull out sofa. Do NOT consider the sofa as an adequate sleeping area unless you're planning on a very young child sleeping there. It was not adequate for our 9 yr old twins. It was very hard &amp; uncomfortable (springs in your back all night). Also, the wifi is awful. It's like dial up. Our tablets wouldn't work on the wifi. Even using the computer in their business center was a joke. I was never able to print tickets from the business center computer that we needed for our trip to NASA. After trying for nearly 30 minutes, luckily the nice desk clerk allowed me to use her computer and I had them printed in literally 30 seconds! Overall, we had an enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>We had a very nice stay. The hotel is in a nice, safe area and very convenient to restaurants and a good base for tourist spots like NASA, Kemah Boardwalk and San Jacinto Monument &amp; Battleship. All the staff we encountered was very nice, professional and helpful. The sweet clerk that checked us in even offered us discount tickets to NASA. Score!! 
+Even though the hotel was at full capacity and on a very busy street, it was very quiet &amp; comfortable. We were never able to enjoy the free continental breakfast because it was so crazy busy so having the kitchen in the room was a definite plus. The only negatives..... we booked a room with a queen bed and pull out sofa. Do NOT consider the sofa as an adequate sleeping area unless you're planning on a very young child sleeping there. It was not adequate for our 9 yr old twins. It was very hard &amp; uncomfortable (springs in your back all night). Also, the wifi is awful. It's like dial up. Our tablets wouldn't work on the wifi. Even using the computer in their business center was a joke. I was never able to print tickets from the business center computer that we needed for our trip to NASA. After trying for nearly 30 minutes, luckily the nice desk clerk allowed me to use her computer and I had them printed in literally 30 seconds! Overall,...We had a very nice stay. The hotel is in a nice, safe area and very convenient to restaurants and a good base for tourist spots like NASA, Kemah Boardwalk and San Jacinto Monument &amp; Battleship. All the staff we encountered was very nice, professional and helpful. The sweet clerk that checked us in even offered us discount tickets to NASA. Score!! Even though the hotel was at full capacity and on a very busy street, it was very quiet &amp; comfortable. We were never able to enjoy the free continental breakfast because it was so crazy busy so having the kitchen in the room was a definite plus. The only negatives..... we booked a room with a queen bed and pull out sofa. Do NOT consider the sofa as an adequate sleeping area unless you're planning on a very young child sleeping there. It was not adequate for our 9 yr old twins. It was very hard &amp; uncomfortable (springs in your back all night). Also, the wifi is awful. It's like dial up. Our tablets wouldn't work on the wifi. Even using the computer in their business center was a joke. I was never able to print tickets from the business center computer that we needed for our trip to NASA. After trying for nearly 30 minutes, luckily the nice desk clerk allowed me to use her computer and I had them printed in literally 30 seconds! Overall, we had an enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r464057276-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464057276</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>My husband and I rented a queen suite.  (Small kitchen and living room with a separate bedroom.)  It was extremely clean, very comfortable and quiet.  Breakfast consisted of cereal, waffles, eggs, sausage, fruit, muffins/breads and was good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r464007419-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464007419</t>
+  </si>
+  <si>
+    <t>Economical and Consistently Reliable</t>
+  </si>
+  <si>
+    <t>If you're staying in the NASA/Clear Lake area for work or pleasure, the TownePlace  Suites on Bay Area Blvd offers all you need for a comfortable stay at a very reasonable price.  The staff does an outstanding job of meeting your every need.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r443643405-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443643405</t>
+  </si>
+  <si>
+    <t>12/11/2016</t>
+  </si>
+  <si>
+    <t>Excellent Marriott Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here during thanksgiving and my birthday . This is an excellent marriott property with fully upgraded Rooms . We booked single suite room in advance but were given complimentary upgrade for two bedroom suite . Location for this hotel is really good , close to bay area and galveston . We reallly njoyed our stay . </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r435857770-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435857770</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Great location &amp; Wonderful Breakfast</t>
+  </si>
+  <si>
+    <t>I stayed at this location and felt the location was very secure which you don't get that in some of Houston area. Room was excellent and breakfast was wonderful! I especially liked the kitchen area even tho I didn't use it this visit.  Highly recommend this Marriott hotel!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r433695938-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433695938</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, friendly staff</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for one night only. The hotel staff very helpful and friendly. It was not just one staff member but overall as I saw the multiple staff members assisting guests with directions and restaurant recommendations. The room was a bit tight but clean and fully equipped. Good location for NASA and restaurants.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r415056822-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415056822</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Pleasant weekend stay</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and had a pleasant stay! This hotel is central to Galveston and Houston. The rooms were modern and clean. The breakfast area is a little tight. The hotel did not have any high chairs or booster seats for breakfast, which would have made our breakfast a little easier. The treadmill was inoperable, and the front desk staff offered/suggested their gym membership to us in lieu of the treadmill, which we appreciated. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>372marceller, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights and had a pleasant stay! This hotel is central to Galveston and Houston. The rooms were modern and clean. The breakfast area is a little tight. The hotel did not have any high chairs or booster seats for breakfast, which would have made our breakfast a little easier. The treadmill was inoperable, and the front desk staff offered/suggested their gym membership to us in lieu of the treadmill, which we appreciated. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r413602425-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413602425</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Excellence in Service</t>
+  </si>
+  <si>
+    <t>I had an amazing stay!!! My room was pristine...clean and comfortable. I love the fact that there are dishes to use and a full kitchen! Dave checked me in and he was friendly and courteous. He acknowledge me and engaged me in conversation every time I came into contact with him. Breakfast was wonderful. This hotel has outstanding staff and management. I would refer this hotel to anyone who asked.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r392999758-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392999758</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Super Customer Service</t>
+  </si>
+  <si>
+    <t>The accommodations were quite nice, but what made this experience stand out was the super excellent customer service provided by Ms. Teal Smith.  She went out of her way to assist us.  She was friendly and helpful. Will definitely recommend to all.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r382335721-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382335721</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Clean hotel with modern conveniences.  The room included a well-stocked kitchen with dishwasher, stovetop, microwave and frig. The pool is on the small side so it may be crowded on busy days.  My kids enjoyed it none of the less.  Only issue was that the lotion container was used and half empty.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r380027532-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380027532</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel close to the Space Center</t>
+  </si>
+  <si>
+    <t>After check in had a problem getting into our hotel room.  We tried two sets of keys and still could not get in.  The very friendly person at the front desk tried with her key and still no luck.  She changed our room to a two room suite for no extra charge.  She even offered bottles of water because of the problem.  She was super friendly.  The pool is nice with a good amount of sitting area.  Beautiful area with everything within a 5 minute drive.  Good breakfast and delicious coffee.  Super super close to the Space Center.  Would stay here again!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r373734773-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373734773</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>This a very friendly hotel. Super clean and extremely friendly staff. I like to go during the week and relax. Dave is one of the best hotel employees I've experienced in my years of travel. Very proficient at his job, business like yet extremely friendly.  The location is great and walking distance to local stores. The pricing is fair and equitable.  One word to describe my stays at this hotel " Great".</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r361758108-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361758108</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>2 BR with full kitchen...</t>
+  </si>
+  <si>
+    <t>Needed a full kitchen and this one had what we needed.  However, a few glitches to say the least.  Toilet seat dirty, closet door off hinge - screws out, tv signal was weird on some stations, etc.  When I advised mgmt. I was told that this room was recently updated and they were having difficulty with the company that did it.  So much for that.  Breakfast was not up to par.  Oatmeal not prepared, muffins in wrappers, etc.  Stayed here for NASA.  Will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Marcelle R, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Needed a full kitchen and this one had what we needed.  However, a few glitches to say the least.  Toilet seat dirty, closet door off hinge - screws out, tv signal was weird on some stations, etc.  When I advised mgmt. I was told that this room was recently updated and they were having difficulty with the company that did it.  So much for that.  Breakfast was not up to par.  Oatmeal not prepared, muffins in wrappers, etc.  Stayed here for NASA.  Will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r358241297-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358241297</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>I stay at this hotel an average of 1 week per month due to business requirements.  Front desk is always welcoming, and I've never had a problem that wasn't fixed immediately.  They've recently gone through a renovation, and while there were some dicey moments during the renovation, the result was well worth it.Pros:  updated furnishings, very accommodating staff, workout room, laundry facilities, high value for the price, convenient location (HEB, CVS, and multiple restaurants nearby).Cons:  Satellite for TV is pretty temperamental, and breakfast could definitely be improved by A) making the refrigerator COLD (milk/yogurt need to be COLD) and B) stop serving pre-made eggs.  Just nasty.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r349225588-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349225588</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay near NASA </t>
+  </si>
+  <si>
+    <t>Recently renovated rooms were great. Staff was courteous and helpful. Addressed all concerns honestly. Front desk person on his own inquired about plans and suggested some discounts we could use. It is only 5-6 min drive from Johnson space center. Breakfast was also good and has more varieties of cereal, juices and fruits.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r342911327-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342911327</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Better than I expected</t>
+  </si>
+  <si>
+    <t>I stayed here 5 nights in room 314 and had no issues. The room heating and cooling system was one of the best features as the temperatures outside forced me to switch between them.  The room was smaller than Residence Inn rooms but no less comfortable.  The kitchen was small but had all the right appliances. Room appearance was clean and inviting with a window looking out onto the parking lot.Drawer and hanger space was perfect and the desk was big enough for me to do my work.  Lighting was a bit odd as there was no lamp behind the sofa. Also the TV was weirdly positioned so that there was no way to watch it in bed. You are forced to go onto the sofa to watch.The rooms are not soundproof and you can hear when people talk in the hall or are walking down the stairs next to the room. Luckily the hotel was lightly occupied on my floor. This is a 3 floor hotel and the elevator was incredibly slow.The housekeepers did not speak English but then that is almost normal now. Breakfast was similar to Residnce Inn but scaled down a little. Bananas appeared sometimes, otherwise not. The staff was always willing to help and I enjoyed my stay very much and am planning to return next month.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed here 5 nights in room 314 and had no issues. The room heating and cooling system was one of the best features as the temperatures outside forced me to switch between them.  The room was smaller than Residence Inn rooms but no less comfortable.  The kitchen was small but had all the right appliances. Room appearance was clean and inviting with a window looking out onto the parking lot.Drawer and hanger space was perfect and the desk was big enough for me to do my work.  Lighting was a bit odd as there was no lamp behind the sofa. Also the TV was weirdly positioned so that there was no way to watch it in bed. You are forced to go onto the sofa to watch.The rooms are not soundproof and you can hear when people talk in the hall or are walking down the stairs next to the room. Luckily the hotel was lightly occupied on my floor. This is a 3 floor hotel and the elevator was incredibly slow.The housekeepers did not speak English but then that is almost normal now. Breakfast was similar to Residnce Inn but scaled down a little. Bananas appeared sometimes, otherwise not. The staff was always willing to help and I enjoyed my stay very much and am planning to return next month.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r334703220-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334703220</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Simply horrible...blood on sheets and curtains.</t>
+  </si>
+  <si>
+    <t>This has got to be the worst room I think I have ever stayed in.  I can only be thankful it was for one night.  This hotel has been undergoing a major renovation it seems.  Unfortunately, we must have been put in the only room that has yet to be updated. There are two blocks to this hotel and it looks like the only block that had finished being 'refreshed' was the block which contains the main Reception.  After arriving very late (at around 10pm) we were assigned a a ground floor, corner room in the other block, opposite the Reception.  Upon walking in, the main entrance area smelt slightly damp with obvious paint peeling and blistering from the base of all of the walls.  There were baseboards missing in places and the carpet was filthy.  
+As soon as we entered our room, the smell of damp immediately hit us.  The room was incredibly shabby looking, with rips in the carpet and electrical socket plates hanging off the wall.  The rest of the room did seem clean enough although very tired and dated looking.  As my son is asthmatic, with a sensitivity to mould spores, we immediately asked if we could please change rooms.  The receptionist was very apologetic and to give her credit, she did do her very best to try to accommodate us. Even going as far as showing us a studio room in the newly refurbished block...This has got to be the worst room I think I have ever stayed in.  I can only be thankful it was for one night.  This hotel has been undergoing a major renovation it seems.  Unfortunately, we must have been put in the only room that has yet to be updated. There are two blocks to this hotel and it looks like the only block that had finished being 'refreshed' was the block which contains the main Reception.  After arriving very late (at around 10pm) we were assigned a a ground floor, corner room in the other block, opposite the Reception.  Upon walking in, the main entrance area smelt slightly damp with obvious paint peeling and blistering from the base of all of the walls.  There were baseboards missing in places and the carpet was filthy.  As soon as we entered our room, the smell of damp immediately hit us.  The room was incredibly shabby looking, with rips in the carpet and electrical socket plates hanging off the wall.  The rest of the room did seem clean enough although very tired and dated looking.  As my son is asthmatic, with a sensitivity to mould spores, we immediately asked if we could please change rooms.  The receptionist was very apologetic and to give her credit, she did do her very best to try to accommodate us. Even going as far as showing us a studio room in the newly refurbished block however it just wasn't possible to fit 4 in and there were no other rooms free that night.  As it was so late, and we had 2 very tired children and with no rooms free in any other hotels nearby, we had no choice but to take the room and to try to get some sleep.  When we went to make up the sofa bed, the duvet provided had old blood stains on so we had to do without it.  The sheets and towels smelt and looked clean enough, as did the mattresses on the beds. We got up very early next morning so we could just get out of there, and when opening the curtains noticed several spots of dried, old blood on the curtains in the main bedroom. Not only that but the shower had mould inside and along the ceiling and the toilet seat was loose.  It is incredible that this hotel is part of the Marriott brand.  As Silver Elite members, we try to use Marriott where we can especially the 'suite' hotels as they are perfect for families. However, they really failed to deliver on this occasion.   I can understand hotels need to be refurbished periodically but this room really was not fit for purpose and should not have been booked out to us.  The Receptionist was absolutely horrified when we shared our photos with her the following morning and gave us a discount on the room.  We didn't even bother to stay for breakfast!Would never stay here again when there are much nicer Suite hotels in the local area.  I am only awarding 2 points because the staff really tried to help us and seemed really embarrassed.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This has got to be the worst room I think I have ever stayed in.  I can only be thankful it was for one night.  This hotel has been undergoing a major renovation it seems.  Unfortunately, we must have been put in the only room that has yet to be updated. There are two blocks to this hotel and it looks like the only block that had finished being 'refreshed' was the block which contains the main Reception.  After arriving very late (at around 10pm) we were assigned a a ground floor, corner room in the other block, opposite the Reception.  Upon walking in, the main entrance area smelt slightly damp with obvious paint peeling and blistering from the base of all of the walls.  There were baseboards missing in places and the carpet was filthy.  
+As soon as we entered our room, the smell of damp immediately hit us.  The room was incredibly shabby looking, with rips in the carpet and electrical socket plates hanging off the wall.  The rest of the room did seem clean enough although very tired and dated looking.  As my son is asthmatic, with a sensitivity to mould spores, we immediately asked if we could please change rooms.  The receptionist was very apologetic and to give her credit, she did do her very best to try to accommodate us. Even going as far as showing us a studio room in the newly refurbished block...This has got to be the worst room I think I have ever stayed in.  I can only be thankful it was for one night.  This hotel has been undergoing a major renovation it seems.  Unfortunately, we must have been put in the only room that has yet to be updated. There are two blocks to this hotel and it looks like the only block that had finished being 'refreshed' was the block which contains the main Reception.  After arriving very late (at around 10pm) we were assigned a a ground floor, corner room in the other block, opposite the Reception.  Upon walking in, the main entrance area smelt slightly damp with obvious paint peeling and blistering from the base of all of the walls.  There were baseboards missing in places and the carpet was filthy.  As soon as we entered our room, the smell of damp immediately hit us.  The room was incredibly shabby looking, with rips in the carpet and electrical socket plates hanging off the wall.  The rest of the room did seem clean enough although very tired and dated looking.  As my son is asthmatic, with a sensitivity to mould spores, we immediately asked if we could please change rooms.  The receptionist was very apologetic and to give her credit, she did do her very best to try to accommodate us. Even going as far as showing us a studio room in the newly refurbished block however it just wasn't possible to fit 4 in and there were no other rooms free that night.  As it was so late, and we had 2 very tired children and with no rooms free in any other hotels nearby, we had no choice but to take the room and to try to get some sleep.  When we went to make up the sofa bed, the duvet provided had old blood stains on so we had to do without it.  The sheets and towels smelt and looked clean enough, as did the mattresses on the beds. We got up very early next morning so we could just get out of there, and when opening the curtains noticed several spots of dried, old blood on the curtains in the main bedroom. Not only that but the shower had mould inside and along the ceiling and the toilet seat was loose.  It is incredible that this hotel is part of the Marriott brand.  As Silver Elite members, we try to use Marriott where we can especially the 'suite' hotels as they are perfect for families. However, they really failed to deliver on this occasion.   I can understand hotels need to be refurbished periodically but this room really was not fit for purpose and should not have been booked out to us.  The Receptionist was absolutely horrified when we shared our photos with her the following morning and gave us a discount on the room.  We didn't even bother to stay for breakfast!Would never stay here again when there are much nicer Suite hotels in the local area.  I am only awarding 2 points because the staff really tried to help us and seemed really embarrassed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r330595499-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330595499</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>Booking a reservation</t>
+  </si>
+  <si>
+    <t>Oh my goodness, Kristy Wamsley, you ROCK! In trying to book a room for a seminar that we are sending our new hire to at the 525 Bay Area Blvd. location, we were faced with a cost of $219 for two nights and $250 for the third night. In calling the other location at 1050 Bay Area Blvd. (just 5 blocks away), I was fortunate enough to speak with Kristy who was able to locate a room for us for $124 a night! Whoop, whoop, a big saving for our company. Also, she told us about a corporate account that we may be able to set up and she is passing along our information to the corporate sales person who will be contacting us tomorrow. What a treasure the Marriott corporation has in this young lady. KUDOS to the human resource person that hired Kristy, as it is rare to actually find an employee that is truly interested in their job and really shows customer support. Thanks for all of your help Kristy!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Oh my goodness, Kristy Wamsley, you ROCK! In trying to book a room for a seminar that we are sending our new hire to at the 525 Bay Area Blvd. location, we were faced with a cost of $219 for two nights and $250 for the third night. In calling the other location at 1050 Bay Area Blvd. (just 5 blocks away), I was fortunate enough to speak with Kristy who was able to locate a room for us for $124 a night! Whoop, whoop, a big saving for our company. Also, she told us about a corporate account that we may be able to set up and she is passing along our information to the corporate sales person who will be contacting us tomorrow. What a treasure the Marriott corporation has in this young lady. KUDOS to the human resource person that hired Kristy, as it is rare to actually find an employee that is truly interested in their job and really shows customer support. Thanks for all of your help Kristy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r310636918-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310636918</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Very mixed review of this hotel experience</t>
+  </si>
+  <si>
+    <t>I booked this room for a little less than a week at the last minute.  Rate was reasonably competitive for the type of room, but not by any means a steal or cheap.
+In the first room I was given, there was no hot water.  So my room was changed.  The next day I discovered that my key would not work;  upon checking at the desk, I was told (this is a direct quote) "We were wondering who was in that room.  Guess now we know."   When I asked to confirm there was no issue with my belongings or anything moved, the response was "probably not".  Needless to say, I was not pleased.
+Turns out also that housekeeping had installed one of those plug in air fresheners, and the room was overpoweringly saturated with the smell.  All the clerk would offer was to open the window (ground floor, it would only open 2", and you certainly wouldn't want to leave it open if you weren't in the room as it opened onto an adjoining parking lot.)  Makes you wonder what housekeeping was trying to cover up;  the room was okay clean, but certainly not spotless.
+On my last night there, I returned to the room to the very heavy chemical smell from sort of construction work being done upstairs.  It was Labor Day weekend and the hotel was fully booked so they would not offer anything else.  "Everywhere else is...I booked this room for a little less than a week at the last minute.  Rate was reasonably competitive for the type of room, but not by any means a steal or cheap.In the first room I was given, there was no hot water.  So my room was changed.  The next day I discovered that my key would not work;  upon checking at the desk, I was told (this is a direct quote) "We were wondering who was in that room.  Guess now we know."   When I asked to confirm there was no issue with my belongings or anything moved, the response was "probably not".  Needless to say, I was not pleased.Turns out also that housekeeping had installed one of those plug in air fresheners, and the room was overpoweringly saturated with the smell.  All the clerk would offer was to open the window (ground floor, it would only open 2", and you certainly wouldn't want to leave it open if you weren't in the room as it opened onto an adjoining parking lot.)  Makes you wonder what housekeeping was trying to cover up;  the room was okay clean, but certainly not spotless.On my last night there, I returned to the room to the very heavy chemical smell from sort of construction work being done upstairs.  It was Labor Day weekend and the hotel was fully booked so they would not offer anything else.  "Everywhere else is booked, too."  The clerk said he'd check with the manager in the morning about some kind of compensation;  I received nothing, not even an apology -- much less some compensation, like a few bucks off the bill.Bottom line is that I would not recommend this place unless you're stuck.  What really struck me about my experience was the lack of caring on the part of most of the staff.  (The clerk who checked me in, and dealt with the hot water issue was apologetic and as helpful as can be, notwithstanding that he also seemed to have not recorded my change in rooms.)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I booked this room for a little less than a week at the last minute.  Rate was reasonably competitive for the type of room, but not by any means a steal or cheap.
+In the first room I was given, there was no hot water.  So my room was changed.  The next day I discovered that my key would not work;  upon checking at the desk, I was told (this is a direct quote) "We were wondering who was in that room.  Guess now we know."   When I asked to confirm there was no issue with my belongings or anything moved, the response was "probably not".  Needless to say, I was not pleased.
+Turns out also that housekeeping had installed one of those plug in air fresheners, and the room was overpoweringly saturated with the smell.  All the clerk would offer was to open the window (ground floor, it would only open 2", and you certainly wouldn't want to leave it open if you weren't in the room as it opened onto an adjoining parking lot.)  Makes you wonder what housekeeping was trying to cover up;  the room was okay clean, but certainly not spotless.
+On my last night there, I returned to the room to the very heavy chemical smell from sort of construction work being done upstairs.  It was Labor Day weekend and the hotel was fully booked so they would not offer anything else.  "Everywhere else is...I booked this room for a little less than a week at the last minute.  Rate was reasonably competitive for the type of room, but not by any means a steal or cheap.In the first room I was given, there was no hot water.  So my room was changed.  The next day I discovered that my key would not work;  upon checking at the desk, I was told (this is a direct quote) "We were wondering who was in that room.  Guess now we know."   When I asked to confirm there was no issue with my belongings or anything moved, the response was "probably not".  Needless to say, I was not pleased.Turns out also that housekeeping had installed one of those plug in air fresheners, and the room was overpoweringly saturated with the smell.  All the clerk would offer was to open the window (ground floor, it would only open 2", and you certainly wouldn't want to leave it open if you weren't in the room as it opened onto an adjoining parking lot.)  Makes you wonder what housekeeping was trying to cover up;  the room was okay clean, but certainly not spotless.On my last night there, I returned to the room to the very heavy chemical smell from sort of construction work being done upstairs.  It was Labor Day weekend and the hotel was fully booked so they would not offer anything else.  "Everywhere else is booked, too."  The clerk said he'd check with the manager in the morning about some kind of compensation;  I received nothing, not even an apology -- much less some compensation, like a few bucks off the bill.Bottom line is that I would not recommend this place unless you're stuck.  What really struck me about my experience was the lack of caring on the part of most of the staff.  (The clerk who checked me in, and dealt with the hot water issue was apologetic and as helpful as can be, notwithstanding that he also seemed to have not recorded my change in rooms.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r308659749-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>308659749</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>No frills, but sufficient</t>
+  </si>
+  <si>
+    <t>First of all, this hotel is a little ways from I-45, so if you're trying to stay close to the freeway, this is not the hotel for you.  I called the property directly about a month before our stay because we wanted connecting rooms (with a door between) and we were using points.  The gentleman I spoke to (didn't get his name) was so polite and courteous and seemed so happy to help.  When we arrived at the property late-ish in the evening, we were told that they were out of connecting rooms.  In other words, it did NO good to call the property directly to make the reservations.  After we showed our frustration, the guy tried his best to make us happy.  He offered to cancel one reservation, which would credit some points back to our account and put us in a two bedroom suite instead.  We were ok and actually pleased with that, so on we went.  Our only complaint when we got to our room was that there was only 1 bathroom, but we were only there for one night, so it was ok.  When we got back from dinner we were in our room relaxing and all of a sudden our TV and lamp in the living room just went off.  We called the front desk and the guy came right up to our room to check it out.  The hotel has recently been remodeled, (which...First of all, this hotel is a little ways from I-45, so if you're trying to stay close to the freeway, this is not the hotel for you.  I called the property directly about a month before our stay because we wanted connecting rooms (with a door between) and we were using points.  The gentleman I spoke to (didn't get his name) was so polite and courteous and seemed so happy to help.  When we arrived at the property late-ish in the evening, we were told that they were out of connecting rooms.  In other words, it did NO good to call the property directly to make the reservations.  After we showed our frustration, the guy tried his best to make us happy.  He offered to cancel one reservation, which would credit some points back to our account and put us in a two bedroom suite instead.  We were ok and actually pleased with that, so on we went.  Our only complaint when we got to our room was that there was only 1 bathroom, but we were only there for one night, so it was ok.  When we got back from dinner we were in our room relaxing and all of a sudden our TV and lamp in the living room just went off.  We called the front desk and the guy came right up to our room to check it out.  The hotel has recently been remodeled, (which is a whole 'nother topic.) and they'd been working on the electrical stuff and I guess they'd had problems with that particular room, but thought the problem was fixed.  There were TV's in each of the bedrooms and we were winding down for the night anyway, so it wasn't a big deal.  The guy offered to credit our points back to our account for our inconvenience.  As of today I'm still waiting for the points to show up, but I'm confident they will since it was a holiday weekend.  The beds are hard and the pillows are soft, but at that point our room was free, so we weren't complaining about much of anything.  The next morning we got up and went to get breakfast.  OH MY!  The breakfast area is tiny to say the least.  There are 4 tables and a bar.  That's it for seating.  We were forced to take our food back to our room.  Good thing we had a decent sized table in our room.  Just be warned that if you're there at a busy time and want breakfast, you're gonna have people all up on you in the breakfast area.  All in all, really we can't complain about anything since we wound up getting our room free -hopefully, but I'm not sure, if I would pick this hotel if I were paying for it and not using points.MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all, this hotel is a little ways from I-45, so if you're trying to stay close to the freeway, this is not the hotel for you.  I called the property directly about a month before our stay because we wanted connecting rooms (with a door between) and we were using points.  The gentleman I spoke to (didn't get his name) was so polite and courteous and seemed so happy to help.  When we arrived at the property late-ish in the evening, we were told that they were out of connecting rooms.  In other words, it did NO good to call the property directly to make the reservations.  After we showed our frustration, the guy tried his best to make us happy.  He offered to cancel one reservation, which would credit some points back to our account and put us in a two bedroom suite instead.  We were ok and actually pleased with that, so on we went.  Our only complaint when we got to our room was that there was only 1 bathroom, but we were only there for one night, so it was ok.  When we got back from dinner we were in our room relaxing and all of a sudden our TV and lamp in the living room just went off.  We called the front desk and the guy came right up to our room to check it out.  The hotel has recently been remodeled, (which...First of all, this hotel is a little ways from I-45, so if you're trying to stay close to the freeway, this is not the hotel for you.  I called the property directly about a month before our stay because we wanted connecting rooms (with a door between) and we were using points.  The gentleman I spoke to (didn't get his name) was so polite and courteous and seemed so happy to help.  When we arrived at the property late-ish in the evening, we were told that they were out of connecting rooms.  In other words, it did NO good to call the property directly to make the reservations.  After we showed our frustration, the guy tried his best to make us happy.  He offered to cancel one reservation, which would credit some points back to our account and put us in a two bedroom suite instead.  We were ok and actually pleased with that, so on we went.  Our only complaint when we got to our room was that there was only 1 bathroom, but we were only there for one night, so it was ok.  When we got back from dinner we were in our room relaxing and all of a sudden our TV and lamp in the living room just went off.  We called the front desk and the guy came right up to our room to check it out.  The hotel has recently been remodeled, (which is a whole 'nother topic.) and they'd been working on the electrical stuff and I guess they'd had problems with that particular room, but thought the problem was fixed.  There were TV's in each of the bedrooms and we were winding down for the night anyway, so it wasn't a big deal.  The guy offered to credit our points back to our account for our inconvenience.  As of today I'm still waiting for the points to show up, but I'm confident they will since it was a holiday weekend.  The beds are hard and the pillows are soft, but at that point our room was free, so we weren't complaining about much of anything.  The next morning we got up and went to get breakfast.  OH MY!  The breakfast area is tiny to say the least.  There are 4 tables and a bar.  That's it for seating.  We were forced to take our food back to our room.  Good thing we had a decent sized table in our room.  Just be warned that if you're there at a busy time and want breakfast, you're gonna have people all up on you in the breakfast area.  All in all, really we can't complain about anything since we wound up getting our room free -hopefully, but I'm not sure, if I would pick this hotel if I were paying for it and not using points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r302908869-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302908869</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>It's ok for place to sleep for a night</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here one night while visiting family in Clear Lake. The first and major problem with this site, is the lack of parking. We couldn't find a spot anywhere and were forced to park in an adjacent lot next to a currently empty office building (at the advice of the front desk staff). I am not sure what they will do when the building is no longer empty and having to leave our car somewhere else was highly concerning. Also, this place is in need of a little TLC. In the building we stayed in, the carpets were disgustingly old, stained and dirty, and the base board molding was either falling off, or completely missing in spots. The actual rooms are ok but a bit weird. It's really a poor layout for a suite. The TV is mounted on a half-wall that separates the kitchen from the bed area. You can then move the TV around to face the couch or the bed. I guess it works, but not exactly ideal. The room overall was ok for just an overnight, where you are just there to sleep. If you needed a place to stay for multiple nights or expect some functionality out of your room,  I would look elsewhere. The breakfast was typical and we really had no other complaints. Other than asking about the lack of parking, we really had no other interaction with the...My wife and I stayed here one night while visiting family in Clear Lake. The first and major problem with this site, is the lack of parking. We couldn't find a spot anywhere and were forced to park in an adjacent lot next to a currently empty office building (at the advice of the front desk staff). I am not sure what they will do when the building is no longer empty and having to leave our car somewhere else was highly concerning. Also, this place is in need of a little TLC. In the building we stayed in, the carpets were disgustingly old, stained and dirty, and the base board molding was either falling off, or completely missing in spots. The actual rooms are ok but a bit weird. It's really a poor layout for a suite. The TV is mounted on a half-wall that separates the kitchen from the bed area. You can then move the TV around to face the couch or the bed. I guess it works, but not exactly ideal. The room overall was ok for just an overnight, where you are just there to sleep. If you needed a place to stay for multiple nights or expect some functionality out of your room,  I would look elsewhere. The breakfast was typical and we really had no other complaints. Other than asking about the lack of parking, we really had no other interaction with the desk staff. I will say the cleaning crew does not seem to speak a lick of english. Not a huge problem, but did cause some awkwardness. We would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Marcelle R, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here one night while visiting family in Clear Lake. The first and major problem with this site, is the lack of parking. We couldn't find a spot anywhere and were forced to park in an adjacent lot next to a currently empty office building (at the advice of the front desk staff). I am not sure what they will do when the building is no longer empty and having to leave our car somewhere else was highly concerning. Also, this place is in need of a little TLC. In the building we stayed in, the carpets were disgustingly old, stained and dirty, and the base board molding was either falling off, or completely missing in spots. The actual rooms are ok but a bit weird. It's really a poor layout for a suite. The TV is mounted on a half-wall that separates the kitchen from the bed area. You can then move the TV around to face the couch or the bed. I guess it works, but not exactly ideal. The room overall was ok for just an overnight, where you are just there to sleep. If you needed a place to stay for multiple nights or expect some functionality out of your room,  I would look elsewhere. The breakfast was typical and we really had no other complaints. Other than asking about the lack of parking, we really had no other interaction with the...My wife and I stayed here one night while visiting family in Clear Lake. The first and major problem with this site, is the lack of parking. We couldn't find a spot anywhere and were forced to park in an adjacent lot next to a currently empty office building (at the advice of the front desk staff). I am not sure what they will do when the building is no longer empty and having to leave our car somewhere else was highly concerning. Also, this place is in need of a little TLC. In the building we stayed in, the carpets were disgustingly old, stained and dirty, and the base board molding was either falling off, or completely missing in spots. The actual rooms are ok but a bit weird. It's really a poor layout for a suite. The TV is mounted on a half-wall that separates the kitchen from the bed area. You can then move the TV around to face the couch or the bed. I guess it works, but not exactly ideal. The room overall was ok for just an overnight, where you are just there to sleep. If you needed a place to stay for multiple nights or expect some functionality out of your room,  I would look elsewhere. The breakfast was typical and we really had no other complaints. Other than asking about the lack of parking, we really had no other interaction with the desk staff. I will say the cleaning crew does not seem to speak a lick of english. Not a huge problem, but did cause some awkwardness. We would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r270254345-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270254345</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Old Rooms. Nice Staff. Water Damage</t>
+  </si>
+  <si>
+    <t>I recently stayed here for business and as always we stay at a Marriott property. I was there for more than a week &amp; the room had a musty smell to it. There was water damage to the walls by the air conditioner. I always check for bed bugs when I arrive &amp; did not notice any signs. While laying in bed a few bugs started crawling on the bed near my head. While they looked like bed bugs upon further research they are bugs that are attracted to mold and wet places. After I informed the hotel they moved my room and stopped using the original room. Upon checkout they offered me 40K bonus points as a way to make it better. I still have yet to receive the bonus points &amp; had to wash all my clothes after leaving as well as check everything to verify they weren't bed bugs. Overall a decent property with nice staff but the property needs major renovations. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I recently stayed here for business and as always we stay at a Marriott property. I was there for more than a week &amp; the room had a musty smell to it. There was water damage to the walls by the air conditioner. I always check for bed bugs when I arrive &amp; did not notice any signs. While laying in bed a few bugs started crawling on the bed near my head. While they looked like bed bugs upon further research they are bugs that are attracted to mold and wet places. After I informed the hotel they moved my room and stopped using the original room. Upon checkout they offered me 40K bonus points as a way to make it better. I still have yet to receive the bonus points &amp; had to wash all my clothes after leaving as well as check everything to verify they weren't bed bugs. Overall a decent property with nice staff but the property needs major renovations. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r269035574-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269035574</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Great service, Nice property</t>
+  </si>
+  <si>
+    <t>The staff in this hotel is some of the friendliest and most accomodating I have met. We booked a 2 bedroom suite and although it wasn't one of the newly renovated ones, it was clean and large. The room was very affordable and the free breakfast had a great selection and was very good. I was very happy with this hotel and will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r264478034-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264478034</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>OK stay.  Current renovations were needed.</t>
+  </si>
+  <si>
+    <t>I stayed in the older area that had not yet been renovated.  Furniture was tired, out dated.  Staff were very friendly and helpful.  Good breakfast and staff was friendly, eager to assist. Best of luck with renovation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r258478017-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258478017</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Jewell in reservations is a jewel!</t>
+  </si>
+  <si>
+    <t>The hotel is a bit worn out, the sofa sleeper in our room was torn and tattered and the furniture looked old.  The breakfast was very simple but good enough, although there was no place to sit because a few others got there before us.  But while making the reservation, I spoke with Jewell and she was just terrific.  She made sure we were happy with the room size and we really appreciated that... I can't think of another hotel that does that! Thank you Jewell!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r240325654-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240325654</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Good location but ok stay</t>
+  </si>
+  <si>
+    <t>Had a 2 bedroom suite that was roomy but outdated. The kitchen had old burners and appliances with limited space to operate. The decor of the room was a little outdated. I will say that I had a restful night with the comfortable bed. The breakfast area appeared to be very small compared with the rooms they had. Staff was very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded November 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2014</t>
+  </si>
+  <si>
+    <t>Had a 2 bedroom suite that was roomy but outdated. The kitchen had old burners and appliances with limited space to operate. The decor of the room was a little outdated. I will say that I had a restful night with the comfortable bed. The breakfast area appeared to be very small compared with the rooms they had. Staff was very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r236074132-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236074132</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Great location, musty smell</t>
+  </si>
+  <si>
+    <t>The 2 room suite is very spacious. The musty odor is very hard to get over and the carpet felt wet. The odor was worse in the main building rooms than the building across the parking lot, but it would be difficult to stay for an extended time. We were there one night.  Décor in common areas is updated and nice.  Great breakfast and very nice staff. Good location to Kemah and cruise ship terminal in Galveston. I will not stay there again, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>DPinierio, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded October 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2014</t>
+  </si>
+  <si>
+    <t>The 2 room suite is very spacious. The musty odor is very hard to get over and the carpet felt wet. The odor was worse in the main building rooms than the building across the parking lot, but it would be difficult to stay for an extended time. We were there one night.  Décor in common areas is updated and nice.  Great breakfast and very nice staff. Good location to Kemah and cruise ship terminal in Galveston. I will not stay there again, though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r213883645-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213883645</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Enjoyable</t>
+  </si>
+  <si>
+    <t>Stayed at this establishment for three nights for my brothers wedding. The rooms were clean, the beds were amazing, the kitchen was workable, the tv was big enough for all to see. What's not to love? The employees were polite and kind, and everyone who leaves a bad review, needs a reality check! You're so spoiled!!! When it rained did you get wet? Nope, you had a roof over your head. When you needed water to brush your teeth or take a shower there was water! Get a grip people. Didn't know you wiped your butt with golden toilet paper!!  This place was awesome!! Will be back to enjoy another time. Highly recommend!!!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Erinn V, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Stayed at this establishment for three nights for my brothers wedding. The rooms were clean, the beds were amazing, the kitchen was workable, the tv was big enough for all to see. What's not to love? The employees were polite and kind, and everyone who leaves a bad review, needs a reality check! You're so spoiled!!! When it rained did you get wet? Nope, you had a roof over your head. When you needed water to brush your teeth or take a shower there was water! Get a grip people. Didn't know you wiped your butt with golden toilet paper!!  This place was awesome!! Will be back to enjoy another time. Highly recommend!!!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r213776706-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213776706</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>Not a Marriott Standard at all</t>
+  </si>
+  <si>
+    <t>I stayed there for 4 weeks. The first week started very well, the staff is very polite, and responsive. 
+Rooms were average looking, little old, but clean and well maintained. 
+Room service was on daily basis, and out of 4 staff in room service, 3 were excellent, 1 was average.
+The bad experience started with the "Hot water" in shower.  There was no way to get the cold water. You take shower in burning hot water, or do not take shower.  When you need to go to office, do you consider it an emergency or not?
+Raised complaint first day - front desk noted down the request very politely - but no action was taken.
+Raised complaint Second day - front desk noted down the request very politely - but no action was taken.
+Raised complaint Third day - front desk took it very politely - but no action was taken.
+Forth day I was in towel getting late for office - asked to send someone immediately - maintenance staff took half hour to reach my room, and tried to fix it and said he can't fix it.  He gave me a bucket to fill it from wash basin, and use it. I am so thankful for Bucket, at least I could take bath, and go to office. 
+Fifth day-  maintenance staff came again, he opened the shower tab, and was not able to fit it back. So the water...I stayed there for 4 weeks. The first week started very well, the staff is very polite, and responsive. Rooms were average looking, little old, but clean and well maintained. Room service was on daily basis, and out of 4 staff in room service, 3 were excellent, 1 was average.The bad experience started with the "Hot water" in shower.  There was no way to get the cold water. You take shower in burning hot water, or do not take shower.  When you need to go to office, do you consider it an emergency or not?Raised complaint first day - front desk noted down the request very politely - but no action was taken.Raised complaint Second day - front desk noted down the request very politely - but no action was taken.Raised complaint Third day - front desk took it very politely - but no action was taken.Forth day I was in towel getting late for office - asked to send someone immediately - maintenance staff took half hour to reach my room, and tried to fix it and said he can't fix it.  He gave me a bucket to fill it from wash basin, and use it. I am so thankful for Bucket, at least I could take bath, and go to office. Fifth day-  maintenance staff came again, he opened the shower tab, and was not able to fit it back. So the water was running, whole night, now you don't have hot water as well. You want to take bath ...Use bucket :-)six day - Water still running whole night, fortunately we got used to sleeping in sound of running water. seventh day - Water still running whole night. Eighth day - Water still running whole night. Use bucket to bath. :-)By the way, I was on business visit, and I was paying the full price, my booking was not with some coupon, or bid.  Also I am Marriott Elitte member. So I know, what should I expect from a Marriott Hotel. During this one week, they didn't had any room available to shift on the same floor. The floor had at least 30 rooms, and it is hard to believe that for one week, no body checked out from those 30 rooms. Either they were saying truth, and no body checked out whole week, or they never took the problem seriously, and didn't gave me priority over new coming guest.  Why I wasn't paid attention?  only one reason.. because I am a calm guy, and never shouted at front desk, so they never took the problem seriously. After seven days, when I explained the situation in detail, front desk said, they never knew, that the problem was so serious.Perhaps they are so used to with the customer shouting at them, when I was talking politely, they never took it seriously. Next day they shifted me to adjacent room.  Rest all was good. Front desk was always easy, and polite. If you are a calm guy and don't shout on people, and you think taking bath is necessary, please remember to ask for a bucket when you check in. It will make your life so easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I stayed there for 4 weeks. The first week started very well, the staff is very polite, and responsive. 
+Rooms were average looking, little old, but clean and well maintained. 
+Room service was on daily basis, and out of 4 staff in room service, 3 were excellent, 1 was average.
+The bad experience started with the "Hot water" in shower.  There was no way to get the cold water. You take shower in burning hot water, or do not take shower.  When you need to go to office, do you consider it an emergency or not?
+Raised complaint first day - front desk noted down the request very politely - but no action was taken.
+Raised complaint Second day - front desk noted down the request very politely - but no action was taken.
+Raised complaint Third day - front desk took it very politely - but no action was taken.
+Forth day I was in towel getting late for office - asked to send someone immediately - maintenance staff took half hour to reach my room, and tried to fix it and said he can't fix it.  He gave me a bucket to fill it from wash basin, and use it. I am so thankful for Bucket, at least I could take bath, and go to office. 
+Fifth day-  maintenance staff came again, he opened the shower tab, and was not able to fit it back. So the water...I stayed there for 4 weeks. The first week started very well, the staff is very polite, and responsive. Rooms were average looking, little old, but clean and well maintained. Room service was on daily basis, and out of 4 staff in room service, 3 were excellent, 1 was average.The bad experience started with the "Hot water" in shower.  There was no way to get the cold water. You take shower in burning hot water, or do not take shower.  When you need to go to office, do you consider it an emergency or not?Raised complaint first day - front desk noted down the request very politely - but no action was taken.Raised complaint Second day - front desk noted down the request very politely - but no action was taken.Raised complaint Third day - front desk took it very politely - but no action was taken.Forth day I was in towel getting late for office - asked to send someone immediately - maintenance staff took half hour to reach my room, and tried to fix it and said he can't fix it.  He gave me a bucket to fill it from wash basin, and use it. I am so thankful for Bucket, at least I could take bath, and go to office. Fifth day-  maintenance staff came again, he opened the shower tab, and was not able to fit it back. So the water was running, whole night, now you don't have hot water as well. You want to take bath ...Use bucket :-)six day - Water still running whole night, fortunately we got used to sleeping in sound of running water. seventh day - Water still running whole night. Eighth day - Water still running whole night. Use bucket to bath. :-)By the way, I was on business visit, and I was paying the full price, my booking was not with some coupon, or bid.  Also I am Marriott Elitte member. So I know, what should I expect from a Marriott Hotel. During this one week, they didn't had any room available to shift on the same floor. The floor had at least 30 rooms, and it is hard to believe that for one week, no body checked out from those 30 rooms. Either they were saying truth, and no body checked out whole week, or they never took the problem seriously, and didn't gave me priority over new coming guest.  Why I wasn't paid attention?  only one reason.. because I am a calm guy, and never shouted at front desk, so they never took the problem seriously. After seven days, when I explained the situation in detail, front desk said, they never knew, that the problem was so serious.Perhaps they are so used to with the customer shouting at them, when I was talking politely, they never took it seriously. Next day they shifted me to adjacent room.  Rest all was good. Front desk was always easy, and polite. If you are a calm guy and don't shout on people, and you think taking bath is necessary, please remember to ask for a bucket when you check in. It will make your life so easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r210048217-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210048217</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>Not what you would expect from Marriott</t>
+  </si>
+  <si>
+    <t>My family stayed in a 2 bedroom suite, which seemed to be a great value for the space.  The first thing you notice when you walk in the room is the horrible smell.  A very dirty, musty smell.  The carpet and furniture were torn and very dingy.  If we hadn't traveled so far and got there so late, I would have walked out and gone to another hotel.  The rooms next to us and below were very loud until about midnight.  The only positive I can say is that the bed was soft and comfortable.  Overall, I would not stay here again and I would pay more to stay someplace cleaner.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>My family stayed in a 2 bedroom suite, which seemed to be a great value for the space.  The first thing you notice when you walk in the room is the horrible smell.  A very dirty, musty smell.  The carpet and furniture were torn and very dingy.  If we hadn't traveled so far and got there so late, I would have walked out and gone to another hotel.  The rooms next to us and below were very loud until about midnight.  The only positive I can say is that the bed was soft and comfortable.  Overall, I would not stay here again and I would pay more to stay someplace cleaner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r198810262-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198810262</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Great beds and nice staff</t>
+  </si>
+  <si>
+    <t>We stayed two nights in a two bedroom suite. The beds are really great, everything was clean. I did appreciate the nice staff at reception, they really did their best to accommodate our family. I asked them about the guest laundry during check in, they managed to find us a suite on the same floor which was really convenient. During the night I had to print boarding passes and tickets, I was welcomed in the lobby and helped with my different needs (stapler etc.. ). Breakfast was continental, with plenty of choices, the dinning room is kind of small and we had to take our plates and drinks back in our rooms since we couldn't seat. That's the only downside I can see here,and that's not even an issue. It's only six minutes away by car from the Space Center, which was really convenient.Overall a good stay and I would come back again if I need an hotel in this areaMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We stayed two nights in a two bedroom suite. The beds are really great, everything was clean. I did appreciate the nice staff at reception, they really did their best to accommodate our family. I asked them about the guest laundry during check in, they managed to find us a suite on the same floor which was really convenient. During the night I had to print boarding passes and tickets, I was welcomed in the lobby and helped with my different needs (stapler etc.. ). Breakfast was continental, with plenty of choices, the dinning room is kind of small and we had to take our plates and drinks back in our rooms since we couldn't seat. That's the only downside I can see here,and that's not even an issue. It's only six minutes away by car from the Space Center, which was really convenient.Overall a good stay and I would come back again if I need an hotel in this areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r198336455-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198336455</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Smoky</t>
+  </si>
+  <si>
+    <t>The hotel is average, although it has not been updated in a while. Breakfast was good and better than most comparable places. However, every night there is the choking stench of smoke hanging in the hallways and rooms. Deal breaker for me, I would not return or recommend the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Erinn V, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded March 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is average, although it has not been updated in a while. Breakfast was good and better than most comparable places. However, every night there is the choking stench of smoke hanging in the hallways and rooms. Deal breaker for me, I would not return or recommend the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r191445945-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191445945</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>It really is as a bas as most reviews state...</t>
+  </si>
+  <si>
+    <t>I recently moved to TX and am trying to find a decent hotel to stay in the Houston area for under $120/night (our companies limit). I am quickly learning that here in Houston, $120/night buys you a shady, nasty, sleepless dump like this place. No Hyatt Places or Hampton Inns for me anymore I guess!!Lets start with the sleep quality: paper thin walls, there is a busy railroad track closeby so trains every 1-2 hours at night, and the AC was broken so would cycle on then off about every 3 minutes so no good white noise either!I'm sorry but the only reason I goto a hotel is to get some sleep in a clean and quiet environment which this place definitely DOES NOT deliver.Management accidentally charged my personal card even though it had already been booked and paid for thru Egencia and our corporate card. (Always a sign of a bad hotel when they can't even get the charges/billing side straight).If you are a business traveler who likes to sleep in clean rooms, and not have to deal with billing BS from the front desk, this hotel is NOT for you. 1 star at best and that's being generous.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Erinn V, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded January 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2014</t>
+  </si>
+  <si>
+    <t>I recently moved to TX and am trying to find a decent hotel to stay in the Houston area for under $120/night (our companies limit). I am quickly learning that here in Houston, $120/night buys you a shady, nasty, sleepless dump like this place. No Hyatt Places or Hampton Inns for me anymore I guess!!Lets start with the sleep quality: paper thin walls, there is a busy railroad track closeby so trains every 1-2 hours at night, and the AC was broken so would cycle on then off about every 3 minutes so no good white noise either!I'm sorry but the only reason I goto a hotel is to get some sleep in a clean and quiet environment which this place definitely DOES NOT deliver.Management accidentally charged my personal card even though it had already been booked and paid for thru Egencia and our corporate card. (Always a sign of a bad hotel when they can't even get the charges/billing side straight).If you are a business traveler who likes to sleep in clean rooms, and not have to deal with billing BS from the front desk, this hotel is NOT for you. 1 star at best and that's being generous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r175101568-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175101568</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Low-End Marriott Affiliate</t>
+  </si>
+  <si>
+    <t>My schedule changed and the hotel where I had a reservation couldn't take me a day early. I was referred to the TownePlace, as it was the only hotel available in the area.It was a bit rundown, but clean and quiet. The folks were nice and friendly, although the fellow at the desk had a difficult time directing me to the hotel even though I told him exactly where I was on the same street as the hotel.The breakfast offered was marginal and the room was very small.With the rate being the same as other, "similar" hotels, I would shop around and stay somewhere else.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r172735109-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172735109</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>Lady was nice at the counter and even the guy. Helped with questions about town. Lower lever smells of smoke and the pool did not look appealing...Get what you paid for...But kitchen was clean...everything else was just what we needed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r171467055-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171467055</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Good service inferior hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel worked for our needs, but wasn't great.  We had a 1 bdrm suite.  Tacky furnishings plus our tv remote didn't work.  The porter came to try to fix the remote, but he never solved the problem.  Our a/c dripped (loudly ) all night---uncomfortable bed.  The breakfast was decent, but the layout is awkward with few places to sit.  Staff friendly.  Close to NASA </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r165230027-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165230027</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Great family stay, 2-bedroom suites</t>
+  </si>
+  <si>
+    <t>Stayed here with 3 adults and 2 kids over spring break week.  Easy 10 minute drive to Kemah, shorter for NASA.  A 2-bedroom suite for this price beat any other deal in the area.  The kitchen came with basics (dishes, silverware) which was sufficient for our stay; we did not attempt to cook anything though. The toaster set off the smoke alarm, which was annoying. Otherwise, having the kitchen was useful and there is a grocery store next door.  Plenty of restaurants within walking distance. Furnishings are nice, nothing fancy, but certainly suitable.  Internet in room was reliable although at times slow.  Used laundry facilities which worked fine, and also had breakfast every morning.  They do change up the breakfast options which is nice, although the breakfast area is very small.  We usually brought the food back to our rooms to eat. Overall would stay here again, especially if traveling with children.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Stayed here with 3 adults and 2 kids over spring break week.  Easy 10 minute drive to Kemah, shorter for NASA.  A 2-bedroom suite for this price beat any other deal in the area.  The kitchen came with basics (dishes, silverware) which was sufficient for our stay; we did not attempt to cook anything though. The toaster set off the smoke alarm, which was annoying. Otherwise, having the kitchen was useful and there is a grocery store next door.  Plenty of restaurants within walking distance. Furnishings are nice, nothing fancy, but certainly suitable.  Internet in room was reliable although at times slow.  Used laundry facilities which worked fine, and also had breakfast every morning.  They do change up the breakfast options which is nice, although the breakfast area is very small.  We usually brought the food back to our rooms to eat. Overall would stay here again, especially if traveling with children.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r164934807-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164934807</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>A friend and I had adjoining rooms for a two-day visit to the Houston/Galveston area. We were greeted politely at check-in and our rooms were ready even though it was only 10 a.m. The rooms were spacious and meticulously clean.The only downside was that the breakfast area was far too small for the number of people staying there. There was no hope of even sitting down, much less at a table. We took our food into the lobby the first day and just skipped it on the second. Security was great, and the rooms were clean, cool, and quiet. Everyone on the staff was super-friendly and very helpful. I will definitely stay here again next time I'm in this part of Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>A friend and I had adjoining rooms for a two-day visit to the Houston/Galveston area. We were greeted politely at check-in and our rooms were ready even though it was only 10 a.m. The rooms were spacious and meticulously clean.The only downside was that the breakfast area was far too small for the number of people staying there. There was no hope of even sitting down, much less at a table. We took our food into the lobby the first day and just skipped it on the second. Security was great, and the rooms were clean, cool, and quiet. Everyone on the staff was super-friendly and very helpful. I will definitely stay here again next time I'm in this part of Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r159919269-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159919269</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Very friendly staff</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel over spring break and found the staff to be very friendly and go out of their way to make sure all needs were met.  Great breakfast with Texas shaped waffeles and omletts.  Beds were comfortable, rooms very nice sized.  The sofa bed in our room was a bit worn, but everything else was fine.   Not noisy at night which helped the kids get a good nights sleep.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r152939692-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152939692</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay before a cruise</t>
+  </si>
+  <si>
+    <t>We had a two bedroom unit above the office like we usually get here.  Everything was clean (furniture had seen better days), beds were nice and soft and comfortable.  The staff was very friendly and accomodating.  Breakfast now includes hot items, but it wasn't anything to write home about.  Overall great value, especially if using points.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r152661557-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152661557</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>Amazing!!!</t>
+  </si>
+  <si>
+    <t>Great place, the service is fantastic, all the employees so polite and really care about my needs, a beautiful room, clean and ready to take the best rest you could get. I would recomend to everybody who has to stay for a while and wants to receive the Marriott´s quality at an affordable price. They don´t offer room services but the breakfast at the restaurant is so good that would be great to receive it one day at bed. They don´t offer room services but the breakfast at the restaurant is so good that everybody should taste it.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r150667383-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150667383</t>
+  </si>
+  <si>
+    <t>01/26/2013</t>
+  </si>
+  <si>
+    <t>watch your cc pending charges</t>
+  </si>
+  <si>
+    <t>The staff appeared caring until my son and I had to address the ovecharges on our credit cards. I was going to have his "daily incidental surcharge" on my cc but instead they put a pending charge for the whole room on my card even tho his room was prepaid through orbitz. He had to prove that to the clerk as well by printing out the confirmation. That info should have come through from the reservation when the hotel received it from orbitz.  So now my cc has a pending charge for his room and incidental, his card was first charged $80 then after speaking to the clerk the following day, he was charged another $60!! The next day we asked the general manager to fix it but he blamed the computer system for the error. He says all will be well at check out. But in the meantime, these pending changes, that are admitedly wrong, are against our accounts for the next 5 days. We won't come back here. Mattress so soft you roll to the middle and the sheets come off to the point that you wake up on the mattress itself. Go elsewhere!MoreShow less</t>
+  </si>
+  <si>
+    <t>Joel A, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded February 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2013</t>
+  </si>
+  <si>
+    <t>The staff appeared caring until my son and I had to address the ovecharges on our credit cards. I was going to have his "daily incidental surcharge" on my cc but instead they put a pending charge for the whole room on my card even tho his room was prepaid through orbitz. He had to prove that to the clerk as well by printing out the confirmation. That info should have come through from the reservation when the hotel received it from orbitz.  So now my cc has a pending charge for his room and incidental, his card was first charged $80 then after speaking to the clerk the following day, he was charged another $60!! The next day we asked the general manager to fix it but he blamed the computer system for the error. He says all will be well at check out. But in the meantime, these pending changes, that are admitedly wrong, are against our accounts for the next 5 days. We won't come back here. Mattress so soft you roll to the middle and the sheets come off to the point that you wake up on the mattress itself. Go elsewhere!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r139925197-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139925197</t>
+  </si>
+  <si>
+    <t>09/10/2012</t>
+  </si>
+  <si>
+    <t>Awesome Customer Service</t>
+  </si>
+  <si>
+    <t>This hotels customer service was great! We only stayed two days, but left feeling we knew the front desk personally. After checking in we received a phone call in our room from the front-desk manager just checking on us to see if we were happy with our room. The room was nice. The breakfast was great &amp; the lady who ran it was awesome. She offered meal ideas such as adding granola to our yogurt. The breakfast was really good.I did not use the pool, but it looked very small.If I'm in the area again I will likely stay here!</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r135936470-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135936470</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Great Customer Service!</t>
+  </si>
+  <si>
+    <t>We arrived late at night while on a long car trip.  The staff was so helpful in finding us a room close to an exit so we could carry in our sleeping kids.  We were upgraded to a two room suite with a full kitchen.  It was really nice to have the extra space.  Although the room has been updated, you can tell that the building itself is a bit dated, but it did not bother us.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r133583381-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133583381</t>
+  </si>
+  <si>
+    <t>07/06/2012</t>
+  </si>
+  <si>
+    <t>Decent hotel for the money</t>
+  </si>
+  <si>
+    <t>We stayed in a studio suite for two weeks before moving out of the area. The property's location can't be beat and the overall cleanliness of the hotel, breakfast area, pool, and lobby were very nice. I appreciated the laundry facilities and the delicious breakfast each morning. The woman who runs the breakfast room is very delightful and takes pride in her work. The actual rooms leave a little to be desired. Our room actually had an awful stale smell that I as sure would dissipate during our stay but it never did. I combated it with buying air fresheners and putting them all over. It definitely made me curious why the smell never seemed to go away. We had some issues with house keeping not cleaning our rooms (maybe 2 or 3 days they never came at all during our 15 night stay). Or they would come very late after we had both gotten home from work (after 6pm).
+I was there during the time when the second building's lock was broken so I did feel a little less secure during that time. It worked or our first few days and then the door never locked again during our two week stay. 
+None of these were awful complaints though and we greatly appreciate the overall value of the property. We stayed on reward points and were able to stay at this location longer than if we had used the...We stayed in a studio suite for two weeks before moving out of the area. The property's location can't be beat and the overall cleanliness of the hotel, breakfast area, pool, and lobby were very nice. I appreciated the laundry facilities and the delicious breakfast each morning. The woman who runs the breakfast room is very delightful and takes pride in her work. The actual rooms leave a little to be desired. Our room actually had an awful stale smell that I as sure would dissipate during our stay but it never did. I combated it with buying air fresheners and putting them all over. It definitely made me curious why the smell never seemed to go away. We had some issues with house keeping not cleaning our rooms (maybe 2 or 3 days they never came at all during our 15 night stay). Or they would come very late after we had both gotten home from work (after 6pm).I was there during the time when the second building's lock was broken so I did feel a little less secure during that time. It worked or our first few days and then the door never locked again during our two week stay. None of these were awful complaints though and we greatly appreciate the overall value of the property. We stayed on reward points and were able to stay at this location longer than if we had used the same amount of points elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2012</t>
+  </si>
+  <si>
+    <t>We stayed in a studio suite for two weeks before moving out of the area. The property's location can't be beat and the overall cleanliness of the hotel, breakfast area, pool, and lobby were very nice. I appreciated the laundry facilities and the delicious breakfast each morning. The woman who runs the breakfast room is very delightful and takes pride in her work. The actual rooms leave a little to be desired. Our room actually had an awful stale smell that I as sure would dissipate during our stay but it never did. I combated it with buying air fresheners and putting them all over. It definitely made me curious why the smell never seemed to go away. We had some issues with house keeping not cleaning our rooms (maybe 2 or 3 days they never came at all during our 15 night stay). Or they would come very late after we had both gotten home from work (after 6pm).
+I was there during the time when the second building's lock was broken so I did feel a little less secure during that time. It worked or our first few days and then the door never locked again during our two week stay. 
+None of these were awful complaints though and we greatly appreciate the overall value of the property. We stayed on reward points and were able to stay at this location longer than if we had used the...We stayed in a studio suite for two weeks before moving out of the area. The property's location can't be beat and the overall cleanliness of the hotel, breakfast area, pool, and lobby were very nice. I appreciated the laundry facilities and the delicious breakfast each morning. The woman who runs the breakfast room is very delightful and takes pride in her work. The actual rooms leave a little to be desired. Our room actually had an awful stale smell that I as sure would dissipate during our stay but it never did. I combated it with buying air fresheners and putting them all over. It definitely made me curious why the smell never seemed to go away. We had some issues with house keeping not cleaning our rooms (maybe 2 or 3 days they never came at all during our 15 night stay). Or they would come very late after we had both gotten home from work (after 6pm).I was there during the time when the second building's lock was broken so I did feel a little less secure during that time. It worked or our first few days and then the door never locked again during our two week stay. None of these were awful complaints though and we greatly appreciate the overall value of the property. We stayed on reward points and were able to stay at this location longer than if we had used the same amount of points elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r132713389-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132713389</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel in one of the two bedroom suites. The hotel staff were exceptional and very accommodating. The facilities ranged from standard to good quality. It appeared very safe and convenient to various eateries, shopping and grocery stores.  My only distress was the people in the upstairs suite. They were walking very heavily and  when they were not walking they were "love making" during the late night and you can hear everything because of the thin walls/floors and the squeaky, noisy   beds. This was extremely difficult to explain to my children and it deprived me of sleep. My overall experience was good, aside from the noise. The last impression was the best, we left out cash deposit and had forgotten all about it. They contacted us and mailed it to us. SO OVERALL I AM SATIFIED!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel in one of the two bedroom suites. The hotel staff were exceptional and very accommodating. The facilities ranged from standard to good quality. It appeared very safe and convenient to various eateries, shopping and grocery stores.  My only distress was the people in the upstairs suite. They were walking very heavily and  when they were not walking they were "love making" during the late night and you can hear everything because of the thin walls/floors and the squeaky, noisy   beds. This was extremely difficult to explain to my children and it deprived me of sleep. My overall experience was good, aside from the noise. The last impression was the best, we left out cash deposit and had forgotten all about it. They contacted us and mailed it to us. SO OVERALL I AM SATIFIED!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r132648114-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132648114</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>Very impressed with this hotel !</t>
+  </si>
+  <si>
+    <t>Needing a place for 7 family members on our way to Galveston for a cruise, we secured two 2 bedroom suites for one night.  Located about 1.7 miles off I-45 on Bay Area Blvd.  Close to NASA and many restaurants.Check in was fast and pleasant.  Staff welcomed us and offered us complimenatary drinks ( soda, red bull, juice, water and Gatorade). Our rooms were very comfortable and clean.  Each room had two bedrooms, each with a queen bed that was very comfortable.  Both rooms had a flat screen tv.There was a living area that had a couch, lounge chair, small dining table with 3 wooden chairs and another flat screen tv.  The attached galley kitchen was well equipped with a full sized refrigerator, microwave, electric stove/oven and dishwasher.  It would not be difficult to stay here for an extended stay.  Property had a small pool that was well maintained.  Complimentary continental breakfast had juices, breads, muffins, fruit, waffles, yogurts, coffee and sausage/egg/cheese biscuits.  Dining area was small with limited seating.Overall, an excellent place to stay and sure I would choose again in future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Needing a place for 7 family members on our way to Galveston for a cruise, we secured two 2 bedroom suites for one night.  Located about 1.7 miles off I-45 on Bay Area Blvd.  Close to NASA and many restaurants.Check in was fast and pleasant.  Staff welcomed us and offered us complimenatary drinks ( soda, red bull, juice, water and Gatorade). Our rooms were very comfortable and clean.  Each room had two bedrooms, each with a queen bed that was very comfortable.  Both rooms had a flat screen tv.There was a living area that had a couch, lounge chair, small dining table with 3 wooden chairs and another flat screen tv.  The attached galley kitchen was well equipped with a full sized refrigerator, microwave, electric stove/oven and dishwasher.  It would not be difficult to stay here for an extended stay.  Property had a small pool that was well maintained.  Complimentary continental breakfast had juices, breads, muffins, fruit, waffles, yogurts, coffee and sausage/egg/cheese biscuits.  Dining area was small with limited seating.Overall, an excellent place to stay and sure I would choose again in future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r131004967-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131004967</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>Keep looking</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 bedroom suite while we were moving from League City.  Very disappointed.  Mold was very bad on the ceiling in our bathroom.  There was also mold in the living quarters on the ceiling.  Tiles were cracked on the floor in the kitchen.  The refrigerator didn't work.  Didn't keep anything cold.  The main door didn't close.  Had to play with the handle repeatedly to get the door to shut and lock.  The outside door that goes to the outside didn't work half the time, they keep it locked, and your card would sound like it was unlocking it, but didn't actually do it.  The A/C didn't seem to be functioning properly either, the room was relatively cool, but stayed humid throughout our stay.  The walls must be really thin, because it sounded like the people above us were square dancing throughout the day.  The breakfast is not really a breakfast.  Just a couple of bagels and some fruit.  It was not a good experience.I did give it two stars because the beds were actually comfortable, and the room seem clean.  that is always a pro!I don't know, Marriott's Residence Inn is down the street think that is much a better extended stay type hotel.  Keep looking.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Joel A, Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded June 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2012</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 bedroom suite while we were moving from League City.  Very disappointed.  Mold was very bad on the ceiling in our bathroom.  There was also mold in the living quarters on the ceiling.  Tiles were cracked on the floor in the kitchen.  The refrigerator didn't work.  Didn't keep anything cold.  The main door didn't close.  Had to play with the handle repeatedly to get the door to shut and lock.  The outside door that goes to the outside didn't work half the time, they keep it locked, and your card would sound like it was unlocking it, but didn't actually do it.  The A/C didn't seem to be functioning properly either, the room was relatively cool, but stayed humid throughout our stay.  The walls must be really thin, because it sounded like the people above us were square dancing throughout the day.  The breakfast is not really a breakfast.  Just a couple of bagels and some fruit.  It was not a good experience.I did give it two stars because the beds were actually comfortable, and the room seem clean.  that is always a pro!I don't know, Marriott's Residence Inn is down the street think that is much a better extended stay type hotel.  Keep looking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r126141489-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126141489</t>
+  </si>
+  <si>
+    <t>03/15/2012</t>
+  </si>
+  <si>
+    <t>Nice Place to stay close to everthing</t>
+  </si>
+  <si>
+    <t>Hotel is clean and staffs are very friendly.  We have 4 families stayed there and we all loved it.  Pull out sofa bed is not very comfortable but OK for kids.  The rooms are very clean.  Location is the best as just 30 min from down town Houston, 5 min to NASA and 35 min to Galveston beach.  They said they will have hot breakfast by end of March.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r125771960-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125771960</t>
+  </si>
+  <si>
+    <t>03/07/2012</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>We had a fantastic stay. Renovation did not allow us to use guests laundry but the staff was so gracious and helpfull. We'll be back.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r125403073-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125403073</t>
+  </si>
+  <si>
+    <t>02/29/2012</t>
+  </si>
+  <si>
+    <t>Good hotel, large rooms, but certainly not fancy.</t>
+  </si>
+  <si>
+    <t>My family recently stayed here for two nights! If you have read any of my other reviews you will know a bit about me, and my family, if not I want to briefly touch on how we live at home, so you can decide if we are like you and if my review will provide value to you. I live in Alberta, Canada in a 2 storey home, with 3 bedrooms and a loft upstairs, a double attached garage, and a fully finished basement with a few more bedrooms. Our community is not upscale, but its not budget either, my husband and I travel a lot! When we are traveling with our kids (13 yr old twins and 4 yr old) we like to have space, and as much comfort a we can get, for a decent price. Anyone who travels with their family knows just how pricey such an adventure can be! 
+We keep our home tidy, and neat. So let me get to the review. 
+The room was very roomy, having the two bedrooms was GREAT!! The bedrooms were small, but honestly they had everything we needed. 
+The bedroom my twins ended up using had a queen bed, a nightstand on each side, and a 4 drawer dresser with a 42 inch flat screen tv on it. (they liked that!) There was also a closet! 
+The main bedroom was quite a bit larger featuring, a queen bed, a...My family recently stayed here for two nights! If you have read any of my other reviews you will know a bit about me, and my family, if not I want to briefly touch on how we live at home, so you can decide if we are like you and if my review will provide value to you. I live in Alberta, Canada in a 2 storey home, with 3 bedrooms and a loft upstairs, a double attached garage, and a fully finished basement with a few more bedrooms. Our community is not upscale, but its not budget either, my husband and I travel a lot! When we are traveling with our kids (13 yr old twins and 4 yr old) we like to have space, and as much comfort a we can get, for a decent price. Anyone who travels with their family knows just how pricey such an adventure can be! We keep our home tidy, and neat. So let me get to the review. The room was very roomy, having the two bedrooms was GREAT!! The bedrooms were small, but honestly they had everything we needed. The bedroom my twins ended up using had a queen bed, a nightstand on each side, and a 4 drawer dresser with a 42 inch flat screen tv on it. (they liked that!) There was also a closet! The main bedroom was quite a bit larger featuring, a queen bed, a large closet, a 4 drawer dresser with mirror above it, and a 42 inch flat screen tv mounted on a movable mount. My favorite feature was a large desk with work chair on the one side of the bed, as I was also doing some internet work while there. The internet was FREE, and either wired or wireless, (I used both with no problems). The beds were comfortable, and the bedding was nice. The living room and kitchen were tired, the kitchen even though fully functioning was more like the type of kitchen you would find in a rental apartment, rather than what most people would have at home, Old worn and burned arborite counter tops, the fridge was a good size and worked, the stove was apartment size and I never used it, there was also a dishwasher that was VERY loud (so put on when you are vacating the suite so you don't get bothered by it) All in all the kitchen functioned, but it would be great if they updated it. The sofa bed was WORN, so much so that I did not want to sleep my 4 yr old on it, so we removed the couch cushions, covered them in a doubled blanket, a fresh sheet, and asked for more bedding to give her blankets to cover with. (she slept in the closet in the larger bedroom as she felt more safe there, which was fine) There was also a chair in the living room, and a large tv (about 50" flat wall mounted) I would definitely think about staying here again, but there was one disappointment while here... I booked the hotel directly from the hotel website, and did not have a chance to view the reviews here, (which I am glad I did not or I probably would of not chosen to come here) The outdoor pool is also NOT heated, so the fact that they have it open YEAR Round is kind of a joke, considering even these Canadians were not going in that cold pool!! So if you plan to go and swim know the pool is NOT heated!! For the money having the separate rooms for the kids, for nearly the same price as a standard hotel room was a great bonus! Breakfast was small and they were always out of food, but we would ask and they would restock, maybe this was part of their ploy, as many people would not bother asking, they would just leave without eating. The hotel did tell me that they are adding a new hot breakfast room, and the renovations were being done as we were there, it was also my understanding that the guest rooms were being redone as well. We did not hear any construction noise while we were there. I would recommend to anyone that wants roomy, valuable accommodations.Connect with me on Facebook www.facebook.com/AmandaEvansCCMoreShow less</t>
+  </si>
+  <si>
+    <t>My family recently stayed here for two nights! If you have read any of my other reviews you will know a bit about me, and my family, if not I want to briefly touch on how we live at home, so you can decide if we are like you and if my review will provide value to you. I live in Alberta, Canada in a 2 storey home, with 3 bedrooms and a loft upstairs, a double attached garage, and a fully finished basement with a few more bedrooms. Our community is not upscale, but its not budget either, my husband and I travel a lot! When we are traveling with our kids (13 yr old twins and 4 yr old) we like to have space, and as much comfort a we can get, for a decent price. Anyone who travels with their family knows just how pricey such an adventure can be! 
+We keep our home tidy, and neat. So let me get to the review. 
+The room was very roomy, having the two bedrooms was GREAT!! The bedrooms were small, but honestly they had everything we needed. 
+The bedroom my twins ended up using had a queen bed, a nightstand on each side, and a 4 drawer dresser with a 42 inch flat screen tv on it. (they liked that!) There was also a closet! 
+The main bedroom was quite a bit larger featuring, a queen bed, a...My family recently stayed here for two nights! If you have read any of my other reviews you will know a bit about me, and my family, if not I want to briefly touch on how we live at home, so you can decide if we are like you and if my review will provide value to you. I live in Alberta, Canada in a 2 storey home, with 3 bedrooms and a loft upstairs, a double attached garage, and a fully finished basement with a few more bedrooms. Our community is not upscale, but its not budget either, my husband and I travel a lot! When we are traveling with our kids (13 yr old twins and 4 yr old) we like to have space, and as much comfort a we can get, for a decent price. Anyone who travels with their family knows just how pricey such an adventure can be! We keep our home tidy, and neat. So let me get to the review. The room was very roomy, having the two bedrooms was GREAT!! The bedrooms were small, but honestly they had everything we needed. The bedroom my twins ended up using had a queen bed, a nightstand on each side, and a 4 drawer dresser with a 42 inch flat screen tv on it. (they liked that!) There was also a closet! The main bedroom was quite a bit larger featuring, a queen bed, a large closet, a 4 drawer dresser with mirror above it, and a 42 inch flat screen tv mounted on a movable mount. My favorite feature was a large desk with work chair on the one side of the bed, as I was also doing some internet work while there. The internet was FREE, and either wired or wireless, (I used both with no problems). The beds were comfortable, and the bedding was nice. The living room and kitchen were tired, the kitchen even though fully functioning was more like the type of kitchen you would find in a rental apartment, rather than what most people would have at home, Old worn and burned arborite counter tops, the fridge was a good size and worked, the stove was apartment size and I never used it, there was also a dishwasher that was VERY loud (so put on when you are vacating the suite so you don't get bothered by it) All in all the kitchen functioned, but it would be great if they updated it. The sofa bed was WORN, so much so that I did not want to sleep my 4 yr old on it, so we removed the couch cushions, covered them in a doubled blanket, a fresh sheet, and asked for more bedding to give her blankets to cover with. (she slept in the closet in the larger bedroom as she felt more safe there, which was fine) There was also a chair in the living room, and a large tv (about 50" flat wall mounted) I would definitely think about staying here again, but there was one disappointment while here... I booked the hotel directly from the hotel website, and did not have a chance to view the reviews here, (which I am glad I did not or I probably would of not chosen to come here) The outdoor pool is also NOT heated, so the fact that they have it open YEAR Round is kind of a joke, considering even these Canadians were not going in that cold pool!! So if you plan to go and swim know the pool is NOT heated!! For the money having the separate rooms for the kids, for nearly the same price as a standard hotel room was a great bonus! Breakfast was small and they were always out of food, but we would ask and they would restock, maybe this was part of their ploy, as many people would not bother asking, they would just leave without eating. The hotel did tell me that they are adding a new hot breakfast room, and the renovations were being done as we were there, it was also my understanding that the guest rooms were being redone as well. We did not hear any construction noise while we were there. I would recommend to anyone that wants roomy, valuable accommodations.Connect with me on Facebook www.facebook.com/AmandaEvansCCMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r119644644-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119644644</t>
+  </si>
+  <si>
+    <t>10/23/2011</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>The furniture is old and worn. The hotel is very very basic. As a Marriott Rewards member, we stay in a lot of Marriott properties. I am very surprised this is a Marriott property. Adequate but barely, marginally clean, won't stay here again but it was very cheap.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1953,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1985,4304 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>122</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>197</v>
+      </c>
+      <c r="X23" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>210</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>229</v>
+      </c>
+      <c r="J29" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" t="s">
+        <v>232</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>233</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>234</v>
+      </c>
+      <c r="X29" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>233</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>247</v>
+      </c>
+      <c r="O31" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J32" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" t="s">
+        <v>254</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s">
+        <v>260</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>261</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" t="s">
+        <v>265</v>
+      </c>
+      <c r="K34" t="s">
+        <v>266</v>
+      </c>
+      <c r="L34" t="s">
+        <v>267</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>268</v>
+      </c>
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>271</v>
+      </c>
+      <c r="J35" t="s">
+        <v>272</v>
+      </c>
+      <c r="K35" t="s">
+        <v>273</v>
+      </c>
+      <c r="L35" t="s">
+        <v>274</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>275</v>
+      </c>
+      <c r="O35" t="s">
+        <v>254</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>278</v>
+      </c>
+      <c r="J36" t="s">
+        <v>279</v>
+      </c>
+      <c r="K36" t="s">
+        <v>280</v>
+      </c>
+      <c r="L36" t="s">
+        <v>281</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>275</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>283</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>284</v>
+      </c>
+      <c r="J37" t="s">
+        <v>285</v>
+      </c>
+      <c r="K37" t="s">
+        <v>286</v>
+      </c>
+      <c r="L37" t="s">
+        <v>287</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>288</v>
+      </c>
+      <c r="O37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>289</v>
+      </c>
+      <c r="X37" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>293</v>
+      </c>
+      <c r="J38" t="s">
+        <v>294</v>
+      </c>
+      <c r="K38" t="s">
+        <v>295</v>
+      </c>
+      <c r="L38" t="s">
+        <v>296</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>297</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>299</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>300</v>
+      </c>
+      <c r="J39" t="s">
+        <v>301</v>
+      </c>
+      <c r="K39" t="s">
+        <v>302</v>
+      </c>
+      <c r="L39" t="s">
+        <v>303</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>297</v>
+      </c>
+      <c r="O39" t="s">
+        <v>76</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>304</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>305</v>
+      </c>
+      <c r="J40" t="s">
+        <v>306</v>
+      </c>
+      <c r="K40" t="s">
+        <v>307</v>
+      </c>
+      <c r="L40" t="s">
+        <v>308</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>297</v>
+      </c>
+      <c r="O40" t="s">
+        <v>254</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>309</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>310</v>
+      </c>
+      <c r="J41" t="s">
+        <v>311</v>
+      </c>
+      <c r="K41" t="s">
+        <v>312</v>
+      </c>
+      <c r="L41" t="s">
+        <v>313</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>314</v>
+      </c>
+      <c r="O41" t="s">
+        <v>122</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>315</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>316</v>
+      </c>
+      <c r="J42" t="s">
+        <v>317</v>
+      </c>
+      <c r="K42" t="s">
+        <v>318</v>
+      </c>
+      <c r="L42" t="s">
+        <v>319</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>320</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>321</v>
+      </c>
+      <c r="X42" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>324</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>325</v>
+      </c>
+      <c r="J43" t="s">
+        <v>326</v>
+      </c>
+      <c r="K43" t="s">
+        <v>327</v>
+      </c>
+      <c r="L43" t="s">
+        <v>328</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>329</v>
+      </c>
+      <c r="O43" t="s">
+        <v>76</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>330</v>
+      </c>
+      <c r="X43" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>334</v>
+      </c>
+      <c r="J44" t="s">
+        <v>335</v>
+      </c>
+      <c r="K44" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s">
+        <v>337</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>338</v>
+      </c>
+      <c r="X44" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>341</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>342</v>
+      </c>
+      <c r="J45" t="s">
+        <v>343</v>
+      </c>
+      <c r="K45" t="s">
+        <v>344</v>
+      </c>
+      <c r="L45" t="s">
+        <v>345</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>346</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>338</v>
+      </c>
+      <c r="X45" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>349</v>
+      </c>
+      <c r="J46" t="s">
+        <v>350</v>
+      </c>
+      <c r="K46" t="s">
+        <v>351</v>
+      </c>
+      <c r="L46" t="s">
+        <v>352</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>353</v>
+      </c>
+      <c r="O46" t="s">
+        <v>76</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>338</v>
+      </c>
+      <c r="X46" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>355</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>356</v>
+      </c>
+      <c r="J47" t="s">
+        <v>357</v>
+      </c>
+      <c r="K47" t="s">
+        <v>358</v>
+      </c>
+      <c r="L47" t="s">
+        <v>359</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>360</v>
+      </c>
+      <c r="O47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>363</v>
+      </c>
+      <c r="J48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K48" t="s">
+        <v>365</v>
+      </c>
+      <c r="L48" t="s">
+        <v>366</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>367</v>
+      </c>
+      <c r="X48" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>370</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>371</v>
+      </c>
+      <c r="J49" t="s">
+        <v>372</v>
+      </c>
+      <c r="K49" t="s">
+        <v>373</v>
+      </c>
+      <c r="L49" t="s">
+        <v>374</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>375</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>376</v>
+      </c>
+      <c r="X49" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>379</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>380</v>
+      </c>
+      <c r="J50" t="s">
+        <v>381</v>
+      </c>
+      <c r="K50" t="s">
+        <v>382</v>
+      </c>
+      <c r="L50" t="s">
+        <v>383</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>384</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>385</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>386</v>
+      </c>
+      <c r="J51" t="s">
+        <v>387</v>
+      </c>
+      <c r="K51" t="s">
+        <v>388</v>
+      </c>
+      <c r="L51" t="s">
+        <v>389</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>384</v>
+      </c>
+      <c r="O51" t="s">
+        <v>76</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>390</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>391</v>
+      </c>
+      <c r="J52" t="s">
+        <v>392</v>
+      </c>
+      <c r="K52" t="s">
+        <v>393</v>
+      </c>
+      <c r="L52" t="s">
+        <v>394</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>395</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>396</v>
+      </c>
+      <c r="J53" t="s">
+        <v>397</v>
+      </c>
+      <c r="K53" t="s">
+        <v>398</v>
+      </c>
+      <c r="L53" t="s">
+        <v>399</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>400</v>
+      </c>
+      <c r="O53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>402</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>403</v>
+      </c>
+      <c r="J54" t="s">
+        <v>404</v>
+      </c>
+      <c r="K54" t="s">
+        <v>405</v>
+      </c>
+      <c r="L54" t="s">
+        <v>406</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>407</v>
+      </c>
+      <c r="O54" t="s">
+        <v>408</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>411</v>
+      </c>
+      <c r="J55" t="s">
+        <v>412</v>
+      </c>
+      <c r="K55" t="s">
+        <v>413</v>
+      </c>
+      <c r="L55" t="s">
+        <v>414</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>415</v>
+      </c>
+      <c r="O55" t="s">
+        <v>76</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>416</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>417</v>
+      </c>
+      <c r="J56" t="s">
+        <v>418</v>
+      </c>
+      <c r="K56" t="s">
+        <v>419</v>
+      </c>
+      <c r="L56" t="s">
+        <v>420</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>421</v>
+      </c>
+      <c r="O56" t="s">
+        <v>408</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>422</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>423</v>
+      </c>
+      <c r="J57" t="s">
+        <v>424</v>
+      </c>
+      <c r="K57" t="s">
+        <v>425</v>
+      </c>
+      <c r="L57" t="s">
+        <v>426</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>427</v>
+      </c>
+      <c r="O57" t="s">
+        <v>254</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>428</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>429</v>
+      </c>
+      <c r="J58" t="s">
+        <v>430</v>
+      </c>
+      <c r="K58" t="s">
+        <v>431</v>
+      </c>
+      <c r="L58" t="s">
+        <v>432</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>427</v>
+      </c>
+      <c r="O58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>433</v>
+      </c>
+      <c r="X58" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>436</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>437</v>
+      </c>
+      <c r="J59" t="s">
+        <v>438</v>
+      </c>
+      <c r="K59" t="s">
+        <v>439</v>
+      </c>
+      <c r="L59" t="s">
+        <v>440</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>441</v>
+      </c>
+      <c r="O59" t="s">
+        <v>76</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>442</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>443</v>
+      </c>
+      <c r="J60" t="s">
+        <v>444</v>
+      </c>
+      <c r="K60" t="s">
+        <v>445</v>
+      </c>
+      <c r="L60" t="s">
+        <v>446</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>447</v>
+      </c>
+      <c r="O60" t="s">
+        <v>76</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>448</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>449</v>
+      </c>
+      <c r="J61" t="s">
+        <v>450</v>
+      </c>
+      <c r="K61" t="s">
+        <v>451</v>
+      </c>
+      <c r="L61" t="s">
+        <v>452</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>453</v>
+      </c>
+      <c r="O61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>454</v>
+      </c>
+      <c r="X61" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>457</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>458</v>
+      </c>
+      <c r="J62" t="s">
+        <v>459</v>
+      </c>
+      <c r="K62" t="s">
+        <v>460</v>
+      </c>
+      <c r="L62" t="s">
+        <v>461</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>453</v>
+      </c>
+      <c r="O62" t="s">
+        <v>76</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>463</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>464</v>
+      </c>
+      <c r="J63" t="s">
+        <v>465</v>
+      </c>
+      <c r="K63" t="s">
+        <v>466</v>
+      </c>
+      <c r="L63" t="s">
+        <v>467</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>453</v>
+      </c>
+      <c r="O63" t="s">
+        <v>76</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>469</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>470</v>
+      </c>
+      <c r="J64" t="s">
+        <v>471</v>
+      </c>
+      <c r="K64" t="s">
+        <v>472</v>
+      </c>
+      <c r="L64" t="s">
+        <v>473</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>474</v>
+      </c>
+      <c r="O64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>475</v>
+      </c>
+      <c r="X64" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>478</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>479</v>
+      </c>
+      <c r="J65" t="s">
+        <v>480</v>
+      </c>
+      <c r="K65" t="s">
+        <v>481</v>
+      </c>
+      <c r="L65" t="s">
+        <v>482</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>483</v>
+      </c>
+      <c r="O65" t="s">
+        <v>76</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>484</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>485</v>
+      </c>
+      <c r="J66" t="s">
+        <v>486</v>
+      </c>
+      <c r="K66" t="s">
+        <v>487</v>
+      </c>
+      <c r="L66" t="s">
+        <v>488</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>489</v>
+      </c>
+      <c r="O66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>490</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>491</v>
+      </c>
+      <c r="J67" t="s">
+        <v>492</v>
+      </c>
+      <c r="K67" t="s">
+        <v>493</v>
+      </c>
+      <c r="L67" t="s">
+        <v>494</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>489</v>
+      </c>
+      <c r="O67" t="s">
+        <v>76</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>496</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>497</v>
+      </c>
+      <c r="J68" t="s">
+        <v>498</v>
+      </c>
+      <c r="K68" t="s">
+        <v>499</v>
+      </c>
+      <c r="L68" t="s">
+        <v>500</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>501</v>
+      </c>
+      <c r="O68" t="s">
+        <v>76</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_660.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_660.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="795">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r599699046-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108054</t>
+  </si>
+  <si>
+    <t>599699046</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Never Had a Worst Stay</t>
+  </si>
+  <si>
+    <t>The room was clean with the exception of the bed.The pillows were all wrinkled, one of them had a hair on it.There were a couple of hairs by the pillows on the bed under the blanket.I found one more hair in the foot area on the sheet under the blanket.These hairs were of a different color and length than mine.Either the linens had been dropped on the floor at some point before being put on the bed OR the linens had not been changed after the previous occupant in my room.I am inclined to think it was the latter because the linens did not smell fresh and I did not see the typical creases of a newly laid bed sheet on the bed. As mentioned above, the pillow cases seemed to be creased as well.Disgusting.Upon further inspection, in the morning, I found a similar hair under the toilet seat.The hotel says that the linens are only changed every seven days; it sounds like this is what they do even if a new person is arriving.Will never go back there.I didn’t raise the issue because it was already late at night and I had just arrived from a transatlantic flight. Besides, I was only staying for one night, so I slept in my clothes and never used the pillows.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bethany H, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded July 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2018</t>
+  </si>
+  <si>
+    <t>The room was clean with the exception of the bed.The pillows were all wrinkled, one of them had a hair on it.There were a couple of hairs by the pillows on the bed under the blanket.I found one more hair in the foot area on the sheet under the blanket.These hairs were of a different color and length than mine.Either the linens had been dropped on the floor at some point before being put on the bed OR the linens had not been changed after the previous occupant in my room.I am inclined to think it was the latter because the linens did not smell fresh and I did not see the typical creases of a newly laid bed sheet on the bed. As mentioned above, the pillow cases seemed to be creased as well.Disgusting.Upon further inspection, in the morning, I found a similar hair under the toilet seat.The hotel says that the linens are only changed every seven days; it sounds like this is what they do even if a new person is arriving.Will never go back there.I didn’t raise the issue because it was already late at night and I had just arrived from a transatlantic flight. Besides, I was only staying for one night, so I slept in my clothes and never used the pillows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r596246010-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>596246010</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Nice place, great help.</t>
+  </si>
+  <si>
+    <t>My family came down here for a weekend getaway and love this hotel. The staff was great about trying to help when our A/C wasn’t working in our room and moved us to another room without us having to be rude or be pushy about it. Hotel does show slight age, but nothing really stands out. Would recommend to anyone.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r595291995-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>108054</t>
-  </si>
-  <si>
     <t>595291995</t>
   </si>
   <si>
@@ -174,10 +219,10 @@
     <t>The hotel is located in a great location around many things to do &amp; was extremely clean. Staff was helpful in directing us to NASA &amp; Kemah. Our room was nice as expected. The breakfast was good with many choices.  MoreShow less</t>
   </si>
   <si>
-    <t>Bethany H, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Bethany H, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
   </si>
   <si>
     <t>The hotel is located in a great location around many things to do &amp; was extremely clean. Staff was helpful in directing us to NASA &amp; Kemah. Our room was nice as expected. The breakfast was good with many choices.  More</t>
@@ -228,6 +273,54 @@
     <t>Very comfy and feels like home. It's close to everything and affordable. The staff were very nice and my room was clean. Loved having a kitchen because I get tired of always eating out. Plus, it was right around the corner from a grocery store, so bonus! Just a nice, relaxing place to stay. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r573597817-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573597817</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Very nice facility with wonderful staff</t>
+  </si>
+  <si>
+    <t>We were there for two nights for a picnic and evening dinner at Gilruth center, NASA. Was only only 7 minutes drive from the hotel. A lot restaurant choices nearby. Standard hot breakfast with egg, sausage, oatmeal and waffle. Coffee I did not care for. First breakfast was good with fried egg with crushed pepper. But the second day it was omlette with yellow cheese but probably sitting there for a while so was tough and sausage you can not cut through with a knife. Otherwise we would stay again just for the convenience. The air conditioner blower was right next to the bed so noisy all night.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Bethany H, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>We were there for two nights for a picnic and evening dinner at Gilruth center, NASA. Was only only 7 minutes drive from the hotel. A lot restaurant choices nearby. Standard hot breakfast with egg, sausage, oatmeal and waffle. Coffee I did not care for. First breakfast was good with fried egg with crushed pepper. But the second day it was omlette with yellow cheese but probably sitting there for a while so was tough and sausage you can not cut through with a knife. Otherwise we would stay again just for the convenience. The air conditioner blower was right next to the bed so noisy all night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r572335214-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572335214</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Convenient and Comfortable!</t>
+  </si>
+  <si>
+    <t>My boyfriend and I were coming to Houston for the weekend to visit NASA Space Center and go to the Galveston beach. This was in just the right location for both of those things! It was about 15 minuets from NASA and 40 minuets from Galveston plus there was plenty of places to eat near by. Teal checked us in around 3 in the morning, after driving straight from Dallas after work, so we were tired of course. She was great! We told her about our plans for the weekend, so gave us some activity info packets that included coupons for NASA, and got us checked in quickly. When we were checking out on Monday we had to leave early around 6 am, and Teal was there to wish us farewell. She had great energy no matter what time it was or how tired and slow moving we were.Our room was spacious yet cozy. Clean towels, bed, sofa, and kitchen area. It was so nice to have a larger fridge, and actual coffee cups.Overall nice place to stay! Friendly staff, convenient location, clean, quiet room.MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I were coming to Houston for the weekend to visit NASA Space Center and go to the Galveston beach. This was in just the right location for both of those things! It was about 15 minuets from NASA and 40 minuets from Galveston plus there was plenty of places to eat near by. Teal checked us in around 3 in the morning, after driving straight from Dallas after work, so we were tired of course. She was great! We told her about our plans for the weekend, so gave us some activity info packets that included coupons for NASA, and got us checked in quickly. When we were checking out on Monday we had to leave early around 6 am, and Teal was there to wish us farewell. She had great energy no matter what time it was or how tired and slow moving we were.Our room was spacious yet cozy. Clean towels, bed, sofa, and kitchen area. It was so nice to have a larger fridge, and actual coffee cups.Overall nice place to stay! Friendly staff, convenient location, clean, quiet room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r569974081-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -246,9 +339,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>My husband and I were in town for the funeral of a family member.  We arrived late at night on March 23, 2018 by a most accommodating staff.  Our room was clean, the bed very comfortable.  There was plenty of space to unpack and relax while not at the funeral home.  The kitchen in the room was very clean.  Everyone from the front counter staff to the help in the breakfast area were very friendly.  In fact, I don't know when I have ever met such nice people.  Thanks to everyone there who helped to make a sad trip bearable.  As I got further down on this page, it would not bring anything up when I pressed on the ratings.  So I will give it here.  SERVICE 5 out of 5 ... OVERALL 4 out of 5.More</t>
   </si>
   <si>
@@ -297,6 +387,39 @@
     <t>I booked this property because in it is affiliated with Marriott.  Don't be fooled like I was. This place is really low quality for a Marriott branded hotel.  The staff was very accommodating and friendly which saved this from a one star rating.  The hotel looks fine from the outside but is run down and in need of repairs on the inside.  The door handle to my room sagged and was hard to open.  The room was arranged poorly with the TV facing away from the bed on a table that blocked access to the bed.  The furniture was uncomfortable to sit on, particularly the couch.  There was no good place to put my suitcase.  Everything felt cramped.  Tiny low toilet with a smaller than normal seat where I had to twist awkwardly to reach the toilet paper.  It had water faucets that continued to run after they were turned off.  Things just felt cheap and poor quality.  The second to worst experience was the breakfast.  Poor quality food and little choice.  Example:  The fruit bowl had only one old bruised green apple in it. Hard boiled eggs smelled off and that were hours away from being spoiled, scrambled eggs were burnt and crumbly.  When I poured a cup of coffee from the pump dispenser it came with an ample supply of coffee grounds. What was the worst part of my stay at this property by far was the barking...I booked this property because in it is affiliated with Marriott.  Don't be fooled like I was. This place is really low quality for a Marriott branded hotel.  The staff was very accommodating and friendly which saved this from a one star rating.  The hotel looks fine from the outside but is run down and in need of repairs on the inside.  The door handle to my room sagged and was hard to open.  The room was arranged poorly with the TV facing away from the bed on a table that blocked access to the bed.  The furniture was uncomfortable to sit on, particularly the couch.  There was no good place to put my suitcase.  Everything felt cramped.  Tiny low toilet with a smaller than normal seat where I had to twist awkwardly to reach the toilet paper.  It had water faucets that continued to run after they were turned off.  Things just felt cheap and poor quality.  The second to worst experience was the breakfast.  Poor quality food and little choice.  Example:  The fruit bowl had only one old bruised green apple in it. Hard boiled eggs smelled off and that were hours away from being spoiled, scrambled eggs were burnt and crumbly.  When I poured a cup of coffee from the pump dispenser it came with an ample supply of coffee grounds. What was the worst part of my stay at this property by far was the barking dogs.  In the morning the barking would start.  Several dogs in separate rooms spread out down the hall barking, barking barking.  It felt like having a room at a dog kennel.   I'm not a complainer, but this property was just not a good choice.  My advise, keep looking and stay somewhere else.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r557225301-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557225301</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Nice place - Smoke smell in halld</t>
+  </si>
+  <si>
+    <t>Nice hotel but irritating smoke smell in Bldg 2 hallways. Both buildings have non smoking signs on entry doors. Breakfast was typical eggs, bacon or sausage, waffles, boiled eggs, breads, yogurts, milk, cold cereals, breads, fruits and often too thick or thin oatmeal</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r555273201-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555273201</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Easy location and great staff</t>
+  </si>
+  <si>
+    <t>We stayed here before our cruise out of Galveston.  The staff was really friendly and welcoming when we arrived late at night.  The room were typical Marriott TownePlace Suites.  It was easy to find and there are a lot of restaurants around it.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r553030958-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -312,9 +435,6 @@
     <t>Checked in fairly late (10ish), clerk seemed annoyed. I asked if they had water, he pointed to a cooler that sold bottled water. Never told me about the water cooler  15' away. Room was OK, no issues. Breakfast the next morning wasn't too appetizing. Had oatmeal and cereal. Following morning they were out of coffee and oatmeal. Went out to breakfast again.MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t>Bethany H, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded January 11, 2018</t>
   </si>
   <si>
@@ -366,6 +486,45 @@
     <t>I woke up to an unprecedented Houston snow and hoped I might be able to borrow a broom to clear my car. I didn’t have to as the incredible staff went to work and brushed off every car in the lot!  I can’t recommend this property enough</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r538935905-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538935905</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel and Staff.</t>
+  </si>
+  <si>
+    <t>Jay was our attendant, we ran into a couple of hiccups, not only did Jau go beyond the call of duty, I had two rooms that was upgraded from single rooms to 2 bedroom,  they did everything possible to accommodate us, they had issues with the elevator and  they made sure that was address, including calling the engineer after hours to make sure everything ran smooth, the rooms was extremely clean, location very good with all type of stores and restaurants around the hotel.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r520621246-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520621246</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Great host hotel</t>
+  </si>
+  <si>
+    <t>Goes out of their way to provide top notch care. Have stayed here for weeks at a time. Great service, great breakfast. Kind and caring people. Convenient location. Will stay here again for sure. Great value</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r519479637-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -384,9 +543,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Had a one-night stay before the hurricane came to Houston. The hotel has a good layout and close to a large grocery store. It has a full kitchen including cookers and full fridge. Sofa and desk is opposite the bed but you are able to watch TV from either the bed or the working area. Good for family trip and longer stay. Breakfast is about average. Close to the space center but still requires more than half an hour if you wish to walk there. They only criticism is that the bath is out of hot water but the staff was really nice and solved them immediately. So it is indeed a unpleasant trip but I still wish to give a four-star and also special compliment to the front desk and the manager.More</t>
   </si>
   <si>
@@ -426,6 +582,42 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r490889320-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490889320</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have been just 2 night in TownePlace Suites and everything was perfect. I had a little flat with chicken bathroom and 2 bedrooms. Everything​ was new, clean, comfortable and good looking. Also the staff was very nice and very helpful with me. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r483663136-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483663136</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Surprisingly Pleasant</t>
+  </si>
+  <si>
+    <t>This was my kids school trip to NASA and at the last minute they switch from Staybridge Suites @ $200 a night to TownePlace Suites for $99. I immediately thought they were being cheap and that I would hate the cheaper accommodations but I didn't. The grounds were neat and we booked online which gave instructions to print out or use app for easy check in. We printed out our forms and check in was 3 minutes tops without a line. Checkout was even easier. Staff was great. Our room was very neat and clean the furnishing were not out dated and were comfortable. This hotel only offers queen size beds so be aware. There was a full kitchen with a dishwasher, fridge, microwave ect. The bathroom was nice and clean. You can tell this is not a brand new hotel but you can also tell that this place is well maintained. The free breakfast which I normally never participate in was pretty good. There was the normal dry cereal, fruit, yogurt and pastries. They was bacon, fried eggs and a waffle station though they do need at least two waffle makers. The juice station was much appreciated. Parking is like any other hotel. The hotel is located near the Baybrook Mall and all the other fun stuff not even 5 minutes away. NASA is about 15 minutes away. Galveston 30 minutes away. My only issue was the abnormally thin...This was my kids school trip to NASA and at the last minute they switch from Staybridge Suites @ $200 a night to TownePlace Suites for $99. I immediately thought they were being cheap and that I would hate the cheaper accommodations but I didn't. The grounds were neat and we booked online which gave instructions to print out or use app for easy check in. We printed out our forms and check in was 3 minutes tops without a line. Checkout was even easier. Staff was great. Our room was very neat and clean the furnishing were not out dated and were comfortable. This hotel only offers queen size beds so be aware. There was a full kitchen with a dishwasher, fridge, microwave ect. The bathroom was nice and clean. You can tell this is not a brand new hotel but you can also tell that this place is well maintained. The free breakfast which I normally never participate in was pretty good. There was the normal dry cereal, fruit, yogurt and pastries. They was bacon, fried eggs and a waffle station though they do need at least two waffle makers. The juice station was much appreciated. Parking is like any other hotel. The hotel is located near the Baybrook Mall and all the other fun stuff not even 5 minutes away. NASA is about 15 minutes away. Galveston 30 minutes away. My only issue was the abnormally thin walls. I could tell when our upstairs neighbors made a move, every single step was heard though I couldn't hear anyone on either side of me. The wifi is crap. It's an unsecure connection with the ability to surf the web and check email which they specify but you can do nothing else on it. No Netflix people. For the price if in that particular area by necessity, we would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This was my kids school trip to NASA and at the last minute they switch from Staybridge Suites @ $200 a night to TownePlace Suites for $99. I immediately thought they were being cheap and that I would hate the cheaper accommodations but I didn't. The grounds were neat and we booked online which gave instructions to print out or use app for easy check in. We printed out our forms and check in was 3 minutes tops without a line. Checkout was even easier. Staff was great. Our room was very neat and clean the furnishing were not out dated and were comfortable. This hotel only offers queen size beds so be aware. There was a full kitchen with a dishwasher, fridge, microwave ect. The bathroom was nice and clean. You can tell this is not a brand new hotel but you can also tell that this place is well maintained. The free breakfast which I normally never participate in was pretty good. There was the normal dry cereal, fruit, yogurt and pastries. They was bacon, fried eggs and a waffle station though they do need at least two waffle makers. The juice station was much appreciated. Parking is like any other hotel. The hotel is located near the Baybrook Mall and all the other fun stuff not even 5 minutes away. NASA is about 15 minutes away. Galveston 30 minutes away. My only issue was the abnormally thin...This was my kids school trip to NASA and at the last minute they switch from Staybridge Suites @ $200 a night to TownePlace Suites for $99. I immediately thought they were being cheap and that I would hate the cheaper accommodations but I didn't. The grounds were neat and we booked online which gave instructions to print out or use app for easy check in. We printed out our forms and check in was 3 minutes tops without a line. Checkout was even easier. Staff was great. Our room was very neat and clean the furnishing were not out dated and were comfortable. This hotel only offers queen size beds so be aware. There was a full kitchen with a dishwasher, fridge, microwave ect. The bathroom was nice and clean. You can tell this is not a brand new hotel but you can also tell that this place is well maintained. The free breakfast which I normally never participate in was pretty good. There was the normal dry cereal, fruit, yogurt and pastries. They was bacon, fried eggs and a waffle station though they do need at least two waffle makers. The juice station was much appreciated. Parking is like any other hotel. The hotel is located near the Baybrook Mall and all the other fun stuff not even 5 minutes away. NASA is about 15 minutes away. Galveston 30 minutes away. My only issue was the abnormally thin walls. I could tell when our upstairs neighbors made a move, every single step was heard though I couldn't hear anyone on either side of me. The wifi is crap. It's an unsecure connection with the ability to surf the web and check email which they specify but you can do nothing else on it. No Netflix people. For the price if in that particular area by necessity, we would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r482171977-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -441,9 +633,6 @@
     <t>No complaints at all about this TownePlace Suites property. I have stayed in various marriotts over the years and sometimes they need upgrading, this property looks like it was recently upgraded and the kitchen and bathroom looked brand new. the free breakfast was as good as one can expect, staff was very friendly.</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r481381360-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -484,6 +673,42 @@
   </si>
   <si>
     <t>I generally like Towneplace Suites and this one was pretty good except that in our 2 bedroom suite one of the bedrooms was enormous while the other was so tiny we could barely move around in it. It was only wide enough for the bed and nightstands while the other room had a huge amount of room on each side of the bed and plenty of storage space. I had never seen that configuration in any other TPS. That would not have been so bad except that, unlike most other TPS 2 bedroom units, this one had only one thermostat, so, while the other couple needed to cool off their huge room, we froze trying to sleep in our tiny room with a vent the same size as the main room and other bedroom.  I ended up taping a paper bag over the vent that could not be closed so that I could get some sleep with a heavy sweater on and an extra blanket.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r473131497-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473131497</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Nice Rooms But The Staff Is What Makes It Excellent!</t>
+  </si>
+  <si>
+    <t>I stay at this location 1 to 2 nights a week and have been for the past 6 months. From the very first time, the staff was very helpful and always friendly. From anything you need in your room, or ideas of places to go eat, someone is always there to help.Having a kitchenette is great because I don't always feel like going out to eat and the grocery store is within walking distance (half a block). I usually stop there before I get to the room.The desk space is very important to me. I carry 2 laptops, a printer, and a scanner and need the space to spread them out. Unlike some rooms with a small writing desk this has a very nice desk with a pull out to give even more space to spread the work out.The mattresses on the beds allow for a good night sleep. Unlike some places where the mattresses are worn out and you feel more like you're in a hammock, these are firm but not rock hard.I would name the staff by name, but since I know all of them and I don't want to leave anyone out, I'll just say again, they are the biggest reason for the rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at this location 1 to 2 nights a week and have been for the past 6 months. From the very first time, the staff was very helpful and always friendly. From anything you need in your room, or ideas of places to go eat, someone is always there to help.Having a kitchenette is great because I don't always feel like going out to eat and the grocery store is within walking distance (half a block). I usually stop there before I get to the room.The desk space is very important to me. I carry 2 laptops, a printer, and a scanner and need the space to spread them out. Unlike some rooms with a small writing desk this has a very nice desk with a pull out to give even more space to spread the work out.The mattresses on the beds allow for a good night sleep. Unlike some places where the mattresses are worn out and you feel more like you're in a hammock, these are firm but not rock hard.I would name the staff by name, but since I know all of them and I don't want to leave anyone out, I'll just say again, they are the biggest reason for the rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r472358441-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472358441</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Great location and room was clean, fresh, and comfortable, Area is very safe.</t>
+  </si>
+  <si>
+    <t>great location and room was clean, fresh, and comfortable. Grocery Shopping was walking distance as was a few different types of restaurants. The night desk clerk was very welcoming and professional, Her name is Teal and made me feel at home. I will stay here again.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r467420451-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
@@ -502,9 +727,6 @@
 Even though the hotel was at full capacity and on a very busy street, it was very quiet &amp; comfortable. We were never able to enjoy the free continental breakfast because it was so crazy busy so having the kitchen in the room was a definite plus. The only negatives..... we booked a room with a queen bed and pull out sofa. Do NOT consider the sofa as an adequate sleeping area unless you're planning on a very young child sleeping there. It was not adequate for our 9 yr old twins. It was very hard &amp; uncomfortable (springs in your back all night). Also, the wifi is awful. It's like dial up. Our tablets wouldn't work on the wifi. Even using the computer in their business center was a joke. I was never able to print tickets from the business center computer that we needed for our trip to NASA. After trying for nearly 30 minutes, luckily the nice desk clerk allowed me to use her computer and I had them printed in literally 30 seconds! Overall,...We had a very nice stay. The hotel is in a nice, safe area and very convenient to restaurants and a good base for tourist spots like NASA, Kemah Boardwalk and San Jacinto Monument &amp; Battleship. All the staff we encountered was very nice, professional and helpful. The sweet clerk that checked us in even offered us discount tickets to NASA. Score!! Even though the hotel was at full capacity and on a very busy street, it was very quiet &amp; comfortable. We were never able to enjoy the free continental breakfast because it was so crazy busy so having the kitchen in the room was a definite plus. The only negatives..... we booked a room with a queen bed and pull out sofa. Do NOT consider the sofa as an adequate sleeping area unless you're planning on a very young child sleeping there. It was not adequate for our 9 yr old twins. It was very hard &amp; uncomfortable (springs in your back all night). Also, the wifi is awful. It's like dial up. Our tablets wouldn't work on the wifi. Even using the computer in their business center was a joke. I was never able to print tickets from the business center computer that we needed for our trip to NASA. After trying for nearly 30 minutes, luckily the nice desk clerk allowed me to use her computer and I had them printed in literally 30 seconds! Overall, we had an enjoyable stay.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>We had a very nice stay. The hotel is in a nice, safe area and very convenient to restaurants and a good base for tourist spots like NASA, Kemah Boardwalk and San Jacinto Monument &amp; Battleship. All the staff we encountered was very nice, professional and helpful. The sweet clerk that checked us in even offered us discount tickets to NASA. Score!! 
 Even though the hotel was at full capacity and on a very busy street, it was very quiet &amp; comfortable. We were never able to enjoy the free continental breakfast because it was so crazy busy so having the kitchen in the room was a definite plus. The only negatives..... we booked a room with a queen bed and pull out sofa. Do NOT consider the sofa as an adequate sleeping area unless you're planning on a very young child sleeping there. It was not adequate for our 9 yr old twins. It was very hard &amp; uncomfortable (springs in your back all night). Also, the wifi is awful. It's like dial up. Our tablets wouldn't work on the wifi. Even using the computer in their business center was a joke. I was never able to print tickets from the business center computer that we needed for our trip to NASA. After trying for nearly 30 minutes, luckily the nice desk clerk allowed me to use her computer and I had them printed in literally 30 seconds! Overall,...We had a very nice stay. The hotel is in a nice, safe area and very convenient to restaurants and a good base for tourist spots like NASA, Kemah Boardwalk and San Jacinto Monument &amp; Battleship. All the staff we encountered was very nice, professional and helpful. The sweet clerk that checked us in even offered us discount tickets to NASA. Score!! Even though the hotel was at full capacity and on a very busy street, it was very quiet &amp; comfortable. We were never able to enjoy the free continental breakfast because it was so crazy busy so having the kitchen in the room was a definite plus. The only negatives..... we booked a room with a queen bed and pull out sofa. Do NOT consider the sofa as an adequate sleeping area unless you're planning on a very young child sleeping there. It was not adequate for our 9 yr old twins. It was very hard &amp; uncomfortable (springs in your back all night). Also, the wifi is awful. It's like dial up. Our tablets wouldn't work on the wifi. Even using the computer in their business center was a joke. I was never able to print tickets from the business center computer that we needed for our trip to NASA. After trying for nearly 30 minutes, luckily the nice desk clerk allowed me to use her computer and I had them printed in literally 30 seconds! Overall, we had an enjoyable stay.More</t>
   </si>
@@ -539,6 +761,42 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r452236614-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452236614</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Good base for visit to Space Center Houston</t>
+  </si>
+  <si>
+    <t>My son and I stayed here in a two bedroom suite prior to a visit to Space Center Houston at the Johnson Space Center.Our suite was a smaller version of similar two bedroom suites we stayed in at a Residence Inn and Homeplace Suites.The hotel has two separate buildings.  Our suite had two bedrooms, one small bathroom and a small living room / kitchen area.  The living room had a sleeper sofa and a chair and ottoman, along with a TV.  The kitchen table had three seats.  There was a full kitchen.We stayed in four hotels on our trip.  This was the noisiest of the hotels.  We heard noise from the street, noise from other rooms through somewhat thin walls and noise from water pipes.  Yet I slept here better than I did in any other room.  Go figure.  My son the college student sleeps through just about everything.The bathroom was very small.  The toilet and shower were behind a door, and the sink outside was also behind a door.  The bedroom with the king bed had a large desk.The breakfast room was small, but this was by far the best breakfast we had on the trip.  Waffles and bacon made my day.I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>My son and I stayed here in a two bedroom suite prior to a visit to Space Center Houston at the Johnson Space Center.Our suite was a smaller version of similar two bedroom suites we stayed in at a Residence Inn and Homeplace Suites.The hotel has two separate buildings.  Our suite had two bedrooms, one small bathroom and a small living room / kitchen area.  The living room had a sleeper sofa and a chair and ottoman, along with a TV.  The kitchen table had three seats.  There was a full kitchen.We stayed in four hotels on our trip.  This was the noisiest of the hotels.  We heard noise from the street, noise from other rooms through somewhat thin walls and noise from water pipes.  Yet I slept here better than I did in any other room.  Go figure.  My son the college student sleeps through just about everything.The bathroom was very small.  The toilet and shower were behind a door, and the sink outside was also behind a door.  The bedroom with the king bed had a large desk.The breakfast room was small, but this was by far the best breakfast we had on the trip.  Waffles and bacon made my day.I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r450743742-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450743742</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>A comfortable area and hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband and I stayed here two times. Once just us and second with a little one. Both times it was super nice, clean and quiet. One bed room is really roomy we had a pack n play and lots of toys had still tons of room. All the agents were super nice and friendly. And the area is super quiet have a H.E.B store right behind it and tons of restaurants and other stores along the streets and NASA down the street. I would really recommend this hotel. Definitely keep on staying here. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r443643405-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -593,6 +851,42 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r423719901-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423719901</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Great Rewards Place</t>
+  </si>
+  <si>
+    <t>Near NASA and  the Kemah Boardwalk this was a great location. Our room was spacious and very clean. The gentleman at the desk was fabulous. We used reward points so it was a free stay but we were treated like paying guests.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r416519825-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416519825</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Used Hotel points for free stay and close to Kemah</t>
+  </si>
+  <si>
+    <t>Convenient from hwy. Dave at check in was very friendly and attentive. Loby looked and smelled clean and was modern with snacks to purchase.  Room was modern and super clean and included a granite kitchen w/full size frig that was super nice. Room also had a large desk area and a sofa sleeper with ottoman and tray. The bed was mostly comfortable but on the firm side. Toilet was low to the ground and bathroom small but super clean. The TV was large and bolted to the front side of the kitchen bar at waist and upper body level facing the bed, but because of the location it made it hard for my husband to see the screen OVER me because it was mounted low, also when I got out of bed to go to other parts of the room I had to move it out of the way. I could see that not having it mounted on the wall ajoined to the next door room probably makes for a quieter stay. Just truthful in my description and I wouldn't hesitate to stay here again at all! I always use reviews while searching for a hotel.  I was able to stay here free with reward points from Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Convenient from hwy. Dave at check in was very friendly and attentive. Loby looked and smelled clean and was modern with snacks to purchase.  Room was modern and super clean and included a granite kitchen w/full size frig that was super nice. Room also had a large desk area and a sofa sleeper with ottoman and tray. The bed was mostly comfortable but on the firm side. Toilet was low to the ground and bathroom small but super clean. The TV was large and bolted to the front side of the kitchen bar at waist and upper body level facing the bed, but because of the location it made it hard for my husband to see the screen OVER me because it was mounted low, also when I got out of bed to go to other parts of the room I had to move it out of the way. I could see that not having it mounted on the wall ajoined to the next door room probably makes for a quieter stay. Just truthful in my description and I wouldn't hesitate to stay here again at all! I always use reviews while searching for a hotel.  I was able to stay here free with reward points from Marriott.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r415056822-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -608,9 +902,6 @@
     <t>We stayed here for two nights and had a pleasant stay! This hotel is central to Galveston and Houston. The rooms were modern and clean. The breakfast area is a little tight. The hotel did not have any high chairs or booster seats for breakfast, which would have made our breakfast a little easier. The treadmill was inoperable, and the front desk staff offered/suggested their gym membership to us in lieu of the treadmill, which we appreciated. MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>372marceller, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded September 6, 2016</t>
   </si>
   <si>
@@ -653,6 +944,39 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r385050673-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385050673</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Great night before a cruise</t>
+  </si>
+  <si>
+    <t>We booked two rooms at this hotel to stay the night before we left on a cruise.  Just a short drive over the next morning to the Carnival Cruse Terminal.  We were given connecting rooms which were perfect for us to spread out and get ready for our departure the next day.  Front desk staff were courteous and helpful, offering many suggestions for possible restaurants.  Rooms contained a comfy king size bed and each room had pull out hide-a-beds for the kids. Grocery store next door, and plenty of restaurants nearby.  Close drive to places like Michaels and Barnes &amp; Noble.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r383181327-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383181327</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Super modern</t>
+  </si>
+  <si>
+    <t>It was only a one night stay as we are on a roadtrip.Great spacious modern studio.Nice renovated rooms. Good breakfast. They had soya milk! Thank you!!!I will definitely go back again. Staff was nice and friendly.Thank you.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r382335721-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -668,9 +992,6 @@
     <t>Clean hotel with modern conveniences.  The room included a well-stocked kitchen with dishwasher, stovetop, microwave and frig. The pool is on the small side so it may be crowded on busy days.  My kids enjoyed it none of the less.  Only issue was that the lotion container was used and half empty.</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r380027532-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -704,6 +1025,48 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r369979160-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369979160</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Nice place, friendly and courteous staff</t>
+  </si>
+  <si>
+    <t>Stayed a couple nights. Check in was quick and hassle free. Room was nice, although with a slightly weird smell which refused to go away.  Breakfast was usual if a little basic, but was fine for us. Overall a nice place that I'd be happy to would recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r363756908-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363756908</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Overbooking transfer Experience to Towneplace Suites*</t>
+  </si>
+  <si>
+    <t>Original Hotel Was overbooked and I was transferred to TownePlace Suites.Coming to this hotel my wife and I were already upset since it wasn't what we originally booked. Check In time was pretty quick and easy. Front Desk agent was polite and helpfulParking is Free- We were given an early check in after requesting for one.So Far so Good.We get to our room, initially for a 2 bedroom suite it felt small to us from the usual that we stay at, however as the time went on it grew on us. It felt a little more comfy and by the second night it felt almost like our own apartment  with the kids being able to move around and I was able to still play fight with them which is key on our trips. To be honest and brief- It was better than we expected and at the end of the day impressed us when we were looking to be disappointed and you cant complain on that.  Thank You Towneplace Suites for being a Great secondary option Hotel but one we surely will consider next time we stay in Clear Lake.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Marcelle R, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Original Hotel Was overbooked and I was transferred to TownePlace Suites.Coming to this hotel my wife and I were already upset since it wasn't what we originally booked. Check In time was pretty quick and easy. Front Desk agent was polite and helpfulParking is Free- We were given an early check in after requesting for one.So Far so Good.We get to our room, initially for a 2 bedroom suite it felt small to us from the usual that we stay at, however as the time went on it grew on us. It felt a little more comfy and by the second night it felt almost like our own apartment  with the kids being able to move around and I was able to still play fight with them which is key on our trips. To be honest and brief- It was better than we expected and at the end of the day impressed us when we were looking to be disappointed and you cant complain on that.  Thank You Towneplace Suites for being a Great secondary option Hotel but one we surely will consider next time we stay in Clear Lake.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r361758108-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -764,6 +1127,48 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r346459901-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346459901</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Good for the scope of my stay</t>
+  </si>
+  <si>
+    <t>I found it comfortable and practical, with a small kitchen with all the appliance needed.Bathroom clean an correct, only missing: the bidet! Only the lighting is quite poor, and I had some difficulties to set the AC. WiFi is free, but not always up to the standard.People at reception helpful and kind. Breakfast is correct, I will say acceptable. Only the elevator is incredibly slow. Overall I enjoy my stay, and should I come back, I will ask my company to book me there.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r345977828-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345977828</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Housekeeping Needs To Speak English</t>
+  </si>
+  <si>
+    <t>Stayed about 29 days, that was a harsh run. The front desk clerks were awesome but Housekeeping was something else. Thank goodness I could speak a little Spanish.. Since working night shift they couldn't clean the room all the time. Granted there was one girl that gave me hard time if I asked for towels. She should be lucky I bought cleaning supplies , that I cleaned my own suite. I even went as further to go get the vacuum from the front desk to clean my own room. Nice area near Grocery store, Night Life and Restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marcelle R, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2016</t>
+  </si>
+  <si>
+    <t>Stayed about 29 days, that was a harsh run. The front desk clerks were awesome but Housekeeping was something else. Thank goodness I could speak a little Spanish.. Since working night shift they couldn't clean the room all the time. Granted there was one girl that gave me hard time if I asked for towels. She should be lucky I bought cleaning supplies , that I cleaned my own suite. I even went as further to go get the vacuum from the front desk to clean my own room. Nice area near Grocery store, Night Life and Restaurants.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r342911327-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -777,9 +1182,6 @@
   </si>
   <si>
     <t>I stayed here 5 nights in room 314 and had no issues. The room heating and cooling system was one of the best features as the temperatures outside forced me to switch between them.  The room was smaller than Residence Inn rooms but no less comfortable.  The kitchen was small but had all the right appliances. Room appearance was clean and inviting with a window looking out onto the parking lot.Drawer and hanger space was perfect and the desk was big enough for me to do my work.  Lighting was a bit odd as there was no lamp behind the sofa. Also the TV was weirdly positioned so that there was no way to watch it in bed. You are forced to go onto the sofa to watch.The rooms are not soundproof and you can hear when people talk in the hall or are walking down the stairs next to the room. Luckily the hotel was lightly occupied on my floor. This is a 3 floor hotel and the elevator was incredibly slow.The housekeepers did not speak English but then that is almost normal now. Breakfast was similar to Residnce Inn but scaled down a little. Bananas appeared sometimes, otherwise not. The staff was always willing to help and I enjoyed my stay very much and am planning to return next month.MoreShow less</t>
-  </si>
-  <si>
-    <t>January 2016</t>
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
@@ -830,6 +1232,39 @@
   </si>
   <si>
     <t>Oh my goodness, Kristy Wamsley, you ROCK! In trying to book a room for a seminar that we are sending our new hire to at the 525 Bay Area Blvd. location, we were faced with a cost of $219 for two nights and $250 for the third night. In calling the other location at 1050 Bay Area Blvd. (just 5 blocks away), I was fortunate enough to speak with Kristy who was able to locate a room for us for $124 a night! Whoop, whoop, a big saving for our company. Also, she told us about a corporate account that we may be able to set up and she is passing along our information to the corporate sales person who will be contacting us tomorrow. What a treasure the Marriott corporation has in this young lady. KUDOS to the human resource person that hired Kristy, as it is rare to actually find an employee that is truly interested in their job and really shows customer support. Thanks for all of your help Kristy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r324766464-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324766464</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Friendly Staff, Nice Hotel, would stay again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was here for a week. Hotel is quite and clean. What really made the stay is the Staff. Kristy in particular was awesome! She made the stay enjoyable with her great customer service and was extremely helpful and friendly. I wish more guest service personal had her demeanor and where as good at their jobs as she is. Keep up the good work!!! Would defiantly stay here again.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r313073688-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313073688</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Good room</t>
+  </si>
+  <si>
+    <t>The room was a basic room but has a kitchenette.  It is near a couple grocery stores and very near the space center.  It is off I-45 a bit but worked well for us the night before the cruise.  We had a 2 bedroom suite and the only complaint was that there is only 1 bathroom (which we knew about ahead of time).</t>
+  </si>
+  <si>
+    <t>September 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r310636918-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
@@ -850,9 +1285,6 @@
 On my last night there, I returned to the room to the very heavy chemical smell from sort of construction work being done upstairs.  It was Labor Day weekend and the hotel was fully booked so they would not offer anything else.  "Everywhere else is...I booked this room for a little less than a week at the last minute.  Rate was reasonably competitive for the type of room, but not by any means a steal or cheap.In the first room I was given, there was no hot water.  So my room was changed.  The next day I discovered that my key would not work;  upon checking at the desk, I was told (this is a direct quote) "We were wondering who was in that room.  Guess now we know."   When I asked to confirm there was no issue with my belongings or anything moved, the response was "probably not".  Needless to say, I was not pleased.Turns out also that housekeeping had installed one of those plug in air fresheners, and the room was overpoweringly saturated with the smell.  All the clerk would offer was to open the window (ground floor, it would only open 2", and you certainly wouldn't want to leave it open if you weren't in the room as it opened onto an adjoining parking lot.)  Makes you wonder what housekeeping was trying to cover up;  the room was okay clean, but certainly not spotless.On my last night there, I returned to the room to the very heavy chemical smell from sort of construction work being done upstairs.  It was Labor Day weekend and the hotel was fully booked so they would not offer anything else.  "Everywhere else is booked, too."  The clerk said he'd check with the manager in the morning about some kind of compensation;  I received nothing, not even an apology -- much less some compensation, like a few bucks off the bill.Bottom line is that I would not recommend this place unless you're stuck.  What really struck me about my experience was the lack of caring on the part of most of the staff.  (The clerk who checked me in, and dealt with the hot water issue was apologetic and as helpful as can be, notwithstanding that he also seemed to have not recorded my change in rooms.)MoreShow less</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>I booked this room for a little less than a week at the last minute.  Rate was reasonably competitive for the type of room, but not by any means a steal or cheap.
 In the first room I was given, there was no hot water.  So my room was changed.  The next day I discovered that my key would not work;  upon checking at the desk, I was told (this is a direct quote) "We were wondering who was in that room.  Guess now we know."   When I asked to confirm there was no issue with my belongings or anything moved, the response was "probably not".  Needless to say, I was not pleased.
 Turns out also that housekeeping had installed one of those plug in air fresheners, and the room was overpoweringly saturated with the smell.  All the clerk would offer was to open the window (ground floor, it would only open 2", and you certainly wouldn't want to leave it open if you weren't in the room as it opened onto an adjoining parking lot.)  Makes you wonder what housekeeping was trying to cover up;  the room was okay clean, but certainly not spotless.
@@ -904,6 +1336,51 @@
     <t>My wife and I stayed here one night while visiting family in Clear Lake. The first and major problem with this site, is the lack of parking. We couldn't find a spot anywhere and were forced to park in an adjacent lot next to a currently empty office building (at the advice of the front desk staff). I am not sure what they will do when the building is no longer empty and having to leave our car somewhere else was highly concerning. Also, this place is in need of a little TLC. In the building we stayed in, the carpets were disgustingly old, stained and dirty, and the base board molding was either falling off, or completely missing in spots. The actual rooms are ok but a bit weird. It's really a poor layout for a suite. The TV is mounted on a half-wall that separates the kitchen from the bed area. You can then move the TV around to face the couch or the bed. I guess it works, but not exactly ideal. The room overall was ok for just an overnight, where you are just there to sleep. If you needed a place to stay for multiple nights or expect some functionality out of your room,  I would look elsewhere. The breakfast was typical and we really had no other complaints. Other than asking about the lack of parking, we really had no other interaction with the...My wife and I stayed here one night while visiting family in Clear Lake. The first and major problem with this site, is the lack of parking. We couldn't find a spot anywhere and were forced to park in an adjacent lot next to a currently empty office building (at the advice of the front desk staff). I am not sure what they will do when the building is no longer empty and having to leave our car somewhere else was highly concerning. Also, this place is in need of a little TLC. In the building we stayed in, the carpets were disgustingly old, stained and dirty, and the base board molding was either falling off, or completely missing in spots. The actual rooms are ok but a bit weird. It's really a poor layout for a suite. The TV is mounted on a half-wall that separates the kitchen from the bed area. You can then move the TV around to face the couch or the bed. I guess it works, but not exactly ideal. The room overall was ok for just an overnight, where you are just there to sleep. If you needed a place to stay for multiple nights or expect some functionality out of your room,  I would look elsewhere. The breakfast was typical and we really had no other complaints. Other than asking about the lack of parking, we really had no other interaction with the desk staff. I will say the cleaning crew does not seem to speak a lick of english. Not a huge problem, but did cause some awkwardness. We would not stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r292317513-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292317513</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Lots of issues but the tried hard to fix</t>
+  </si>
+  <si>
+    <t>This is a very hard review to write. There were lots of issues here and the staff was very nice and fixed the issues, but issues should have never happened. Reserved a 2 bedroom suite so our family could stay together and sit in room in chairs and on sofa and visit. We arrived and notified that our room would not be available due to renovations. They told us that they had moved us to 2 queen studio rooms(bed with sofa bed) which are just like any hotel room(with a kitchen) that you can get anywhere. After complaining enough was changed to one bedroom(no dining tables or chairs) and one studio but 4 beds totAl so I agreed. On the way to rooms, couldn't get down hallways due to boxes in hall. Came back that evening and no parking available due to renovations(20 to 30 spots lost to softness sitting in parking lot) and had to park off property. Came back next afternoon and sofa bed was moved out of room. Told front desk and was told that they were still working(even though I informed they aren't) and would have it replaced in an hour. When called back at 830 was informed I was right and they were gone. No rollaway beds or extra rooms available. They did get me a room at staybridge suites for the night. It was after noon the next day before it was returned. The...This is a very hard review to write. There were lots of issues here and the staff was very nice and fixed the issues, but issues should have never happened. Reserved a 2 bedroom suite so our family could stay together and sit in room in chairs and on sofa and visit. We arrived and notified that our room would not be available due to renovations. They told us that they had moved us to 2 queen studio rooms(bed with sofa bed) which are just like any hotel room(with a kitchen) that you can get anywhere. After complaining enough was changed to one bedroom(no dining tables or chairs) and one studio but 4 beds totAl so I agreed. On the way to rooms, couldn't get down hallways due to boxes in hall. Came back that evening and no parking available due to renovations(20 to 30 spots lost to softness sitting in parking lot) and had to park off property. Came back next afternoon and sofa bed was moved out of room. Told front desk and was told that they were still working(even though I informed they aren't) and would have it replaced in an hour. When called back at 830 was informed I was right and they were gone. No rollaway beds or extra rooms available. They did get me a room at staybridge suites for the night. It was after noon the next day before it was returned. The evenings had people sitting in parking area drinking beer(i believe these were off duty renovation employees). If this was a cheap motel I would understand but this is a Marriott property and expect more from them. After every issue the property handled it, but issues should not have happened. Kinda like when someone runs into your car in an accident and then gets your car fixed. Just an inconvenience that shouldn't happen when paying $150 a night. General manager did send email stated they were going to comp the entire charge but only refunded one of the 3 nights we were there. If you have a choice, Staybridge suites is down the street and must nicer and had no issues. The GodfatherMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This is a very hard review to write. There were lots of issues here and the staff was very nice and fixed the issues, but issues should have never happened. Reserved a 2 bedroom suite so our family could stay together and sit in room in chairs and on sofa and visit. We arrived and notified that our room would not be available due to renovations. They told us that they had moved us to 2 queen studio rooms(bed with sofa bed) which are just like any hotel room(with a kitchen) that you can get anywhere. After complaining enough was changed to one bedroom(no dining tables or chairs) and one studio but 4 beds totAl so I agreed. On the way to rooms, couldn't get down hallways due to boxes in hall. Came back that evening and no parking available due to renovations(20 to 30 spots lost to softness sitting in parking lot) and had to park off property. Came back next afternoon and sofa bed was moved out of room. Told front desk and was told that they were still working(even though I informed they aren't) and would have it replaced in an hour. When called back at 830 was informed I was right and they were gone. No rollaway beds or extra rooms available. They did get me a room at staybridge suites for the night. It was after noon the next day before it was returned. The...This is a very hard review to write. There were lots of issues here and the staff was very nice and fixed the issues, but issues should have never happened. Reserved a 2 bedroom suite so our family could stay together and sit in room in chairs and on sofa and visit. We arrived and notified that our room would not be available due to renovations. They told us that they had moved us to 2 queen studio rooms(bed with sofa bed) which are just like any hotel room(with a kitchen) that you can get anywhere. After complaining enough was changed to one bedroom(no dining tables or chairs) and one studio but 4 beds totAl so I agreed. On the way to rooms, couldn't get down hallways due to boxes in hall. Came back that evening and no parking available due to renovations(20 to 30 spots lost to softness sitting in parking lot) and had to park off property. Came back next afternoon and sofa bed was moved out of room. Told front desk and was told that they were still working(even though I informed they aren't) and would have it replaced in an hour. When called back at 830 was informed I was right and they were gone. No rollaway beds or extra rooms available. They did get me a room at staybridge suites for the night. It was after noon the next day before it was returned. The evenings had people sitting in parking area drinking beer(i believe these were off duty renovation employees). If this was a cheap motel I would understand but this is a Marriott property and expect more from them. After every issue the property handled it, but issues should not have happened. Kinda like when someone runs into your car in an accident and then gets your car fixed. Just an inconvenience that shouldn't happen when paying $150 a night. General manager did send email stated they were going to comp the entire charge but only refunded one of the 3 nights we were there. If you have a choice, Staybridge suites is down the street and must nicer and had no issues. The GodfatherMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r290768575-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290768575</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Much better than I thought</t>
+  </si>
+  <si>
+    <t>Yes the hotel is under renovations, but it did not effect our stay at all.I guess we were in an updated room, as it was nice and clean.We were in the 2 bedroom suit, which was nice and big.Hotel was near the space center where we spent the entire day.Having a full kitchen is always a plus.Staff was nice and overall a very good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marcelle R, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Yes the hotel is under renovations, but it did not effect our stay at all.I guess we were in an updated room, as it was nice and clean.We were in the 2 bedroom suit, which was nice and big.Hotel was near the space center where we spent the entire day.Having a full kitchen is always a plus.Staff was nice and overall a very good stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r270254345-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -955,6 +1432,61 @@
     <t>I stayed in the older area that had not yet been renovated.  Furniture was tired, out dated.  Staff were very friendly and helpful.  Good breakfast and staff was friendly, eager to assist. Best of luck with renovation.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r261959374-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261959374</t>
+  </si>
+  <si>
+    <t>03/26/2015</t>
+  </si>
+  <si>
+    <t>Too BAD So SAD!</t>
+  </si>
+  <si>
+    <t>Ugh.  That's the best word to describe the Towneplace Suites on Bay Area Boulevard in Houston, Texas (Clear Lake City).  
+This is so different from the last two experiences that we have had.  
+Just to be clear, I don't always expect facilities to be brand new, but I always and should expect that they are clean and in good working condition.  This is NOT what I found at this location...and though we used points for this stay, I expect a full refund of those points.
+1.  Check in was fine...though there was a lot of commotion in the lobby with maintenance workers painting etc.  That's OK...at least they are keeping the place nice.
+2.  Upon entering the building across from the building where the front office is, we experienced an odor...sort of foul smell that covered up by air freshener.
+3.  Upon entering the room there was a waft of air freshener so strong you could practically see it.  Not a good sign. What are they covering up?
+4. In general the room appeared clean, until you opened the bathroom door.  There was what appeared to be dirt on the floor (hopefully stains).  The bathroom corners were dirty and the bathroom in general just didn't "feel" clean.
+5. Similar to the bathroom there were stains on the floor in the kitchenette as well.  
+6.  As we were preparing the room for sleeping, we opened the small sleeper sofa where my...Ugh.  That's the best word to describe the Towneplace Suites on Bay Area Boulevard in Houston, Texas (Clear Lake City).  This is so different from the last two experiences that we have had.  Just to be clear, I don't always expect facilities to be brand new, but I always and should expect that they are clean and in good working condition.  This is NOT what I found at this location...and though we used points for this stay, I expect a full refund of those points.1.  Check in was fine...though there was a lot of commotion in the lobby with maintenance workers painting etc.  That's OK...at least they are keeping the place nice.2.  Upon entering the building across from the building where the front office is, we experienced an odor...sort of foul smell that covered up by air freshener.3.  Upon entering the room there was a waft of air freshener so strong you could practically see it.  Not a good sign. What are they covering up?4. In general the room appeared clean, until you opened the bathroom door.  There was what appeared to be dirt on the floor (hopefully stains).  The bathroom corners were dirty and the bathroom in general just didn't "feel" clean.5. Similar to the bathroom there were stains on the floor in the kitchenette as well.  6.  As we were preparing the room for sleeping, we opened the small sleeper sofa where my son was to sleep and it was so dirty that we immediately folded it back up.  We then made the bed on the unopened sofa...which is about 5 feet long...my son is 5'10'. 7.  We found that there was water coming from UNDERNEATH the tub...no one had showered. The night manager was called and looked at it, but couldn't do anything about it and there were no other rooms.  Several towels were sopping wet...and that combined with what we felt was a dirty floor was a really disgusting situation.8.  The milk at breakfast was passed its expiration date and had to be replaced.All in all, the staff was pleasant...although while in the lobby in the morning, I overheard the desk clerk tell someone that he had forgotten to make wake up calls...and made them more than 20 minutes late.We were staying on points and were given back the points for this particular stay.Supposedly, this hotel is being renovated and therefore, MAYBE it will get better.  I cannot and will not recommend this hotel nor will I stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Ugh.  That's the best word to describe the Towneplace Suites on Bay Area Boulevard in Houston, Texas (Clear Lake City).  
+This is so different from the last two experiences that we have had.  
+Just to be clear, I don't always expect facilities to be brand new, but I always and should expect that they are clean and in good working condition.  This is NOT what I found at this location...and though we used points for this stay, I expect a full refund of those points.
+1.  Check in was fine...though there was a lot of commotion in the lobby with maintenance workers painting etc.  That's OK...at least they are keeping the place nice.
+2.  Upon entering the building across from the building where the front office is, we experienced an odor...sort of foul smell that covered up by air freshener.
+3.  Upon entering the room there was a waft of air freshener so strong you could practically see it.  Not a good sign. What are they covering up?
+4. In general the room appeared clean, until you opened the bathroom door.  There was what appeared to be dirt on the floor (hopefully stains).  The bathroom corners were dirty and the bathroom in general just didn't "feel" clean.
+5. Similar to the bathroom there were stains on the floor in the kitchenette as well.  
+6.  As we were preparing the room for sleeping, we opened the small sleeper sofa where my...Ugh.  That's the best word to describe the Towneplace Suites on Bay Area Boulevard in Houston, Texas (Clear Lake City).  This is so different from the last two experiences that we have had.  Just to be clear, I don't always expect facilities to be brand new, but I always and should expect that they are clean and in good working condition.  This is NOT what I found at this location...and though we used points for this stay, I expect a full refund of those points.1.  Check in was fine...though there was a lot of commotion in the lobby with maintenance workers painting etc.  That's OK...at least they are keeping the place nice.2.  Upon entering the building across from the building where the front office is, we experienced an odor...sort of foul smell that covered up by air freshener.3.  Upon entering the room there was a waft of air freshener so strong you could practically see it.  Not a good sign. What are they covering up?4. In general the room appeared clean, until you opened the bathroom door.  There was what appeared to be dirt on the floor (hopefully stains).  The bathroom corners were dirty and the bathroom in general just didn't "feel" clean.5. Similar to the bathroom there were stains on the floor in the kitchenette as well.  6.  As we were preparing the room for sleeping, we opened the small sleeper sofa where my son was to sleep and it was so dirty that we immediately folded it back up.  We then made the bed on the unopened sofa...which is about 5 feet long...my son is 5'10'. 7.  We found that there was water coming from UNDERNEATH the tub...no one had showered. The night manager was called and looked at it, but couldn't do anything about it and there were no other rooms.  Several towels were sopping wet...and that combined with what we felt was a dirty floor was a really disgusting situation.8.  The milk at breakfast was passed its expiration date and had to be replaced.All in all, the staff was pleasant...although while in the lobby in the morning, I overheard the desk clerk tell someone that he had forgotten to make wake up calls...and made them more than 20 minutes late.We were staying on points and were given back the points for this particular stay.Supposedly, this hotel is being renovated and therefore, MAYBE it will get better.  I cannot and will not recommend this hotel nor will I stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r261064461-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261064461</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Great hotel, great location</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel twice now, while visiting our daughter in Webster Texas.  We like the bright and cheerful colors of the lobby, breakfast area and rooms.  This time, there was a little construction going on, updating some of the rooms, but it did not interfere with our stay.  Our room was a 2 bedroom suite, with full kitchen, 3 TVs, and two roomy bedrooms.  The only thing I can say negatively, was that the TVs in the bedrooms were on the dressers, and completely covered up the only mirrors in the rooms.  There were two mirrors in the bathroom, but when that was occupied, the others of us were out of luck.  Hopefully this will be something taken care of in the renovation.  Other than that, we love it here and will be back.  Staff easy to work with and always friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel twice now, while visiting our daughter in Webster Texas.  We like the bright and cheerful colors of the lobby, breakfast area and rooms.  This time, there was a little construction going on, updating some of the rooms, but it did not interfere with our stay.  Our room was a 2 bedroom suite, with full kitchen, 3 TVs, and two roomy bedrooms.  The only thing I can say negatively, was that the TVs in the bedrooms were on the dressers, and completely covered up the only mirrors in the rooms.  There were two mirrors in the bathroom, but when that was occupied, the others of us were out of luck.  Hopefully this will be something taken care of in the renovation.  Other than that, we love it here and will be back.  Staff easy to work with and always friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r258478017-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -970,9 +1502,6 @@
     <t>The hotel is a bit worn out, the sofa sleeper in our room was torn and tattered and the furniture looked old.  The breakfast was very simple but good enough, although there was no place to sit because a few others got there before us.  But while making the reservation, I spoke with Jewell and she was just terrific.  She made sure we were happy with the room size and we really appreciated that... I can't think of another hotel that does that! Thank you Jewell!</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r240325654-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -1027,6 +1556,51 @@
     <t>The 2 room suite is very spacious. The musty odor is very hard to get over and the carpet felt wet. The odor was worse in the main building rooms than the building across the parking lot, but it would be difficult to stay for an extended time. We were there one night.  Décor in common areas is updated and nice.  Great breakfast and very nice staff. Good location to Kemah and cruise ship terminal in Galveston. I will not stay there again, though.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r224582013-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224582013</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Fantastic customer service</t>
+  </si>
+  <si>
+    <t>Arrived late in the evening and was greeted with a smile.  The lobby was very clean.  Our room had everything needed for a two day stay and they brought a roll away so that the kids wouldn't have to share.  Breakfast was good.   The bed is very comfortable.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r214152890-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214152890</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Nice place for a quick stay</t>
+  </si>
+  <si>
+    <t>Was a little nervous when we booked this hotel based on reviews... but we had a free night with a Marriott chain, we needed a separate bedroom suite, and it was the only one with availability close to Galveston.  All in all, it was good... the hotel staff was very friendly and quick.  Service was great.  The room was clean and nice... the only issue we had was the ac in the main room was not working.  The bedroom ac did, and it was kind of a rainy and cooler evening when we got there, so the room was comfortable.  I never reported it as we were checking out early in the morning and we did not want to move rooms or deal with a maintenance guy in the room.  The area felt safe, and there are a ton of restaurants and places to grab stuff if you need it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Erinn V, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Was a little nervous when we booked this hotel based on reviews... but we had a free night with a Marriott chain, we needed a separate bedroom suite, and it was the only one with availability close to Galveston.  All in all, it was good... the hotel staff was very friendly and quick.  Service was great.  The room was clean and nice... the only issue we had was the ac in the main room was not working.  The bedroom ac did, and it was kind of a rainy and cooler evening when we got there, so the room was comfortable.  I never reported it as we were checking out early in the morning and we did not want to move rooms or deal with a maintenance guy in the room.  The area felt safe, and there are a ton of restaurants and places to grab stuff if you need it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r213883645-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -1040,12 +1614,6 @@
   </si>
   <si>
     <t>Stayed at this establishment for three nights for my brothers wedding. The rooms were clean, the beds were amazing, the kitchen was workable, the tv was big enough for all to see. What's not to love? The employees were polite and kind, and everyone who leaves a bad review, needs a reality check! You're so spoiled!!! When it rained did you get wet? Nope, you had a roof over your head. When you needed water to brush your teeth or take a shower there was water! Get a grip people. Didn't know you wiped your butt with golden toilet paper!!  This place was awesome!! Will be back to enjoy another time. Highly recommend!!!  MoreShow less</t>
-  </si>
-  <si>
-    <t>Erinn V, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded July 11, 2014</t>
-  </si>
-  <si>
-    <t>Responded July 11, 2014</t>
   </si>
   <si>
     <t>Stayed at this establishment for three nights for my brothers wedding. The rooms were clean, the beds were amazing, the kitchen was workable, the tv was big enough for all to see. What's not to love? The employees were polite and kind, and everyone who leaves a bad review, needs a reality check! You're so spoiled!!! When it rained did you get wet? Nope, you had a roof over your head. When you needed water to brush your teeth or take a shower there was water! Get a grip people. Didn't know you wiped your butt with golden toilet paper!!  This place was awesome!! Will be back to enjoy another time. Highly recommend!!!  More</t>
@@ -1074,9 +1642,6 @@
 Fifth day-  maintenance staff came again, he opened the shower tab, and was not able to fit it back. So the water...I stayed there for 4 weeks. The first week started very well, the staff is very polite, and responsive. Rooms were average looking, little old, but clean and well maintained. Room service was on daily basis, and out of 4 staff in room service, 3 were excellent, 1 was average.The bad experience started with the "Hot water" in shower.  There was no way to get the cold water. You take shower in burning hot water, or do not take shower.  When you need to go to office, do you consider it an emergency or not?Raised complaint first day - front desk noted down the request very politely - but no action was taken.Raised complaint Second day - front desk noted down the request very politely - but no action was taken.Raised complaint Third day - front desk took it very politely - but no action was taken.Forth day I was in towel getting late for office - asked to send someone immediately - maintenance staff took half hour to reach my room, and tried to fix it and said he can't fix it.  He gave me a bucket to fill it from wash basin, and use it. I am so thankful for Bucket, at least I could take bath, and go to office. Fifth day-  maintenance staff came again, he opened the shower tab, and was not able to fit it back. So the water was running, whole night, now you don't have hot water as well. You want to take bath ...Use bucket :-)six day - Water still running whole night, fortunately we got used to sleeping in sound of running water. seventh day - Water still running whole night. Eighth day - Water still running whole night. Use bucket to bath. :-)By the way, I was on business visit, and I was paying the full price, my booking was not with some coupon, or bid.  Also I am Marriott Elitte member. So I know, what should I expect from a Marriott Hotel. During this one week, they didn't had any room available to shift on the same floor. The floor had at least 30 rooms, and it is hard to believe that for one week, no body checked out from those 30 rooms. Either they were saying truth, and no body checked out whole week, or they never took the problem seriously, and didn't gave me priority over new coming guest.  Why I wasn't paid attention?  only one reason.. because I am a calm guy, and never shouted at front desk, so they never took the problem seriously. After seven days, when I explained the situation in detail, front desk said, they never knew, that the problem was so serious.Perhaps they are so used to with the customer shouting at them, when I was talking politely, they never took it seriously. Next day they shifted me to adjacent room.  Rest all was good. Front desk was always easy, and polite. If you are a calm guy and don't shout on people, and you think taking bath is necessary, please remember to ask for a bucket when you check in. It will make your life so easy.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>I stayed there for 4 weeks. The first week started very well, the staff is very polite, and responsive. 
 Rooms were average looking, little old, but clean and well maintained. 
 Room service was on daily basis, and out of 4 staff in room service, 3 were excellent, 1 was average.
@@ -1109,6 +1674,66 @@
     <t>My family stayed in a 2 bedroom suite, which seemed to be a great value for the space.  The first thing you notice when you walk in the room is the horrible smell.  A very dirty, musty smell.  The carpet and furniture were torn and very dingy.  If we hadn't traveled so far and got there so late, I would have walked out and gone to another hotel.  The rooms next to us and below were very loud until about midnight.  The only positive I can say is that the bed was soft and comfortable.  Overall, I would not stay here again and I would pay more to stay someplace cleaner.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r203468677-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203468677</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Not up to Standards</t>
+  </si>
+  <si>
+    <t>Lovely Lovely 'can do' staff but the hotel has changed since our last stay several years ago. I am not happy about writing this review and it's not my norm to do so, but gosh, the fixes are so easy that I'm surprised they haven't addressed them.First impression was good but the pool is right by the front entry door and it was all askew. Makes one wonder what is behind that door. Staff welcoming us couldn't have been nicer and more accommodating. Kudos!New lobby is very nice, buildings were very clean in the hallways. Room was basic and my first thought, this would not work well for a business traveler as there was nowhere to put things. One desk/chair, one coffee table and a sofa. Not suitable for more than one person in the room as you had to use the floor for your personal things. One night stand was missing a lamp.Bathroom fan was unbearable. Just unbearable. The towels are a shame. Thin and so gray that it felt dirty using them. Bed was very comfy! Linens good. Ample pillows.I have to go back to the kudos, your staff are well trained but the attention to detail here is lacking. Like I said. the fixes are so simple that it's a real shame to have to call attention to these things.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Erinn V, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded May 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2014</t>
+  </si>
+  <si>
+    <t>Lovely Lovely 'can do' staff but the hotel has changed since our last stay several years ago. I am not happy about writing this review and it's not my norm to do so, but gosh, the fixes are so easy that I'm surprised they haven't addressed them.First impression was good but the pool is right by the front entry door and it was all askew. Makes one wonder what is behind that door. Staff welcoming us couldn't have been nicer and more accommodating. Kudos!New lobby is very nice, buildings were very clean in the hallways. Room was basic and my first thought, this would not work well for a business traveler as there was nowhere to put things. One desk/chair, one coffee table and a sofa. Not suitable for more than one person in the room as you had to use the floor for your personal things. One night stand was missing a lamp.Bathroom fan was unbearable. Just unbearable. The towels are a shame. Thin and so gray that it felt dirty using them. Bed was very comfy! Linens good. Ample pillows.I have to go back to the kudos, your staff are well trained but the attention to detail here is lacking. Like I said. the fixes are so simple that it's a real shame to have to call attention to these things.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r200956343-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200956343</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Not Up To Marriott Standards</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel with 3 other couples.  We booked 2 bedroom suites next to each other. When we checked into the hotel the staff was busy snacking on pizza and did not seem real interested in checking us in.  Finally, we got to our room which on the positive side was clean but the furniture and carpeting were pretty old and one chair had a big rip in the seat.  Checking out the cabinets for glasses we found only 1 glass.  Calling the desk we were told a housekeeper would bring us some glasses.  The housekeeper who didn't speak much English brought us a small 4 ounce glass and said there wasn't any more.  We drank our dinner drinks out of coffee cups.  Again the office said they would bring us glasses but an employee showed up with only 1 8 ounce glass.  Our friends in the other room had only 3 glasses.  We were only staying 1 night but I think that anyone coming for a longer stay would find they would have to go out and buy things to supply the room while they were there.
+The swimming pool is right in the parking lot by the front office door and is a busy area with cars and people coming and going.
+On the positive side. the room was very quiet and we did get a good night's sleep.
+This just did not seem like a...We stayed at this hotel with 3 other couples.  We booked 2 bedroom suites next to each other. When we checked into the hotel the staff was busy snacking on pizza and did not seem real interested in checking us in.  Finally, we got to our room which on the positive side was clean but the furniture and carpeting were pretty old and one chair had a big rip in the seat.  Checking out the cabinets for glasses we found only 1 glass.  Calling the desk we were told a housekeeper would bring us some glasses.  The housekeeper who didn't speak much English brought us a small 4 ounce glass and said there wasn't any more.  We drank our dinner drinks out of coffee cups.  Again the office said they would bring us glasses but an employee showed up with only 1 8 ounce glass.  Our friends in the other room had only 3 glasses.  We were only staying 1 night but I think that anyone coming for a longer stay would find they would have to go out and buy things to supply the room while they were there.The swimming pool is right in the parking lot by the front office door and is a busy area with cars and people coming and going.On the positive side. the room was very quiet and we did get a good night's sleep.This just did not seem like a Marriott but more like a Motel 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Erinn V, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded April 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel with 3 other couples.  We booked 2 bedroom suites next to each other. When we checked into the hotel the staff was busy snacking on pizza and did not seem real interested in checking us in.  Finally, we got to our room which on the positive side was clean but the furniture and carpeting were pretty old and one chair had a big rip in the seat.  Checking out the cabinets for glasses we found only 1 glass.  Calling the desk we were told a housekeeper would bring us some glasses.  The housekeeper who didn't speak much English brought us a small 4 ounce glass and said there wasn't any more.  We drank our dinner drinks out of coffee cups.  Again the office said they would bring us glasses but an employee showed up with only 1 8 ounce glass.  Our friends in the other room had only 3 glasses.  We were only staying 1 night but I think that anyone coming for a longer stay would find they would have to go out and buy things to supply the room while they were there.
+The swimming pool is right in the parking lot by the front office door and is a busy area with cars and people coming and going.
+On the positive side. the room was very quiet and we did get a good night's sleep.
+This just did not seem like a...We stayed at this hotel with 3 other couples.  We booked 2 bedroom suites next to each other. When we checked into the hotel the staff was busy snacking on pizza and did not seem real interested in checking us in.  Finally, we got to our room which on the positive side was clean but the furniture and carpeting were pretty old and one chair had a big rip in the seat.  Checking out the cabinets for glasses we found only 1 glass.  Calling the desk we were told a housekeeper would bring us some glasses.  The housekeeper who didn't speak much English brought us a small 4 ounce glass and said there wasn't any more.  We drank our dinner drinks out of coffee cups.  Again the office said they would bring us glasses but an employee showed up with only 1 8 ounce glass.  Our friends in the other room had only 3 glasses.  We were only staying 1 night but I think that anyone coming for a longer stay would find they would have to go out and buy things to supply the room while they were there.The swimming pool is right in the parking lot by the front office door and is a busy area with cars and people coming and going.On the positive side. the room was very quiet and we did get a good night's sleep.This just did not seem like a Marriott but more like a Motel 6.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r198810262-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -1124,9 +1749,6 @@
     <t>We stayed two nights in a two bedroom suite. The beds are really great, everything was clean. I did appreciate the nice staff at reception, they really did their best to accommodate our family. I asked them about the guest laundry during check in, they managed to find us a suite on the same floor which was really convenient. During the night I had to print boarding passes and tickets, I was welcomed in the lobby and helped with my different needs (stapler etc.. ). Breakfast was continental, with plenty of choices, the dinning room is kind of small and we had to take our plates and drinks back in our rooms since we couldn't seat. That's the only downside I can see here,and that's not even an issue. It's only six minutes away by car from the Space Center, which was really convenient.Overall a good stay and I would come back again if I need an hotel in this areaMoreShow less</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
     <t>We stayed two nights in a two bedroom suite. The beds are really great, everything was clean. I did appreciate the nice staff at reception, they really did their best to accommodate our family. I asked them about the guest laundry during check in, they managed to find us a suite on the same floor which was really convenient. During the night I had to print boarding passes and tickets, I was welcomed in the lobby and helped with my different needs (stapler etc.. ). Breakfast was continental, with plenty of choices, the dinning room is kind of small and we had to take our plates and drinks back in our rooms since we couldn't seat. That's the only downside I can see here,and that's not even an issue. It's only six minutes away by car from the Space Center, which was really convenient.Overall a good stay and I would come back again if I need an hotel in this areaMore</t>
   </si>
   <si>
@@ -1181,6 +1803,49 @@
     <t>I recently moved to TX and am trying to find a decent hotel to stay in the Houston area for under $120/night (our companies limit). I am quickly learning that here in Houston, $120/night buys you a shady, nasty, sleepless dump like this place. No Hyatt Places or Hampton Inns for me anymore I guess!!Lets start with the sleep quality: paper thin walls, there is a busy railroad track closeby so trains every 1-2 hours at night, and the AC was broken so would cycle on then off about every 3 minutes so no good white noise either!I'm sorry but the only reason I goto a hotel is to get some sleep in a clean and quiet environment which this place definitely DOES NOT deliver.Management accidentally charged my personal card even though it had already been booked and paid for thru Egencia and our corporate card. (Always a sign of a bad hotel when they can't even get the charges/billing side straight).If you are a business traveler who likes to sleep in clean rooms, and not have to deal with billing BS from the front desk, this hotel is NOT for you. 1 star at best and that's being generous.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r179633381-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179633381</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>It's not as bad as most reviews state. Just set your expectations where they need to be.</t>
+  </si>
+  <si>
+    <t>We were going to a family reunion and were trying to find a suite large enough for 2 parents and 4 adult children. Although we wanted to stay at the SpringHill Suites, it was not available. We saw this one, and noticed that it had two separate bedrooms and a fold out in the living room. I had read awful reviews about how old it was, and how noisy it was, and how we should absolutely not consider it. We had also read awful reviews about the staff. Well, we did end up staying here, and it really wasn't that bad. We shared our concerns after reading the reviews with the staff, and they bent over backwards to put us in a "non-road noise" area. They also put is in one their nicer rooms, so we didn't see the "horrors" some people had posted in their pictures.
+Does it look like you would think a Marriott brand hotel should? Not necessarily...it is in need of renovation. Was it horribly loud? No, not all...not where our room was anyway, which is interesting because it pretty much faced NASA Blvd. The breakfast was as you would expect. The added privacy of having two separate bedrooms was actually very much welcomed. The air conditioner worked great, and the staff provided whatever extra linens we requested.
+Bottom line, if you're looking for something not fancy at all, and you're trying to fit a brood,...We were going to a family reunion and were trying to find a suite large enough for 2 parents and 4 adult children. Although we wanted to stay at the SpringHill Suites, it was not available. We saw this one, and noticed that it had two separate bedrooms and a fold out in the living room. I had read awful reviews about how old it was, and how noisy it was, and how we should absolutely not consider it. We had also read awful reviews about the staff. Well, we did end up staying here, and it really wasn't that bad. We shared our concerns after reading the reviews with the staff, and they bent over backwards to put us in a "non-road noise" area. They also put is in one their nicer rooms, so we didn't see the "horrors" some people had posted in their pictures.Does it look like you would think a Marriott brand hotel should? Not necessarily...it is in need of renovation. Was it horribly loud? No, not all...not where our room was anyway, which is interesting because it pretty much faced NASA Blvd. The breakfast was as you would expect. The added privacy of having two separate bedrooms was actually very much welcomed. The air conditioner worked great, and the staff provided whatever extra linens we requested.Bottom line, if you're looking for something not fancy at all, and you're trying to fit a brood, and you get a killer rate, I would say do it. Specially, if all you're planning to do there is pretty much sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We were going to a family reunion and were trying to find a suite large enough for 2 parents and 4 adult children. Although we wanted to stay at the SpringHill Suites, it was not available. We saw this one, and noticed that it had two separate bedrooms and a fold out in the living room. I had read awful reviews about how old it was, and how noisy it was, and how we should absolutely not consider it. We had also read awful reviews about the staff. Well, we did end up staying here, and it really wasn't that bad. We shared our concerns after reading the reviews with the staff, and they bent over backwards to put us in a "non-road noise" area. They also put is in one their nicer rooms, so we didn't see the "horrors" some people had posted in their pictures.
+Does it look like you would think a Marriott brand hotel should? Not necessarily...it is in need of renovation. Was it horribly loud? No, not all...not where our room was anyway, which is interesting because it pretty much faced NASA Blvd. The breakfast was as you would expect. The added privacy of having two separate bedrooms was actually very much welcomed. The air conditioner worked great, and the staff provided whatever extra linens we requested.
+Bottom line, if you're looking for something not fancy at all, and you're trying to fit a brood,...We were going to a family reunion and were trying to find a suite large enough for 2 parents and 4 adult children. Although we wanted to stay at the SpringHill Suites, it was not available. We saw this one, and noticed that it had two separate bedrooms and a fold out in the living room. I had read awful reviews about how old it was, and how noisy it was, and how we should absolutely not consider it. We had also read awful reviews about the staff. Well, we did end up staying here, and it really wasn't that bad. We shared our concerns after reading the reviews with the staff, and they bent over backwards to put us in a "non-road noise" area. They also put is in one their nicer rooms, so we didn't see the "horrors" some people had posted in their pictures.Does it look like you would think a Marriott brand hotel should? Not necessarily...it is in need of renovation. Was it horribly loud? No, not all...not where our room was anyway, which is interesting because it pretty much faced NASA Blvd. The breakfast was as you would expect. The added privacy of having two separate bedrooms was actually very much welcomed. The air conditioner worked great, and the staff provided whatever extra linens we requested.Bottom line, if you're looking for something not fancy at all, and you're trying to fit a brood, and you get a killer rate, I would say do it. Specially, if all you're planning to do there is pretty much sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r179534497-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179534497</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Good Location, very helpful staff</t>
+  </si>
+  <si>
+    <t>We booked this location to attend a memorial at NASA for our son-in-law, a former NASA employee of 15 years.The staff helped us with good rooms, extra rooms for the parents of the deceased, and a short notice 1-night rental for another family member.  The staff on all shifts were concerned and helpful.I've been a Marriott Rewards member for years, and this was among the best places for staff helping in a family emergency.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r175101568-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -1229,6 +1894,36 @@
     <t xml:space="preserve">This hotel worked for our needs, but wasn't great.  We had a 1 bdrm suite.  Tacky furnishings plus our tv remote didn't work.  The porter came to try to fix the remote, but he never solved the problem.  Our a/c dripped (loudly ) all night---uncomfortable bed.  The breakfast was decent, but the layout is awkward with few places to sit.  Staff friendly.  Close to NASA </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r168780696-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168780696</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>I stayed here a few years ago and had great experience, this time not so much.   A non smoking hotel but smoke lingers in hallways on bottom floor and some drifts upstairs.   The towels were of a poor quality as were the sheets.  The refrigerator door opens the wrong way so difficult to use.The key cards would only work occasionally and front desk said they have had problems with the door key cards.   I will not be staying again,  Marriott quality has gone down here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r168484123-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168484123</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>A great place to stay and very friendly staff</t>
+  </si>
+  <si>
+    <t>We stayed here just for the weekend and wanted a hotel that wasn't too pricey and had a short driving distance to Kemah. Upon checking in the room we were greeted by a very bad odor like something soured. I asked for another room and my requested was quickly accommodated. The room was very clean and order free. The staff went out of their way to make sure all of our needs were met. Even though it started out on a "sour note", I didn't let that deter us from having a great time. Overall, I really enjoyed my visit and I would stay there again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r165230027-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -1268,9 +1963,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>A friend and I had adjoining rooms for a two-day visit to the Houston/Galveston area. We were greeted politely at check-in and our rooms were ready even though it was only 10 a.m. The rooms were spacious and meticulously clean.The only downside was that the breakfast area was far too small for the number of people staying there. There was no hope of even sitting down, much less at a table. We took our food into the lobby the first day and just skipped it on the second. Security was great, and the rooms were clean, cool, and quiet. Everyone on the staff was super-friendly and very helpful. I will definitely stay here again next time I'm in this part of Texas.More</t>
   </si>
   <si>
@@ -1292,6 +1984,52 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r158869010-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158869010</t>
+  </si>
+  <si>
+    <t>04/26/2013</t>
+  </si>
+  <si>
+    <t>Great place for business travelers</t>
+  </si>
+  <si>
+    <t>I read these reviews when booking hotels for business travel and always make sure to check how recently the review was written.  Hotels go through lots of changes in management, etc. so if the review was made 5 years ago, things may have changed.  Anyway, I booked a room at this hotel when traveling for business a couple of weeks ago even though some of the reviews were a little scary.  This hotel is great!  
+The people at the front desk were super nice and helpful.  They have a little convenience are in the lobby where you can get snacks, soda, etc.  You're a little way off the freeway but you basically have your choice of awesome restaurants along Bay Area Blvd. leading to the hotel from I-45.  There is also an HEB Grocery store right next door that is super convenient if you are trying to eat healthier/more budget friendly while traveling.  
+The basic room at this hotel is a small studio apartment.  It is nicely appointed and has a small oven/stove, sink, dishwasher, full sized refrigerator, decent sized counter for chopping veggies, pots, pans, cooking utensils, real plates, microwave, etc.  The bathroom is nicely appointed and clean.  My shower had decent water pressure which is awesome because so many hotels now have those stupid eco friendly shower heads that make it next to impossible to get the shampoo out of your hair.  Ladies... you know exactly what I'm...I read these reviews when booking hotels for business travel and always make sure to check how recently the review was written.  Hotels go through lots of changes in management, etc. so if the review was made 5 years ago, things may have changed.  Anyway, I booked a room at this hotel when traveling for business a couple of weeks ago even though some of the reviews were a little scary.  This hotel is great!  The people at the front desk were super nice and helpful.  They have a little convenience are in the lobby where you can get snacks, soda, etc.  You're a little way off the freeway but you basically have your choice of awesome restaurants along Bay Area Blvd. leading to the hotel from I-45.  There is also an HEB Grocery store right next door that is super convenient if you are trying to eat healthier/more budget friendly while traveling.  The basic room at this hotel is a small studio apartment.  It is nicely appointed and has a small oven/stove, sink, dishwasher, full sized refrigerator, decent sized counter for chopping veggies, pots, pans, cooking utensils, real plates, microwave, etc.  The bathroom is nicely appointed and clean.  My shower had decent water pressure which is awesome because so many hotels now have those stupid eco friendly shower heads that make it next to impossible to get the shampoo out of your hair.  Ladies... you know exactly what I'm talking about.  There is a desk area to get your work done and a couch to relax and watch some TV.  The bed was pretty average if you ask me, not bad but not a temper-pedic like what I have at home.  I felt completely safe and relaxed staying here and being a little bit off the freeway made this location super quiet.  They also provide a nice breakfast with something different cooked fresh every morning or cook up your own eggs in your kitchen in the hotel room.  Full sized coffee pot in the room too... not those stupid pod things that taste all stale.  This is an older property but it is very well maintained.  They have 2 buildings with parking between.  The pool is outside and I didn't use it but it looked clean and well maintained when I was there.  The fitness room is small but it has everything you need to do some cardio or light weight training.  Oh, and if you're a business traveler they will make one of your business cards into a luggage tag for you at no charge just because they are awesome!  You can either drop your card into the basket at the front desk when you check in and pick up your luggage tag the next day or they will make you one while you wait.  The little things like this make this hotel one that I will come back to again and again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I read these reviews when booking hotels for business travel and always make sure to check how recently the review was written.  Hotels go through lots of changes in management, etc. so if the review was made 5 years ago, things may have changed.  Anyway, I booked a room at this hotel when traveling for business a couple of weeks ago even though some of the reviews were a little scary.  This hotel is great!  
+The people at the front desk were super nice and helpful.  They have a little convenience are in the lobby where you can get snacks, soda, etc.  You're a little way off the freeway but you basically have your choice of awesome restaurants along Bay Area Blvd. leading to the hotel from I-45.  There is also an HEB Grocery store right next door that is super convenient if you are trying to eat healthier/more budget friendly while traveling.  
+The basic room at this hotel is a small studio apartment.  It is nicely appointed and has a small oven/stove, sink, dishwasher, full sized refrigerator, decent sized counter for chopping veggies, pots, pans, cooking utensils, real plates, microwave, etc.  The bathroom is nicely appointed and clean.  My shower had decent water pressure which is awesome because so many hotels now have those stupid eco friendly shower heads that make it next to impossible to get the shampoo out of your hair.  Ladies... you know exactly what I'm...I read these reviews when booking hotels for business travel and always make sure to check how recently the review was written.  Hotels go through lots of changes in management, etc. so if the review was made 5 years ago, things may have changed.  Anyway, I booked a room at this hotel when traveling for business a couple of weeks ago even though some of the reviews were a little scary.  This hotel is great!  The people at the front desk were super nice and helpful.  They have a little convenience are in the lobby where you can get snacks, soda, etc.  You're a little way off the freeway but you basically have your choice of awesome restaurants along Bay Area Blvd. leading to the hotel from I-45.  There is also an HEB Grocery store right next door that is super convenient if you are trying to eat healthier/more budget friendly while traveling.  The basic room at this hotel is a small studio apartment.  It is nicely appointed and has a small oven/stove, sink, dishwasher, full sized refrigerator, decent sized counter for chopping veggies, pots, pans, cooking utensils, real plates, microwave, etc.  The bathroom is nicely appointed and clean.  My shower had decent water pressure which is awesome because so many hotels now have those stupid eco friendly shower heads that make it next to impossible to get the shampoo out of your hair.  Ladies... you know exactly what I'm talking about.  There is a desk area to get your work done and a couch to relax and watch some TV.  The bed was pretty average if you ask me, not bad but not a temper-pedic like what I have at home.  I felt completely safe and relaxed staying here and being a little bit off the freeway made this location super quiet.  They also provide a nice breakfast with something different cooked fresh every morning or cook up your own eggs in your kitchen in the hotel room.  Full sized coffee pot in the room too... not those stupid pod things that taste all stale.  This is an older property but it is very well maintained.  They have 2 buildings with parking between.  The pool is outside and I didn't use it but it looked clean and well maintained when I was there.  The fitness room is small but it has everything you need to do some cardio or light weight training.  Oh, and if you're a business traveler they will make one of your business cards into a luggage tag for you at no charge just because they are awesome!  You can either drop your card into the basket at the front desk when you check in and pick up your luggage tag the next day or they will make you one while you wait.  The little things like this make this hotel one that I will come back to again and again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r155192368-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155192368</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>I was just grateful for a bed</t>
+  </si>
+  <si>
+    <t>Rolled in late and my usual place was full. For the same price I got a room here. Functional room, clean but not very presentable (see photo of tattered chair). Street noise and intermittent wind howling in the window kept me up occasionally until I moved to the 2 nd bedroom. Bfast basically nutrigrain bars, yogurt and coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>Joel A, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded March 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2013</t>
+  </si>
+  <si>
+    <t>Rolled in late and my usual place was full. For the same price I got a room here. Functional room, clean but not very presentable (see photo of tattered chair). Street noise and intermittent wind howling in the window kept me up occasionally until I moved to the 2 nd bedroom. Bfast basically nutrigrain bars, yogurt and coffee.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r152939692-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -1352,6 +2090,60 @@
     <t>The staff appeared caring until my son and I had to address the ovecharges on our credit cards. I was going to have his "daily incidental surcharge" on my cc but instead they put a pending charge for the whole room on my card even tho his room was prepaid through orbitz. He had to prove that to the clerk as well by printing out the confirmation. That info should have come through from the reservation when the hotel received it from orbitz.  So now my cc has a pending charge for his room and incidental, his card was first charged $80 then after speaking to the clerk the following day, he was charged another $60!! The next day we asked the general manager to fix it but he blamed the computer system for the error. He says all will be well at check out. But in the meantime, these pending changes, that are admitedly wrong, are against our accounts for the next 5 days. We won't come back here. Mattress so soft you roll to the middle and the sheets come off to the point that you wake up on the mattress itself. Go elsewhere!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r148322472-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148322472</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>USED MARRIOT PTS !! credit card charged twice!!</t>
+  </si>
+  <si>
+    <t>my overnight stay  12-23-12This location is terrible. dirty and falling apart. Marriot polices compared to holiday inn rewards programs. Marriot is full of CC charging hassles! old This location is terrible. dirty and falling apart. Marriot polices compared to holiday inn rewards programs. Marriot is full of CC charging hassles!met krafty MS Lauren at front desk to checkout . Did talk to her about the charging CC when using reward pts policies etc. She was nice polite lady and took time to show me her xmas ornaments also . Other than nice employee at front desk. this location needs serious deep cleaning and renovations . the low ceiling is awful in the bathroom but 1 plus they do have stoves in spacey the room. left some personal belongings in the room by mistake. and blah didn't want to return to retrieve them. just wanted to move on and get out of there.finally several days later the charges finally disappeared well after xmas, sucks they held up some of my holiday spending money.  oh well i survived xmas. :) I will not return here and I wouldn't recommend to any one else.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Joel A, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded January 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2013</t>
+  </si>
+  <si>
+    <t>my overnight stay  12-23-12This location is terrible. dirty and falling apart. Marriot polices compared to holiday inn rewards programs. Marriot is full of CC charging hassles! old This location is terrible. dirty and falling apart. Marriot polices compared to holiday inn rewards programs. Marriot is full of CC charging hassles!met krafty MS Lauren at front desk to checkout . Did talk to her about the charging CC when using reward pts policies etc. She was nice polite lady and took time to show me her xmas ornaments also . Other than nice employee at front desk. this location needs serious deep cleaning and renovations . the low ceiling is awful in the bathroom but 1 plus they do have stoves in spacey the room. left some personal belongings in the room by mistake. and blah didn't want to return to retrieve them. just wanted to move on and get out of there.finally several days later the charges finally disappeared well after xmas, sucks they held up some of my holiday spending money.  oh well i survived xmas. :) I will not return here and I wouldn't recommend to any one else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r142358161-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142358161</t>
+  </si>
+  <si>
+    <t>10/08/2012</t>
+  </si>
+  <si>
+    <t>Top Notch!</t>
+  </si>
+  <si>
+    <t>The customer service was fantastic! Every employee we talked to was very personable and went out of their way to make sure our stay was enjoyable! The room was clean, spacious, tastefully decorated and comfortable. The welcome note along with the water and chips was a nice touch. The lady that took care of us in the breakfast room was outstanding, she kept everything stocked and made sure that we had everything we needed. Great experience - great stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Joel A, General Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded October 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2012</t>
+  </si>
+  <si>
+    <t>The customer service was fantastic! Every employee we talked to was very personable and went out of their way to make sure our stay was enjoyable! The room was clean, spacious, tastefully decorated and comfortable. The welcome note along with the water and chips was a nice touch. The lady that took care of us in the breakfast room was outstanding, she kept everything stocked and made sure that we had everything we needed. Great experience - great stay!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r139925197-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -1365,9 +2157,6 @@
   </si>
   <si>
     <t>This hotels customer service was great! We only stayed two days, but left feeling we knew the front desk personally. After checking in we received a phone call in our room from the front-desk manager just checking on us to see if we were happy with our room. The room was nice. The breakfast was great &amp; the lady who ran it was awesome. She offered meal ideas such as adding granola to our yogurt. The breakfast was really good.I did not use the pool, but it looked very small.If I'm in the area again I will likely stay here!</t>
-  </si>
-  <si>
-    <t>September 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r135936470-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
@@ -1419,15 +2208,51 @@
 None of these were awful complaints though and we greatly appreciate the overall value of the property. We stayed on reward points and were able to stay at this location longer than if we had used the...We stayed in a studio suite for two weeks before moving out of the area. The property's location can't be beat and the overall cleanliness of the hotel, breakfast area, pool, and lobby were very nice. I appreciated the laundry facilities and the delicious breakfast each morning. The woman who runs the breakfast room is very delightful and takes pride in her work. The actual rooms leave a little to be desired. Our room actually had an awful stale smell that I as sure would dissipate during our stay but it never did. I combated it with buying air fresheners and putting them all over. It definitely made me curious why the smell never seemed to go away. We had some issues with house keeping not cleaning our rooms (maybe 2 or 3 days they never came at all during our 15 night stay). Or they would come very late after we had both gotten home from work (after 6pm).I was there during the time when the second building's lock was broken so I did feel a little less secure during that time. It worked or our first few days and then the door never locked again during our two week stay. None of these were awful complaints though and we greatly appreciate the overall value of the property. We stayed on reward points and were able to stay at this location longer than if we had used the same amount of points elsewhere.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r132981722-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132981722</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Perfect for a family stay...and perfect for affordability going to the beach!</t>
+  </si>
+  <si>
+    <t>The staff at this establishment go above and beyond to make folks feel at home! The desk staff and the room care was exceptional. Lauren has taken great pride in making the breakfast diverse and delicious! The area was suburban safe! Heb is around the corner. The price is great. We went to NASA and beach. Beach hotels are so expensive. This place was close enough to enjoy the beach but come "home" to a two bedroom suite to stretch our toys out in...if you have kids, this is the way to go!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r132768286-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132768286</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Thought I Was on an Episode of "COPS"</t>
+  </si>
+  <si>
+    <t>Over all the hotel was nice. The deal I got on the 2 bed room suite was GREAT! Staff was cool as can be. BUT!!!!! During our 2 night stay, I've never in my life felt so afraid for my life and my families by the drama that unfolded. My heart goes out to the young guy that work the front desk. I pray that he heals from his injuries. My husband had to get dressed and help the poor kid till the cops arrived. Needless to say they rented a room out to a wild "crack head". This crazed man was violent running up and down the hall way naked as a jay bird. Breaking things, wanting to fight, saying very obscene things. Blood was from one end of the floor the next. He charged into our door. Blood was splattered all over it. There was a strange smell lingering in the hall way, in which later that night I found out he and his partner were smoking crack with a pipe. A cop came out and tried to see what was going on, he slapped the snot out of a cop. Even after being tazed, this guy felt nothing. He pulled it out and asked the cop was that all he had. The officer had to taze him multiple times. He was laying in the hallway naked, covered in blood. Not one time did we receive a courtesy...Over all the hotel was nice. The deal I got on the 2 bed room suite was GREAT! Staff was cool as can be. BUT!!!!! During our 2 night stay, I've never in my life felt so afraid for my life and my families by the drama that unfolded. My heart goes out to the young guy that work the front desk. I pray that he heals from his injuries. My husband had to get dressed and help the poor kid till the cops arrived. Needless to say they rented a room out to a wild "crack head". This crazed man was violent running up and down the hall way naked as a jay bird. Breaking things, wanting to fight, saying very obscene things. Blood was from one end of the floor the next. He charged into our door. Blood was splattered all over it. There was a strange smell lingering in the hall way, in which later that night I found out he and his partner were smoking crack with a pipe. A cop came out and tried to see what was going on, he slapped the snot out of a cop. Even after being tazed, this guy felt nothing. He pulled it out and asked the cop was that all he had. The officer had to taze him multiple times. He was laying in the hallway naked, covered in blood. Not one time did we receive a courtesy phone call from the front desk warning us to stay in our room until the scene was secure. This guy was dangerous!!!! Nobody could control him. If anybody had walked out, they could have been hurt. Kids were in the pool playing, families were on that floor, people were walking back and forth. I had to warned an elderly couple as they were coming off the elevator. They ran down the stairs after they saw the naked man walking. My kids were screaming and crying scared. I had to send out a text to the other mothers on the track team not to come to that floor as it was the only floor on site with washers and dryers and we all were washing uniforms for the next day of Junior Olympic try-outs. That night 2 adults and 2 children slept in one bed whereas the night before my husband and I shared a bed while each kid had their own bed and TV. Needless to say the $40 credit was not worth it. They basically gave that to anybody. Even people who only heard of what happened, and weren’t directly involved with the situation. People who didn’t even have rooms in that building. I was looking to get that night compensated or at least a free stay in the future at a hotel in the Marriot Family. My family couldn’t even sleep that night. I'll never be able to stay at this hotel again and don't recommend it. Then on top of that the next day the other guy that was in the room was allowed back into the hotel after being released from jail. He walked in with a see through white jump suit that looked something like a painters suit and bare foot. I really felt threatened by then. I know he saw my husband standing outside the door helping the front desk clerk. Although we didn’t speak to the police officer he could have assumed it and started more trouble. Cops came back out again as he fled from paying his cab far. I told my husband it was time to get our children and belongings and get the hell out of there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2012</t>
+  </si>
+  <si>
+    <t>Over all the hotel was nice. The deal I got on the 2 bed room suite was GREAT! Staff was cool as can be. BUT!!!!! During our 2 night stay, I've never in my life felt so afraid for my life and my families by the drama that unfolded. My heart goes out to the young guy that work the front desk. I pray that he heals from his injuries. My husband had to get dressed and help the poor kid till the cops arrived. Needless to say they rented a room out to a wild "crack head". This crazed man was violent running up and down the hall way naked as a jay bird. Breaking things, wanting to fight, saying very obscene things. Blood was from one end of the floor the next. He charged into our door. Blood was splattered all over it. There was a strange smell lingering in the hall way, in which later that night I found out he and his partner were smoking crack with a pipe. A cop came out and tried to see what was going on, he slapped the snot out of a cop. Even after being tazed, this guy felt nothing. He pulled it out and asked the cop was that all he had. The officer had to taze him multiple times. He was laying in the hallway naked, covered in blood. Not one time did we receive a courtesy...Over all the hotel was nice. The deal I got on the 2 bed room suite was GREAT! Staff was cool as can be. BUT!!!!! During our 2 night stay, I've never in my life felt so afraid for my life and my families by the drama that unfolded. My heart goes out to the young guy that work the front desk. I pray that he heals from his injuries. My husband had to get dressed and help the poor kid till the cops arrived. Needless to say they rented a room out to a wild "crack head". This crazed man was violent running up and down the hall way naked as a jay bird. Breaking things, wanting to fight, saying very obscene things. Blood was from one end of the floor the next. He charged into our door. Blood was splattered all over it. There was a strange smell lingering in the hall way, in which later that night I found out he and his partner were smoking crack with a pipe. A cop came out and tried to see what was going on, he slapped the snot out of a cop. Even after being tazed, this guy felt nothing. He pulled it out and asked the cop was that all he had. The officer had to taze him multiple times. He was laying in the hallway naked, covered in blood. Not one time did we receive a courtesy phone call from the front desk warning us to stay in our room until the scene was secure. This guy was dangerous!!!! Nobody could control him. If anybody had walked out, they could have been hurt. Kids were in the pool playing, families were on that floor, people were walking back and forth. I had to warned an elderly couple as they were coming off the elevator. They ran down the stairs after they saw the naked man walking. My kids were screaming and crying scared. I had to send out a text to the other mothers on the track team not to come to that floor as it was the only floor on site with washers and dryers and we all were washing uniforms for the next day of Junior Olympic try-outs. That night 2 adults and 2 children slept in one bed whereas the night before my husband and I shared a bed while each kid had their own bed and TV. Needless to say the $40 credit was not worth it. They basically gave that to anybody. Even people who only heard of what happened, and weren’t directly involved with the situation. People who didn’t even have rooms in that building. I was looking to get that night compensated or at least a free stay in the future at a hotel in the Marriot Family. My family couldn’t even sleep that night. I'll never be able to stay at this hotel again and don't recommend it. Then on top of that the next day the other guy that was in the room was allowed back into the hotel after being released from jail. He walked in with a see through white jump suit that looked something like a painters suit and bare foot. I really felt threatened by then. I know he saw my husband standing outside the door helping the front desk clerk. Although we didn’t speak to the police officer he could have assumed it and started more trouble. Cops came back out again as he fled from paying his cab far. I told my husband it was time to get our children and belongings and get the hell out of there.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r132713389-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
     <t>132713389</t>
   </si>
   <si>
-    <t>06/25/2012</t>
-  </si>
-  <si>
     <t>Satisfied</t>
   </si>
   <si>
@@ -1482,6 +2307,54 @@
     <t>We stayed in a 2 bedroom suite while we were moving from League City.  Very disappointed.  Mold was very bad on the ceiling in our bathroom.  There was also mold in the living quarters on the ceiling.  Tiles were cracked on the floor in the kitchen.  The refrigerator didn't work.  Didn't keep anything cold.  The main door didn't close.  Had to play with the handle repeatedly to get the door to shut and lock.  The outside door that goes to the outside didn't work half the time, they keep it locked, and your card would sound like it was unlocking it, but didn't actually do it.  The A/C didn't seem to be functioning properly either, the room was relatively cool, but stayed humid throughout our stay.  The walls must be really thin, because it sounded like the people above us were square dancing throughout the day.  The breakfast is not really a breakfast.  Just a couple of bagels and some fruit.  It was not a good experience.I did give it two stars because the beds were actually comfortable, and the room seem clean.  that is always a pro!I don't know, Marriott's Residence Inn is down the street think that is much a better extended stay type hotel.  Keep looking.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r127423487-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127423487</t>
+  </si>
+  <si>
+    <t>04/07/2012</t>
+  </si>
+  <si>
+    <t>Simple, yet Superb</t>
+  </si>
+  <si>
+    <t>We arrived late in the evening, with a flight out the next morning, so we weren't here for the long haul.  When we went to check in, they had no record of my online reservation but the gentleman assured me he could make it right.  Our two-bedroom suite was simple, but spacious for our party of five.  I did some work online while the family picked up dinner at a nearby pizza place and watched sports on two of the three large, flat screen TVs (one in each bedroom and one in the living room).  The gentleman in the lobby was able to recommend a pizza place open late enough to get dinner.  Also in the lobby is a huge map of nearby stores, businesses, and restaurants.  VERY helpful if you're just learning the area.We stayed in three different hotels during this trip across the south, and this one by far had the most comfortable beds.  Towneplace Suites is designed for long stays and I can see this property being convenient for families simply visiting the Houston area or moving to the area to work at NASA or Boeing.When we checked out, the friendly staff encouraged us to take advantage of the "grab and go" breakfast of muffins, coffee, cereal and juice.  The breakfast room has just been remodeled.  I suspect the rooms will be next.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Joel A, Manager at TownePlace Suites Houston NASA/Clear Lake, responded to this reviewResponded April 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2012</t>
+  </si>
+  <si>
+    <t>We arrived late in the evening, with a flight out the next morning, so we weren't here for the long haul.  When we went to check in, they had no record of my online reservation but the gentleman assured me he could make it right.  Our two-bedroom suite was simple, but spacious for our party of five.  I did some work online while the family picked up dinner at a nearby pizza place and watched sports on two of the three large, flat screen TVs (one in each bedroom and one in the living room).  The gentleman in the lobby was able to recommend a pizza place open late enough to get dinner.  Also in the lobby is a huge map of nearby stores, businesses, and restaurants.  VERY helpful if you're just learning the area.We stayed in three different hotels during this trip across the south, and this one by far had the most comfortable beds.  Towneplace Suites is designed for long stays and I can see this property being convenient for families simply visiting the Houston area or moving to the area to work at NASA or Boeing.When we checked out, the friendly staff encouraged us to take advantage of the "grab and go" breakfast of muffins, coffee, cereal and juice.  The breakfast room has just been remodeled.  I suspect the rooms will be next.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r126454173-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126454173</t>
+  </si>
+  <si>
+    <t>03/21/2012</t>
+  </si>
+  <si>
+    <t>Great Family Place- Great Hub Location</t>
+  </si>
+  <si>
+    <t>Great price for location. Clean rooms. Smelled great. Im very picky and need my room super clean or I can't stay at a place. My husband was on business in Houston and we needed a location near his job and near the fun.  I was worried from previous reviews and almost cancelled my reservations but I am glad I did not. Spring Breakers had filled up all other hotels in the area. Although this is not an extravagant hotel, it is tidy and neat and serves the purpose of having a clean, centrally located and affordable place for families to stay. This hotel is close to Johnson Space Center, There is a grocery store right behind hotel, Close to a great mall, restaraunts, 20 mins to Stewart Beach (across from Hotel Galvez is a great beach spot for families), very close to Kemah boardwalk (ride the beast when there!). I am glad we stayed. You must, must eat at Franca's Italian restaraunt. So good!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Great price for location. Clean rooms. Smelled great. Im very picky and need my room super clean or I can't stay at a place. My husband was on business in Houston and we needed a location near his job and near the fun.  I was worried from previous reviews and almost cancelled my reservations but I am glad I did not. Spring Breakers had filled up all other hotels in the area. Although this is not an extravagant hotel, it is tidy and neat and serves the purpose of having a clean, centrally located and affordable place for families to stay. This hotel is close to Johnson Space Center, There is a grocery store right behind hotel, Close to a great mall, restaraunts, 20 mins to Stewart Beach (across from Hotel Galvez is a great beach spot for families), very close to Kemah boardwalk (ride the beast when there!). I am glad we stayed. You must, must eat at Franca's Italian restaraunt. So good!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r126141489-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -1495,9 +2368,6 @@
   </si>
   <si>
     <t>Hotel is clean and staffs are very friendly.  We have 4 families stayed there and we all loved it.  Pull out sofa bed is not very comfortable but OK for kids.  The rooms are very clean.  Location is the best as just 30 min from down town Houston, 5 min to NASA and 35 min to Galveston beach.  They said they will have hot breakfast by end of March.</t>
-  </si>
-  <si>
-    <t>March 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r125771960-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
@@ -1542,6 +2412,45 @@
 The room was very roomy, having the two bedrooms was GREAT!! The bedrooms were small, but honestly they had everything we needed. 
 The bedroom my twins ended up using had a queen bed, a nightstand on each side, and a 4 drawer dresser with a 42 inch flat screen tv on it. (they liked that!) There was also a closet! 
 The main bedroom was quite a bit larger featuring, a queen bed, a...My family recently stayed here for two nights! If you have read any of my other reviews you will know a bit about me, and my family, if not I want to briefly touch on how we live at home, so you can decide if we are like you and if my review will provide value to you. I live in Alberta, Canada in a 2 storey home, with 3 bedrooms and a loft upstairs, a double attached garage, and a fully finished basement with a few more bedrooms. Our community is not upscale, but its not budget either, my husband and I travel a lot! When we are traveling with our kids (13 yr old twins and 4 yr old) we like to have space, and as much comfort a we can get, for a decent price. Anyone who travels with their family knows just how pricey such an adventure can be! We keep our home tidy, and neat. So let me get to the review. The room was very roomy, having the two bedrooms was GREAT!! The bedrooms were small, but honestly they had everything we needed. The bedroom my twins ended up using had a queen bed, a nightstand on each side, and a 4 drawer dresser with a 42 inch flat screen tv on it. (they liked that!) There was also a closet! The main bedroom was quite a bit larger featuring, a queen bed, a large closet, a 4 drawer dresser with mirror above it, and a 42 inch flat screen tv mounted on a movable mount. My favorite feature was a large desk with work chair on the one side of the bed, as I was also doing some internet work while there. The internet was FREE, and either wired or wireless, (I used both with no problems). The beds were comfortable, and the bedding was nice. The living room and kitchen were tired, the kitchen even though fully functioning was more like the type of kitchen you would find in a rental apartment, rather than what most people would have at home, Old worn and burned arborite counter tops, the fridge was a good size and worked, the stove was apartment size and I never used it, there was also a dishwasher that was VERY loud (so put on when you are vacating the suite so you don't get bothered by it) All in all the kitchen functioned, but it would be great if they updated it. The sofa bed was WORN, so much so that I did not want to sleep my 4 yr old on it, so we removed the couch cushions, covered them in a doubled blanket, a fresh sheet, and asked for more bedding to give her blankets to cover with. (she slept in the closet in the larger bedroom as she felt more safe there, which was fine) There was also a chair in the living room, and a large tv (about 50" flat wall mounted) I would definitely think about staying here again, but there was one disappointment while here... I booked the hotel directly from the hotel website, and did not have a chance to view the reviews here, (which I am glad I did not or I probably would of not chosen to come here) The outdoor pool is also NOT heated, so the fact that they have it open YEAR Round is kind of a joke, considering even these Canadians were not going in that cold pool!! So if you plan to go and swim know the pool is NOT heated!! For the money having the separate rooms for the kids, for nearly the same price as a standard hotel room was a great bonus! Breakfast was small and they were always out of food, but we would ask and they would restock, maybe this was part of their ploy, as many people would not bother asking, they would just leave without eating. The hotel did tell me that they are adding a new hot breakfast room, and the renovations were being done as we were there, it was also my understanding that the guest rooms were being redone as well. We did not hear any construction noise while we were there. I would recommend to anyone that wants roomy, valuable accommodations.Connect with me on Facebook www.facebook.com/AmandaEvansCCMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r120533598-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120533598</t>
+  </si>
+  <si>
+    <t>11/13/2011</t>
+  </si>
+  <si>
+    <t>Great Staff - But Pay the Few $ More &amp; Stay at a Nicer Property.</t>
+  </si>
+  <si>
+    <t>I was very surprised that this property has the Marriott name, or any other chain Hotel name on it.  I have nothing horrific to say about this property, but The property needs updating DESPERATELY!  My mattress was the worst mattress I've ever slept on.  The grab and go breakfast was cereal, bagels, juice,milk and coffee. They have an outside pool with small BBQ area.It was INEXPENSIVE for a long stay, but you sacrifice dearly for the lower rate.   I won't stay here again unless the hotel is completely remodeled.  The staff was super friendly.  I would like to specifically mention by name LAUREN.  She was great &amp; did everything she could to make my stay as pleasant as possible. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very surprised that this property has the Marriott name, or any other chain Hotel name on it.  I have nothing horrific to say about this property, but The property needs updating DESPERATELY!  My mattress was the worst mattress I've ever slept on.  The grab and go breakfast was cereal, bagels, juice,milk and coffee. They have an outside pool with small BBQ area.It was INEXPENSIVE for a long stay, but you sacrifice dearly for the lower rate.   I won't stay here again unless the hotel is completely remodeled.  The staff was super friendly.  I would like to specifically mention by name LAUREN.  She was great &amp; did everything she could to make my stay as pleasant as possible. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r120240734-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120240734</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>price was right</t>
+  </si>
+  <si>
+    <t>I wasn't sure we wanted to stay here after reading Reggie-d review.  The property does need some updating - the only thing that needed cleaning was the sofa, it did have some stains.  It is very basic, very, very small kitchen and the grab and go breakfast was cereal, bagels, juice,milk and coffee.  They have a outside pool with small BBQ area.  It was very inexpensive and , we are quite spoiled and normally stay at Residence Inns, but did stay at a Town Place Suites in Baton Rouge that was super nice with inside pool and hot tub.  We probably won't stay here again, but the staff was super friendly and even thanked us for our business.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I wasn't sure we wanted to stay here after reading Reggie-d review.  The property does need some updating - the only thing that needed cleaning was the sofa, it did have some stains.  It is very basic, very, very small kitchen and the grab and go breakfast was cereal, bagels, juice,milk and coffee.  They have a outside pool with small BBQ area.  It was very inexpensive and , we are quite spoiled and normally stay at Residence Inns, but did stay at a Town Place Suites in Baton Rouge that was super nice with inside pool and hot tub.  We probably won't stay here again, but the staff was super friendly and even thanked us for our business.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108054-r119644644-TownePlace_Suites_Houston_NASA_Clear_Lake-Houston_Texas.html</t>
@@ -2094,7 +3003,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
@@ -2160,17 +3069,11 @@
         <v>61</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -2216,12 +3119,8 @@
       <c r="M4" t="n">
         <v>5</v>
       </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
-      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -2275,7 +3174,7 @@
         <v>74</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>75</v>
@@ -2284,18 +3183,24 @@
         <v>76</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -2311,28 +3216,28 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
         <v>75</v>
@@ -2350,13 +3255,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
         <v>83</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>84</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -2372,52 +3277,52 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>89</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>90</v>
       </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>91</v>
-      </c>
-      <c r="O7" t="s">
-        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2433,7 +3338,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2442,47 +3347,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>99</v>
-      </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
         <v>100</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2498,58 +3399,48 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>102</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>103</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>104</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>105</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>106</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
       <c r="O9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>108</v>
-      </c>
-      <c r="X9" t="s">
-        <v>109</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -2565,34 +3456,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
         <v>111</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>112</v>
       </c>
-      <c r="J10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" t="s">
-        <v>115</v>
-      </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2603,8 +3494,12 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>114</v>
+      </c>
       <c r="Y10" t="s">
         <v>115</v>
       </c>
@@ -2643,25 +3538,23 @@
         <v>120</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
         <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2669,7 +3562,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -2685,54 +3578,48 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>124</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>125</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>126</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>127</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>128</v>
       </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>129</v>
-      </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -2748,50 +3635,44 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>130</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>131</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>132</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>133</v>
       </c>
-      <c r="L13" t="s">
-        <v>134</v>
-      </c>
       <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>135</v>
-      </c>
-      <c r="O13" t="s">
-        <v>122</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
@@ -2807,54 +3688,56 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
         <v>136</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>137</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>138</v>
       </c>
-      <c r="K14" t="s">
-        <v>139</v>
-      </c>
-      <c r="L14" t="s">
-        <v>140</v>
-      </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
         <v>76</v>
       </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
@@ -2897,15 +3780,15 @@
         <v>147</v>
       </c>
       <c r="O15" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
       </c>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -2914,10 +3797,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2933,7 +3820,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2942,43 +3829,37 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
         <v>147</v>
       </c>
       <c r="O16" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>153</v>
-      </c>
-      <c r="X16" t="s">
-        <v>154</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
         <v>155</v>
       </c>
@@ -3017,27 +3898,33 @@
         <v>160</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
         <v>161</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
@@ -3077,10 +3964,10 @@
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3110,7 +3997,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3119,37 +4006,37 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3157,7 +4044,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
@@ -3173,7 +4060,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3182,39 +4069,45 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="J20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -3230,7 +4123,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3239,39 +4132,41 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
@@ -3287,7 +4182,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3296,43 +4191,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
@@ -3348,7 +4239,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3357,41 +4248,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s">
-        <v>76</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>162</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>197</v>
-      </c>
-      <c r="X23" t="s">
-        <v>198</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
         <v>199</v>
       </c>
@@ -3430,23 +4323,25 @@
         <v>204</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="O24" t="s">
         <v>61</v>
       </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3497,14 +4392,16 @@
         <v>210</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -3552,31 +4449,33 @@
         <v>215</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s">
-        <v>76</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>216</v>
+      </c>
+      <c r="X26" t="s">
+        <v>217</v>
+      </c>
       <c r="Y26" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
@@ -3592,7 +4491,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3601,32 +4500,34 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s">
         <v>76</v>
       </c>
-      <c r="P27" t="s"/>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3637,7 +4538,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -3653,7 +4554,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3662,39 +4563,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J28" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K28" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L28" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29">
@@ -3710,7 +4615,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3719,47 +4624,37 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
         <v>230</v>
       </c>
-      <c r="K29" t="s">
-        <v>231</v>
-      </c>
-      <c r="L29" t="s">
-        <v>232</v>
-      </c>
-      <c r="M29" t="n">
-        <v>3</v>
-      </c>
-      <c r="N29" t="s">
-        <v>233</v>
-      </c>
       <c r="O29" t="s">
-        <v>76</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>2</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>234</v>
-      </c>
-      <c r="X29" t="s">
-        <v>235</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
         <v>236</v>
       </c>
@@ -3798,26 +4693,20 @@
         <v>241</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
@@ -3852,36 +4741,42 @@
         <v>243</v>
       </c>
       <c r="J31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" t="s">
         <v>244</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>245</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>246</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>247</v>
       </c>
       <c r="O31" t="s">
         <v>76</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32">
@@ -3897,52 +4792,48 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
         <v>248</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>249</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>250</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>251</v>
-      </c>
-      <c r="L32" t="s">
-        <v>252</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O32" t="s">
-        <v>254</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>3</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
@@ -3958,52 +4849,48 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>255</v>
+      </c>
+      <c r="J33" t="s">
         <v>256</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>257</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>258</v>
       </c>
-      <c r="K33" t="s">
-        <v>259</v>
-      </c>
-      <c r="L33" t="s">
-        <v>260</v>
-      </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>2</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34">
@@ -4019,31 +4906,31 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s">
         <v>263</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
         <v>264</v>
-      </c>
-      <c r="J34" t="s">
-        <v>265</v>
-      </c>
-      <c r="K34" t="s">
-        <v>266</v>
-      </c>
-      <c r="L34" t="s">
-        <v>267</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>268</v>
       </c>
       <c r="O34" t="s">
         <v>61</v>
@@ -4060,7 +4947,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35">
@@ -4076,52 +4963,48 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>265</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" t="s">
+        <v>268</v>
+      </c>
+      <c r="L35" t="s">
+        <v>269</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
         <v>270</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
-        <v>271</v>
-      </c>
-      <c r="J35" t="s">
-        <v>272</v>
-      </c>
-      <c r="K35" t="s">
-        <v>273</v>
-      </c>
-      <c r="L35" t="s">
-        <v>274</v>
-      </c>
-      <c r="M35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N35" t="s">
-        <v>275</v>
-      </c>
       <c r="O35" t="s">
-        <v>254</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>2</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
@@ -4137,7 +5020,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4146,35 +5029,35 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J36" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K36" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O36" t="s">
         <v>76</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4182,7 +5065,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
@@ -4198,7 +5081,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4207,47 +5090,35 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J37" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
-      </c>
-      <c r="N37" t="s">
-        <v>288</v>
-      </c>
-      <c r="O37" t="s">
-        <v>122</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
       <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>289</v>
-      </c>
-      <c r="X37" t="s">
-        <v>290</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38">
@@ -4263,7 +5134,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4272,39 +5143,43 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J38" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K38" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39">
@@ -4320,7 +5195,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4329,43 +5204,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J39" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="K39" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>294</v>
+      </c>
+      <c r="X39" t="s">
+        <v>295</v>
+      </c>
       <c r="Y39" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40">
@@ -4381,7 +5256,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4390,34 +5265,32 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="J40" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K40" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L40" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="O40" t="s">
-        <v>254</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4428,7 +5301,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41">
@@ -4444,7 +5317,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4453,39 +5326,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="J41" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K41" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L41" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="O41" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42">
@@ -4501,7 +5378,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4510,47 +5387,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="J42" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K42" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L42" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O42" t="s">
         <v>61</v>
       </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>321</v>
-      </c>
-      <c r="X42" t="s">
-        <v>322</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43">
@@ -4566,7 +5439,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4575,49 +5448,39 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J43" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="K43" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="O43" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3</v>
-      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>4</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>330</v>
-      </c>
-      <c r="X43" t="s">
-        <v>331</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44">
@@ -4633,7 +5496,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4642,39 +5505,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="J44" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="K44" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="s"/>
+      <c r="N44" t="s">
+        <v>313</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>338</v>
-      </c>
-      <c r="X44" t="s">
-        <v>339</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45">
@@ -4690,7 +5557,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4699,53 +5566,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="J45" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="K45" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="O45" t="s">
         <v>61</v>
       </c>
-      <c r="P45" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>338</v>
-      </c>
-      <c r="X45" t="s">
-        <v>339</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46">
@@ -4761,7 +5618,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4770,53 +5627,39 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="J46" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="K46" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="O46" t="s">
         <v>76</v>
       </c>
-      <c r="P46" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>3</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>338</v>
-      </c>
-      <c r="X46" t="s">
-        <v>339</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47">
@@ -4832,7 +5675,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4841,25 +5684,25 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="J47" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="K47" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="L47" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="O47" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4867,12 +5710,8 @@
       <c r="Q47" t="n">
         <v>4</v>
       </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -4883,7 +5722,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48">
@@ -4899,7 +5738,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4908,39 +5747,49 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="J48" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="K48" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>345</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="n">
         <v>3</v>
       </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
-      <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="X48" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="Y48" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49">
@@ -4956,7 +5805,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4965,53 +5814,49 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="J49" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="K49" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="O49" t="s">
         <v>61</v>
       </c>
       <c r="P49" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q49" t="n">
         <v>3</v>
       </c>
-      <c r="R49" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
         <v>2</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="X49" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="Y49" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50">
@@ -5027,7 +5872,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5036,41 +5881,37 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="J50" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="K50" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="L50" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="O50" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5078,7 +5919,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51">
@@ -5094,7 +5935,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5103,49 +5944,39 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="J51" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="K51" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="L51" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="O51" t="s">
-        <v>76</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52">
@@ -5161,7 +5992,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5170,37 +6001,35 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="J52" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="K52" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="L52" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>374</v>
+      </c>
+      <c r="O52" t="s">
+        <v>76</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5208,7 +6037,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53">
@@ -5224,7 +6053,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5233,49 +6062,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="J53" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="K53" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="L53" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="O53" t="s">
         <v>76</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>4</v>
-      </c>
-      <c r="R53" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>380</v>
+      </c>
+      <c r="X53" t="s">
+        <v>381</v>
+      </c>
       <c r="Y53" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54">
@@ -5291,7 +6120,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5300,41 +6129,35 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="J54" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="K54" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="L54" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="O54" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
         <v>4</v>
       </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5342,7 +6165,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55">
@@ -5358,7 +6181,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5367,41 +6190,35 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="J55" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="K55" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="L55" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="O55" t="s">
-        <v>76</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5409,7 +6226,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56">
@@ -5425,7 +6242,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5434,25 +6251,25 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="J56" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="K56" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="O56" t="s">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5466,7 +6283,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57">
@@ -5482,7 +6299,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5491,49 +6308,35 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="J57" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="K57" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="L57" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
-      <c r="N57" t="s">
-        <v>427</v>
-      </c>
-      <c r="O57" t="s">
-        <v>254</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58">
@@ -5549,7 +6352,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5558,53 +6361,45 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="J58" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="K58" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="O58" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
-      </c>
-      <c r="R58" t="n">
-        <v>3</v>
-      </c>
-      <c r="S58" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>433</v>
-      </c>
-      <c r="X58" t="s">
-        <v>434</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59">
@@ -5620,7 +6415,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5629,41 +6424,35 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="J59" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="K59" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="L59" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="O59" t="s">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>4</v>
-      </c>
-      <c r="R59" t="n">
-        <v>4</v>
-      </c>
-      <c r="S59" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5671,7 +6460,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60">
@@ -5687,7 +6476,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5696,38 +6485,32 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="J60" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="K60" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="L60" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="O60" t="s">
-        <v>76</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
       <c r="R60" t="n">
-        <v>5</v>
-      </c>
-      <c r="S60" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
         <v>5</v>
@@ -5738,7 +6521,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="61">
@@ -5754,7 +6537,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5763,53 +6546,47 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="J61" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="K61" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="L61" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="O61" t="s">
-        <v>76</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P61" t="s"/>
       <c r="Q61" t="n">
-        <v>3</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="X61" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="Y61" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62">
@@ -5825,7 +6602,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5834,49 +6611,39 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="J62" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="K62" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O62" t="s">
-        <v>76</v>
-      </c>
-      <c r="P62" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>4</v>
-      </c>
-      <c r="R62" t="n">
-        <v>3</v>
-      </c>
-      <c r="S62" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>4</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63">
@@ -5892,7 +6659,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5901,49 +6668,49 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="J63" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="K63" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O63" t="s">
-        <v>76</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P63" t="s"/>
       <c r="Q63" t="n">
         <v>5</v>
       </c>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
+      <c r="R63" t="s"/>
       <c r="S63" t="n">
         <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>448</v>
+      </c>
+      <c r="X63" t="s">
+        <v>449</v>
+      </c>
       <c r="Y63" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64">
@@ -5959,7 +6726,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -5968,53 +6735,39 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="J64" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="K64" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="L64" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="O64" t="s">
         <v>76</v>
       </c>
-      <c r="P64" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1</v>
-      </c>
-      <c r="R64" t="n">
-        <v>3</v>
-      </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>3</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
-        <v>475</v>
-      </c>
-      <c r="X64" t="s">
-        <v>476</v>
-      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65">
@@ -6030,7 +6783,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6039,38 +6792,32 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="J65" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="K65" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="L65" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="O65" t="s">
-        <v>76</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
       <c r="R65" t="n">
         <v>5</v>
       </c>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
         <v>5</v>
@@ -6081,7 +6828,7 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66">
@@ -6097,7 +6844,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6106,38 +6853,34 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="J66" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="K66" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="L66" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="O66" t="s">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
       </c>
-      <c r="Q66" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q66" t="s"/>
       <c r="R66" t="n">
         <v>5</v>
       </c>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
         <v>5</v>
@@ -6148,7 +6891,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67">
@@ -6164,7 +6907,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6173,41 +6916,35 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="J67" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="K67" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="L67" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="M67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="O67" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>4</v>
-      </c>
-      <c r="R67" t="n">
-        <v>5</v>
-      </c>
-      <c r="S67" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6215,7 +6952,7 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68">
@@ -6231,7 +6968,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6240,37 +6977,33 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="J68" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="K68" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="L68" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="O68" t="s">
-        <v>76</v>
-      </c>
-      <c r="P68" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P68" t="s"/>
       <c r="Q68" t="n">
-        <v>2</v>
-      </c>
-      <c r="R68" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R68" t="s"/>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
@@ -6282,7 +7015,3071 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>481</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>482</v>
+      </c>
+      <c r="J69" t="s">
+        <v>483</v>
+      </c>
+      <c r="K69" t="s">
+        <v>484</v>
+      </c>
+      <c r="L69" t="s">
+        <v>485</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>473</v>
+      </c>
+      <c r="O69" t="s">
+        <v>91</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>486</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>487</v>
+      </c>
+      <c r="J70" t="s">
+        <v>488</v>
+      </c>
+      <c r="K70" t="s">
+        <v>489</v>
+      </c>
+      <c r="L70" t="s">
+        <v>490</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>491</v>
+      </c>
+      <c r="O70" t="s">
+        <v>76</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>492</v>
+      </c>
+      <c r="X70" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>495</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>496</v>
+      </c>
+      <c r="J71" t="s">
+        <v>497</v>
+      </c>
+      <c r="K71" t="s">
+        <v>498</v>
+      </c>
+      <c r="L71" t="s">
+        <v>499</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
         <v>500</v>
+      </c>
+      <c r="O71" t="s">
+        <v>61</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>501</v>
+      </c>
+      <c r="X71" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>504</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>505</v>
+      </c>
+      <c r="J72" t="s">
+        <v>506</v>
+      </c>
+      <c r="K72" t="s">
+        <v>507</v>
+      </c>
+      <c r="L72" t="s">
+        <v>508</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>509</v>
+      </c>
+      <c r="O72" t="s">
+        <v>61</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>510</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>511</v>
+      </c>
+      <c r="J73" t="s">
+        <v>512</v>
+      </c>
+      <c r="K73" t="s">
+        <v>513</v>
+      </c>
+      <c r="L73" t="s">
+        <v>514</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>515</v>
+      </c>
+      <c r="O73" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>516</v>
+      </c>
+      <c r="X73" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>519</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>520</v>
+      </c>
+      <c r="J74" t="s">
+        <v>521</v>
+      </c>
+      <c r="K74" t="s">
+        <v>522</v>
+      </c>
+      <c r="L74" t="s">
+        <v>523</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>516</v>
+      </c>
+      <c r="X74" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>525</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>526</v>
+      </c>
+      <c r="J75" t="s">
+        <v>527</v>
+      </c>
+      <c r="K75" t="s">
+        <v>528</v>
+      </c>
+      <c r="L75" t="s">
+        <v>529</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>515</v>
+      </c>
+      <c r="O75" t="s">
+        <v>76</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>516</v>
+      </c>
+      <c r="X75" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>531</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>532</v>
+      </c>
+      <c r="J76" t="s">
+        <v>533</v>
+      </c>
+      <c r="K76" t="s">
+        <v>534</v>
+      </c>
+      <c r="L76" t="s">
+        <v>535</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>536</v>
+      </c>
+      <c r="O76" t="s">
+        <v>61</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>516</v>
+      </c>
+      <c r="X76" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>538</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>539</v>
+      </c>
+      <c r="J77" t="s">
+        <v>540</v>
+      </c>
+      <c r="K77" t="s">
+        <v>541</v>
+      </c>
+      <c r="L77" t="s">
+        <v>542</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>543</v>
+      </c>
+      <c r="O77" t="s">
+        <v>91</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>544</v>
+      </c>
+      <c r="X77" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>547</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>548</v>
+      </c>
+      <c r="J78" t="s">
+        <v>549</v>
+      </c>
+      <c r="K78" t="s">
+        <v>550</v>
+      </c>
+      <c r="L78" t="s">
+        <v>551</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>552</v>
+      </c>
+      <c r="O78" t="s">
+        <v>162</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>553</v>
+      </c>
+      <c r="X78" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>556</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>557</v>
+      </c>
+      <c r="J79" t="s">
+        <v>558</v>
+      </c>
+      <c r="K79" t="s">
+        <v>559</v>
+      </c>
+      <c r="L79" t="s">
+        <v>560</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>552</v>
+      </c>
+      <c r="O79" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>562</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>563</v>
+      </c>
+      <c r="J80" t="s">
+        <v>564</v>
+      </c>
+      <c r="K80" t="s">
+        <v>565</v>
+      </c>
+      <c r="L80" t="s">
+        <v>566</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>567</v>
+      </c>
+      <c r="X80" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>570</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>571</v>
+      </c>
+      <c r="J81" t="s">
+        <v>572</v>
+      </c>
+      <c r="K81" t="s">
+        <v>573</v>
+      </c>
+      <c r="L81" t="s">
+        <v>574</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>575</v>
+      </c>
+      <c r="O81" t="s">
+        <v>76</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>576</v>
+      </c>
+      <c r="X81" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>579</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>580</v>
+      </c>
+      <c r="J82" t="s">
+        <v>581</v>
+      </c>
+      <c r="K82" t="s">
+        <v>582</v>
+      </c>
+      <c r="L82" t="s">
+        <v>583</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>584</v>
+      </c>
+      <c r="O82" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>586</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>587</v>
+      </c>
+      <c r="J83" t="s">
+        <v>588</v>
+      </c>
+      <c r="K83" t="s">
+        <v>589</v>
+      </c>
+      <c r="L83" t="s">
+        <v>590</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>591</v>
+      </c>
+      <c r="O83" t="s">
+        <v>61</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>592</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>593</v>
+      </c>
+      <c r="J84" t="s">
+        <v>594</v>
+      </c>
+      <c r="K84" t="s">
+        <v>595</v>
+      </c>
+      <c r="L84" t="s">
+        <v>596</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>597</v>
+      </c>
+      <c r="O84" t="s">
+        <v>76</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>598</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>599</v>
+      </c>
+      <c r="J85" t="s">
+        <v>600</v>
+      </c>
+      <c r="K85" t="s">
+        <v>601</v>
+      </c>
+      <c r="L85" t="s">
+        <v>602</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>597</v>
+      </c>
+      <c r="O85" t="s">
+        <v>61</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>603</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>604</v>
+      </c>
+      <c r="J86" t="s">
+        <v>605</v>
+      </c>
+      <c r="K86" t="s">
+        <v>606</v>
+      </c>
+      <c r="L86" t="s">
+        <v>607</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>608</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>609</v>
+      </c>
+      <c r="J87" t="s">
+        <v>610</v>
+      </c>
+      <c r="K87" t="s">
+        <v>611</v>
+      </c>
+      <c r="L87" t="s">
+        <v>612</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>584</v>
+      </c>
+      <c r="O87" t="s">
+        <v>76</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>613</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>614</v>
+      </c>
+      <c r="J88" t="s">
+        <v>615</v>
+      </c>
+      <c r="K88" t="s">
+        <v>616</v>
+      </c>
+      <c r="L88" t="s">
+        <v>617</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>584</v>
+      </c>
+      <c r="O88" t="s">
+        <v>61</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>618</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>619</v>
+      </c>
+      <c r="J89" t="s">
+        <v>620</v>
+      </c>
+      <c r="K89" t="s">
+        <v>621</v>
+      </c>
+      <c r="L89" t="s">
+        <v>622</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>623</v>
+      </c>
+      <c r="O89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>625</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>626</v>
+      </c>
+      <c r="J90" t="s">
+        <v>627</v>
+      </c>
+      <c r="K90" t="s">
+        <v>628</v>
+      </c>
+      <c r="L90" t="s">
+        <v>629</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>630</v>
+      </c>
+      <c r="O90" t="s">
+        <v>162</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>632</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>633</v>
+      </c>
+      <c r="J91" t="s">
+        <v>634</v>
+      </c>
+      <c r="K91" t="s">
+        <v>635</v>
+      </c>
+      <c r="L91" t="s">
+        <v>636</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>637</v>
+      </c>
+      <c r="O91" t="s">
+        <v>61</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>638</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>639</v>
+      </c>
+      <c r="J92" t="s">
+        <v>640</v>
+      </c>
+      <c r="K92" t="s">
+        <v>641</v>
+      </c>
+      <c r="L92" t="s">
+        <v>642</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>637</v>
+      </c>
+      <c r="O92" t="s">
+        <v>76</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>644</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>645</v>
+      </c>
+      <c r="J93" t="s">
+        <v>646</v>
+      </c>
+      <c r="K93" t="s">
+        <v>647</v>
+      </c>
+      <c r="L93" t="s">
+        <v>648</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>649</v>
+      </c>
+      <c r="X93" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>652</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>653</v>
+      </c>
+      <c r="J94" t="s">
+        <v>654</v>
+      </c>
+      <c r="K94" t="s">
+        <v>655</v>
+      </c>
+      <c r="L94" t="s">
+        <v>656</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>657</v>
+      </c>
+      <c r="O94" t="s">
+        <v>162</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>658</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>659</v>
+      </c>
+      <c r="J95" t="s">
+        <v>660</v>
+      </c>
+      <c r="K95" t="s">
+        <v>661</v>
+      </c>
+      <c r="L95" t="s">
+        <v>662</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>663</v>
+      </c>
+      <c r="O95" t="s">
+        <v>388</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>664</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>665</v>
+      </c>
+      <c r="J96" t="s">
+        <v>666</v>
+      </c>
+      <c r="K96" t="s">
+        <v>667</v>
+      </c>
+      <c r="L96" t="s">
+        <v>668</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>663</v>
+      </c>
+      <c r="O96" t="s">
+        <v>61</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>2</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>669</v>
+      </c>
+      <c r="X96" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>672</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>673</v>
+      </c>
+      <c r="J97" t="s">
+        <v>674</v>
+      </c>
+      <c r="K97" t="s">
+        <v>675</v>
+      </c>
+      <c r="L97" t="s">
+        <v>676</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>677</v>
+      </c>
+      <c r="O97" t="s">
+        <v>91</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>678</v>
+      </c>
+      <c r="X97" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>681</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>682</v>
+      </c>
+      <c r="J98" t="s">
+        <v>683</v>
+      </c>
+      <c r="K98" t="s">
+        <v>684</v>
+      </c>
+      <c r="L98" t="s">
+        <v>685</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>686</v>
+      </c>
+      <c r="O98" t="s">
+        <v>61</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>687</v>
+      </c>
+      <c r="X98" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>690</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>691</v>
+      </c>
+      <c r="J99" t="s">
+        <v>692</v>
+      </c>
+      <c r="K99" t="s">
+        <v>693</v>
+      </c>
+      <c r="L99" t="s">
+        <v>694</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>686</v>
+      </c>
+      <c r="O99" t="s">
+        <v>61</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>695</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>696</v>
+      </c>
+      <c r="J100" t="s">
+        <v>697</v>
+      </c>
+      <c r="K100" t="s">
+        <v>698</v>
+      </c>
+      <c r="L100" t="s">
+        <v>699</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>700</v>
+      </c>
+      <c r="O100" t="s">
+        <v>61</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>701</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>702</v>
+      </c>
+      <c r="J101" t="s">
+        <v>703</v>
+      </c>
+      <c r="K101" t="s">
+        <v>704</v>
+      </c>
+      <c r="L101" t="s">
+        <v>705</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>706</v>
+      </c>
+      <c r="O101" t="s">
+        <v>61</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>707</v>
+      </c>
+      <c r="X101" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>710</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>711</v>
+      </c>
+      <c r="J102" t="s">
+        <v>712</v>
+      </c>
+      <c r="K102" t="s">
+        <v>713</v>
+      </c>
+      <c r="L102" t="s">
+        <v>714</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>706</v>
+      </c>
+      <c r="O102" t="s">
+        <v>61</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>715</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>716</v>
+      </c>
+      <c r="J103" t="s">
+        <v>717</v>
+      </c>
+      <c r="K103" t="s">
+        <v>718</v>
+      </c>
+      <c r="L103" t="s">
+        <v>719</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>706</v>
+      </c>
+      <c r="O103" t="s">
+        <v>76</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>720</v>
+      </c>
+      <c r="X103" t="s">
+        <v>721</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>723</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>724</v>
+      </c>
+      <c r="J104" t="s">
+        <v>717</v>
+      </c>
+      <c r="K104" t="s">
+        <v>725</v>
+      </c>
+      <c r="L104" t="s">
+        <v>726</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>706</v>
+      </c>
+      <c r="O104" t="s">
+        <v>61</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>728</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>729</v>
+      </c>
+      <c r="J105" t="s">
+        <v>730</v>
+      </c>
+      <c r="K105" t="s">
+        <v>731</v>
+      </c>
+      <c r="L105" t="s">
+        <v>732</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>706</v>
+      </c>
+      <c r="O105" t="s">
+        <v>61</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>734</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>735</v>
+      </c>
+      <c r="J106" t="s">
+        <v>736</v>
+      </c>
+      <c r="K106" t="s">
+        <v>737</v>
+      </c>
+      <c r="L106" t="s">
+        <v>738</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>739</v>
+      </c>
+      <c r="O106" t="s">
+        <v>61</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>740</v>
+      </c>
+      <c r="X106" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>743</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>744</v>
+      </c>
+      <c r="J107" t="s">
+        <v>745</v>
+      </c>
+      <c r="K107" t="s">
+        <v>746</v>
+      </c>
+      <c r="L107" t="s">
+        <v>747</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>748</v>
+      </c>
+      <c r="O107" t="s">
+        <v>61</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>749</v>
+      </c>
+      <c r="X107" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>752</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>753</v>
+      </c>
+      <c r="J108" t="s">
+        <v>754</v>
+      </c>
+      <c r="K108" t="s">
+        <v>755</v>
+      </c>
+      <c r="L108" t="s">
+        <v>756</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>757</v>
+      </c>
+      <c r="O108" t="s">
+        <v>61</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>759</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>760</v>
+      </c>
+      <c r="J109" t="s">
+        <v>761</v>
+      </c>
+      <c r="K109" t="s">
+        <v>762</v>
+      </c>
+      <c r="L109" t="s">
+        <v>763</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>757</v>
+      </c>
+      <c r="O109" t="s">
+        <v>61</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>764</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>765</v>
+      </c>
+      <c r="J110" t="s">
+        <v>766</v>
+      </c>
+      <c r="K110" t="s">
+        <v>767</v>
+      </c>
+      <c r="L110" t="s">
+        <v>768</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>769</v>
+      </c>
+      <c r="O110" t="s">
+        <v>61</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>770</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>771</v>
+      </c>
+      <c r="J111" t="s">
+        <v>772</v>
+      </c>
+      <c r="K111" t="s">
+        <v>773</v>
+      </c>
+      <c r="L111" t="s">
+        <v>774</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>769</v>
+      </c>
+      <c r="O111" t="s">
+        <v>61</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>776</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>777</v>
+      </c>
+      <c r="J112" t="s">
+        <v>778</v>
+      </c>
+      <c r="K112" t="s">
+        <v>779</v>
+      </c>
+      <c r="L112" t="s">
+        <v>780</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>2</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>782</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>783</v>
+      </c>
+      <c r="J113" t="s">
+        <v>784</v>
+      </c>
+      <c r="K113" t="s">
+        <v>785</v>
+      </c>
+      <c r="L113" t="s">
+        <v>786</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="s">
+        <v>787</v>
+      </c>
+      <c r="O113" t="s">
+        <v>91</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>38659</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>789</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>790</v>
+      </c>
+      <c r="J114" t="s">
+        <v>791</v>
+      </c>
+      <c r="K114" t="s">
+        <v>792</v>
+      </c>
+      <c r="L114" t="s">
+        <v>793</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2</v>
+      </c>
+      <c r="N114" t="s">
+        <v>794</v>
+      </c>
+      <c r="O114" t="s">
+        <v>61</v>
+      </c>
+      <c r="P114" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>2</v>
+      </c>
+      <c r="R114" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" t="n">
+        <v>2</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>1</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>
